--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,6 +68,333 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
   </si>
   <si>
@@ -77,52 +404,22 @@
     <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
@@ -134,90 +431,24 @@
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
   </si>
   <si>
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
   </si>
   <si>
@@ -227,235 +458,901 @@
     <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
+  </si>
+  <si>
+    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-10T11:04:16.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
+  </si>
+  <si>
+    <t>Women in Finance // 3rd Shadowing Day</t>
+  </si>
+  <si>
+    <t>2019-12-06T09:09:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
+  </si>
+  <si>
+    <t>La réforme des retraites par les nuls</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:21:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
+  </si>
+  <si>
+    <t>#FAQ17 - Posez vos questions</t>
+  </si>
+  <si>
+    <t>2019-11-24T14:47:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
+  </si>
+  <si>
+    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:09:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
+  </si>
+  <si>
+    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:06:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
@@ -464,79 +1361,34 @@
     <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
   </si>
   <si>
-    <t>Telerama</t>
-  </si>
-  <si>
     <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
@@ -551,64 +1403,85 @@
     <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
@@ -620,498 +1493,6 @@
     <t>2019-12-12T15:15:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
@@ -1119,387 +1500,6 @@
   </si>
   <si>
     <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1961,19 +1961,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>52652</v>
+        <v>74953</v>
       </c>
       <c r="F4" s="3">
-        <v>7833</v>
+        <v>1016</v>
       </c>
       <c r="G4" s="3">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1982,45 +1982,45 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4759</v>
+      </c>
+      <c r="F5" s="3">
+        <v>129</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>69498</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1189</v>
-      </c>
-      <c r="G5" s="3">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>220</v>
-      </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2031,19 +2031,19 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>62509</v>
+        <v>74</v>
       </c>
       <c r="F6" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2052,33 +2052,33 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>3484</v>
+        <v>13867</v>
       </c>
       <c r="F7" s="3">
-        <v>224</v>
+        <v>934</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -2087,33 +2087,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>1237</v>
+        <v>4640</v>
       </c>
       <c r="F8" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -2122,33 +2122,33 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>23702</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>3315</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2157,33 +2157,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>511312</v>
+        <v>472979</v>
       </c>
       <c r="F10" s="3">
-        <v>15167</v>
+        <v>20185</v>
       </c>
       <c r="G10" s="3">
-        <v>402</v>
+        <v>515</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2192,30 +2192,30 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3">
-        <v>27</v>
+        <v>8644</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2241,19 +2241,19 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="3">
-        <v>88</v>
+        <v>62509</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>4841</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2262,33 +2262,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="3">
-        <v>566966</v>
+        <v>23164</v>
       </c>
       <c r="F13" s="3">
-        <v>18782</v>
+        <v>162</v>
       </c>
       <c r="G13" s="3">
-        <v>416</v>
+        <v>8</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2317,13 +2317,13 @@
         <v>58</v>
       </c>
       <c r="E14" s="3">
-        <v>23</v>
+        <v>2078</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2352,10 +2352,10 @@
         <v>62</v>
       </c>
       <c r="E15" s="3">
-        <v>4640</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2381,19 +2381,19 @@
         <v>64</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" s="3">
-        <v>3080</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2402,33 +2402,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
       <c r="E17" s="3">
-        <v>24890</v>
+        <v>4463</v>
       </c>
       <c r="F17" s="3">
-        <v>1321</v>
+        <v>211</v>
       </c>
       <c r="G17" s="3">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2437,30 +2437,30 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
         <v>70</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" s="3">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2475,30 +2475,30 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" s="3">
-        <v>4463</v>
+        <v>239</v>
       </c>
       <c r="F19" s="3">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2507,33 +2507,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" s="3">
-        <v>46</v>
+        <v>69498</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2542,33 +2542,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
-      </c>
       <c r="E21" s="3">
-        <v>8644</v>
+        <v>3080</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2577,33 +2577,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
       <c r="E22" s="3">
-        <v>13867</v>
+        <v>87</v>
       </c>
       <c r="F22" s="3">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2612,33 +2612,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
       <c r="E23" s="3">
-        <v>239</v>
+        <v>25592</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2647,33 +2647,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
         <v>90</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
       <c r="E24" s="3">
-        <v>4759</v>
+        <v>4183126</v>
       </c>
       <c r="F24" s="3">
-        <v>129</v>
+        <v>49430</v>
       </c>
       <c r="G24" s="3">
-        <v>6</v>
+        <v>5701</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2682,27 +2682,27 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>1196</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
       <c r="E25" s="3">
-        <v>617</v>
+        <v>2053</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -2720,30 +2720,30 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
         <v>95</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
       <c r="E26" s="3">
-        <v>74953</v>
+        <v>8968</v>
       </c>
       <c r="F26" s="3">
-        <v>1016</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2752,33 +2752,33 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>472979</v>
+        <v>170</v>
       </c>
       <c r="F27" s="3">
-        <v>20185</v>
+        <v>4</v>
       </c>
       <c r="G27" s="3">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2787,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2801,19 +2801,19 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="3">
-        <v>95</v>
+        <v>2883</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2836,19 +2836,19 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
       </c>
       <c r="E29" s="3">
-        <v>25592</v>
+        <v>3484</v>
       </c>
       <c r="F29" s="3">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
         <v>109</v>
       </c>
       <c r="E30" s="3">
-        <v>87</v>
+        <v>844</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2906,16 +2906,16 @@
         <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3">
-        <v>2053</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -2930,30 +2930,30 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="3">
-        <v>18665</v>
+        <v>566966</v>
       </c>
       <c r="F32" s="3">
-        <v>659</v>
+        <v>18782</v>
       </c>
       <c r="G32" s="3">
-        <v>14</v>
+        <v>416</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2962,33 +2962,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="3">
-        <v>844</v>
+        <v>1237</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2997,33 +2997,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="3">
-        <v>222595</v>
+        <v>27</v>
       </c>
       <c r="F34" s="3">
-        <v>9022</v>
+        <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3032,33 +3032,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="3">
-        <v>170</v>
+        <v>18665</v>
       </c>
       <c r="F35" s="3">
-        <v>4</v>
+        <v>659</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -3067,33 +3067,33 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E36" s="3">
-        <v>4183126</v>
+        <v>52652</v>
       </c>
       <c r="F36" s="3">
-        <v>49430</v>
+        <v>7833</v>
       </c>
       <c r="G36" s="3">
-        <v>5701</v>
+        <v>85</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3102,33 +3102,33 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1196</v>
+        <v>346</v>
       </c>
       <c r="L36" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E37" s="3">
-        <v>8968</v>
+        <v>46</v>
       </c>
       <c r="F37" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -3137,33 +3137,33 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E38" s="3">
-        <v>428</v>
+        <v>222595</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G38" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -3172,33 +3172,33 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="3">
-        <v>23164</v>
+        <v>23702</v>
       </c>
       <c r="F39" s="3">
-        <v>162</v>
+        <v>3315</v>
       </c>
       <c r="G39" s="3">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3221,13 +3221,13 @@
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>74</v>
+        <v>617</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3256,19 +3256,19 @@
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>2883</v>
+        <v>511312</v>
       </c>
       <c r="F41" s="3">
-        <v>42</v>
+        <v>15167</v>
       </c>
       <c r="G41" s="3">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3291,19 +3291,19 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>2078</v>
+        <v>24890</v>
       </c>
       <c r="F42" s="3">
-        <v>44</v>
+        <v>1321</v>
       </c>
       <c r="G42" s="3">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3326,19 +3326,19 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="D43" t="s">
-        <v>150</v>
-      </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3347,33 +3347,33 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
         <v>152</v>
       </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" t="s">
-        <v>155</v>
-      </c>
       <c r="E44" s="3">
-        <v>732</v>
+        <v>2959</v>
       </c>
       <c r="F44" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G44" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3382,33 +3382,33 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
         <v>156</v>
       </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>158</v>
-      </c>
       <c r="E45" s="3">
-        <v>1556</v>
+        <v>110</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3417,33 +3417,33 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
         <v>159</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>160</v>
       </c>
-      <c r="C46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
       <c r="E46" s="3">
-        <v>3021</v>
+        <v>1274</v>
       </c>
       <c r="F46" s="3">
-        <v>580</v>
+        <v>128</v>
       </c>
       <c r="G46" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3452,33 +3452,33 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
         <v>163</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>164</v>
       </c>
-      <c r="C47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D47" t="s">
-        <v>166</v>
-      </c>
       <c r="E47" s="3">
-        <v>575</v>
+        <v>346</v>
       </c>
       <c r="F47" s="3">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3487,33 +3487,33 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s">
         <v>167</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>168</v>
       </c>
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>169</v>
-      </c>
       <c r="E48" s="3">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="F48" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3522,30 +3522,30 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
         <v>170</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>171</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>172</v>
       </c>
-      <c r="D49" t="s">
-        <v>173</v>
-      </c>
       <c r="E49" s="3">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F49" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3571,19 +3571,19 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
         <v>176</v>
       </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
       <c r="E50" s="3">
-        <v>3</v>
+        <v>12004</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3592,33 +3592,33 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" t="s">
         <v>178</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
         <v>179</v>
       </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" t="s">
-        <v>180</v>
-      </c>
       <c r="E51" s="3">
-        <v>7772</v>
+        <v>32</v>
       </c>
       <c r="F51" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3627,33 +3627,33 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
         <v>181</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="C52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>184</v>
-      </c>
       <c r="E52" s="3">
-        <v>1517</v>
+        <v>175</v>
       </c>
       <c r="F52" s="3">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="G52" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3662,33 +3662,33 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
         <v>185</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>186</v>
       </c>
-      <c r="C53" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" t="s">
-        <v>187</v>
-      </c>
       <c r="E53" s="3">
-        <v>1254</v>
+        <v>2165</v>
       </c>
       <c r="F53" s="3">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="G53" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3697,68 +3697,68 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
         <v>189</v>
       </c>
-      <c r="C54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" t="s">
-        <v>191</v>
-      </c>
       <c r="E54" s="3">
+        <v>322</v>
+      </c>
+      <c r="F54" s="3">
+        <v>16</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" t="s">
         <v>192</v>
       </c>
-      <c r="B55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
       <c r="E55" s="3">
-        <v>1493</v>
+        <v>357</v>
       </c>
       <c r="F55" s="3">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="G55" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3767,27 +3767,27 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
         <v>195</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>196</v>
       </c>
-      <c r="C56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
       <c r="E56" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F56" s="3">
         <v>11</v>
@@ -3802,30 +3802,30 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
         <v>199</v>
       </c>
-      <c r="C57" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" t="s">
-        <v>200</v>
-      </c>
       <c r="E57" s="3">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="F57" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3840,65 +3840,65 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" t="s">
         <v>201</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
         <v>202</v>
       </c>
-      <c r="C58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D58" t="s">
-        <v>203</v>
-      </c>
       <c r="E58" s="3">
-        <v>285</v>
+        <v>1386</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G58" s="3">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
         <v>2</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>6</v>
-      </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" t="s">
         <v>204</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
         <v>205</v>
       </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>206</v>
-      </c>
       <c r="E59" s="3">
-        <v>5880</v>
+        <v>132</v>
       </c>
       <c r="F59" s="3">
-        <v>594</v>
+        <v>7</v>
       </c>
       <c r="G59" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3907,33 +3907,33 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s">
         <v>207</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" t="s">
         <v>208</v>
       </c>
-      <c r="C60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" t="s">
-        <v>209</v>
-      </c>
       <c r="E60" s="3">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F60" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3945,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B61" t="s">
         <v>210</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>211</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>212</v>
       </c>
-      <c r="D61" t="s">
-        <v>213</v>
-      </c>
       <c r="E61" s="3">
-        <v>656</v>
+        <v>13154</v>
       </c>
       <c r="F61" s="3">
-        <v>30</v>
+        <v>1256</v>
       </c>
       <c r="G61" s="3">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3977,33 +3977,33 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" t="s">
         <v>214</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" t="s">
         <v>215</v>
       </c>
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s">
-        <v>216</v>
-      </c>
       <c r="E62" s="3">
-        <v>4711</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4012,33 +4012,33 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B63" t="s">
         <v>217</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" t="s">
         <v>218</v>
       </c>
-      <c r="C63" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" t="s">
-        <v>219</v>
-      </c>
       <c r="E63" s="3">
-        <v>1386</v>
+        <v>222</v>
       </c>
       <c r="F63" s="3">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G63" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4050,30 +4050,30 @@
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" t="s">
         <v>220</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>221</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
       </c>
       <c r="D64" t="s">
         <v>222</v>
       </c>
       <c r="E64" s="3">
-        <v>619</v>
+        <v>995</v>
       </c>
       <c r="F64" s="3">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="G64" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4082,10 +4082,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4096,16 +4096,16 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D65" t="s">
         <v>225</v>
       </c>
       <c r="E65" s="3">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F65" s="3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4131,19 +4131,19 @@
         <v>227</v>
       </c>
       <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
         <v>228</v>
       </c>
-      <c r="D66" t="s">
-        <v>229</v>
-      </c>
       <c r="E66" s="3">
-        <v>5563</v>
+        <v>1803</v>
       </c>
       <c r="F66" s="3">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="G66" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4152,33 +4152,33 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
         <v>230</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" t="s">
         <v>231</v>
       </c>
-      <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>232</v>
-      </c>
       <c r="E67" s="3">
-        <v>1803</v>
+        <v>5</v>
       </c>
       <c r="F67" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4187,30 +4187,30 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
         <v>233</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" t="s">
         <v>234</v>
       </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>235</v>
-      </c>
       <c r="E68" s="3">
-        <v>43</v>
+        <v>691</v>
       </c>
       <c r="F68" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -4222,24 +4222,24 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
         <v>236</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>237</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>238</v>
-      </c>
-      <c r="D69" t="s">
-        <v>239</v>
       </c>
       <c r="E69" s="3">
         <v>269112</v>
@@ -4260,30 +4260,30 @@
         <v>246</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
         <v>240</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" t="s">
         <v>241</v>
       </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>243</v>
-      </c>
       <c r="E70" s="3">
-        <v>110</v>
+        <v>1556</v>
       </c>
       <c r="F70" s="3">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4292,33 +4292,33 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
         <v>244</v>
       </c>
-      <c r="B71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" t="s">
-        <v>246</v>
-      </c>
       <c r="E71" s="3">
-        <v>145</v>
+        <v>5880</v>
       </c>
       <c r="F71" s="3">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4327,33 +4327,33 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
         <v>247</v>
       </c>
-      <c r="B72" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" t="s">
-        <v>183</v>
-      </c>
-      <c r="D72" t="s">
-        <v>249</v>
-      </c>
       <c r="E72" s="3">
-        <v>1084</v>
+        <v>96</v>
       </c>
       <c r="F72" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="G72" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4362,33 +4362,33 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" t="s">
         <v>250</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>251</v>
       </c>
-      <c r="C73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" t="s">
-        <v>252</v>
-      </c>
       <c r="E73" s="3">
-        <v>995</v>
+        <v>43</v>
       </c>
       <c r="F73" s="3">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="G73" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4397,33 +4397,33 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
         <v>253</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D74" t="s">
         <v>254</v>
       </c>
-      <c r="C74" t="s">
-        <v>255</v>
-      </c>
-      <c r="D74" t="s">
-        <v>256</v>
-      </c>
       <c r="E74" s="3">
-        <v>226</v>
+        <v>1254</v>
       </c>
       <c r="F74" s="3">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4432,33 +4432,33 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" t="s">
         <v>257</v>
       </c>
-      <c r="B75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" t="s">
-        <v>259</v>
-      </c>
       <c r="E75" s="3">
-        <v>7431</v>
+        <v>52</v>
       </c>
       <c r="F75" s="3">
-        <v>661</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4467,27 +4467,27 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="L75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s">
         <v>260</v>
       </c>
-      <c r="B76" t="s">
-        <v>261</v>
-      </c>
-      <c r="C76" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" t="s">
-        <v>262</v>
-      </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -4505,30 +4505,30 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" t="s">
         <v>263</v>
       </c>
-      <c r="B77" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" t="s">
-        <v>265</v>
-      </c>
       <c r="E77" s="3">
-        <v>5962</v>
+        <v>4508</v>
       </c>
       <c r="F77" s="3">
-        <v>765</v>
+        <v>446</v>
       </c>
       <c r="G77" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4537,27 +4537,27 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" t="s">
         <v>266</v>
       </c>
-      <c r="B78" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" t="s">
-        <v>46</v>
-      </c>
-      <c r="D78" t="s">
-        <v>268</v>
-      </c>
       <c r="E78" s="3">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="F78" s="3">
         <v>1</v>
@@ -4575,30 +4575,30 @@
         <v>2</v>
       </c>
       <c r="L78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
         <v>269</v>
       </c>
-      <c r="B79" t="s">
-        <v>270</v>
-      </c>
-      <c r="C79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" t="s">
-        <v>271</v>
-      </c>
       <c r="E79" s="3">
-        <v>2352</v>
+        <v>4358</v>
       </c>
       <c r="F79" s="3">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4607,33 +4607,33 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="L79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" t="s">
         <v>272</v>
       </c>
-      <c r="B80" t="s">
-        <v>273</v>
-      </c>
-      <c r="C80" t="s">
-        <v>255</v>
-      </c>
-      <c r="D80" t="s">
-        <v>274</v>
-      </c>
       <c r="E80" s="3">
-        <v>32</v>
+        <v>1593</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4645,30 +4645,30 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B81" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" t="s">
         <v>275</v>
       </c>
-      <c r="B81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>277</v>
-      </c>
       <c r="E81" s="3">
-        <v>4508</v>
+        <v>17</v>
       </c>
       <c r="F81" s="3">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4677,33 +4677,33 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" t="s">
         <v>278</v>
       </c>
-      <c r="B82" t="s">
-        <v>279</v>
-      </c>
-      <c r="C82" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" t="s">
-        <v>280</v>
-      </c>
       <c r="E82" s="3">
-        <v>126844</v>
+        <v>2848</v>
       </c>
       <c r="F82" s="3">
-        <v>8977</v>
+        <v>523</v>
       </c>
       <c r="G82" s="3">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4712,33 +4712,33 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" t="s">
+        <v>221</v>
+      </c>
+      <c r="D83" t="s">
         <v>281</v>
       </c>
-      <c r="B83" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" t="s">
-        <v>283</v>
-      </c>
       <c r="E83" s="3">
-        <v>9</v>
+        <v>1372</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4750,30 +4750,30 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
         <v>284</v>
       </c>
-      <c r="B84" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" t="s">
-        <v>286</v>
-      </c>
-      <c r="D84" t="s">
-        <v>287</v>
-      </c>
       <c r="E84" s="3">
-        <v>1921</v>
+        <v>75707</v>
       </c>
       <c r="F84" s="3">
-        <v>64</v>
+        <v>4287</v>
       </c>
       <c r="G84" s="3">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4782,27 +4782,27 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="L84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C85" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E85" s="3">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -4820,30 +4820,30 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B86" t="s">
+        <v>289</v>
+      </c>
+      <c r="C86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D86" t="s">
         <v>291</v>
       </c>
-      <c r="B86" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" t="s">
-        <v>293</v>
-      </c>
       <c r="E86" s="3">
-        <v>222</v>
+        <v>656</v>
       </c>
       <c r="F86" s="3">
         <v>30</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4852,33 +4852,33 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L86" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
         <v>294</v>
       </c>
-      <c r="B87" t="s">
-        <v>295</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" t="s">
-        <v>296</v>
-      </c>
       <c r="E87" s="3">
-        <v>24</v>
+        <v>9999</v>
       </c>
       <c r="F87" s="3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4887,33 +4887,33 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
         <v>297</v>
       </c>
-      <c r="B88" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>299</v>
-      </c>
       <c r="E88" s="3">
-        <v>5083</v>
+        <v>24</v>
       </c>
       <c r="F88" s="3">
-        <v>594</v>
+        <v>1</v>
       </c>
       <c r="G88" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4925,30 +4925,30 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" t="s">
+        <v>299</v>
+      </c>
+      <c r="C89" t="s">
+        <v>221</v>
+      </c>
+      <c r="D89" t="s">
         <v>300</v>
       </c>
-      <c r="B89" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" t="s">
-        <v>302</v>
-      </c>
       <c r="E89" s="3">
-        <v>104</v>
+        <v>644</v>
       </c>
       <c r="F89" s="3">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4960,30 +4960,30 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" t="s">
         <v>303</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>304</v>
       </c>
-      <c r="C90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D90" t="s">
-        <v>305</v>
-      </c>
       <c r="E90" s="3">
-        <v>1</v>
+        <v>5563</v>
       </c>
       <c r="F90" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G90" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4992,33 +4992,33 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" t="s">
         <v>306</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>221</v>
+      </c>
+      <c r="D91" t="s">
         <v>307</v>
       </c>
-      <c r="C91" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" t="s">
-        <v>308</v>
-      </c>
       <c r="E91" s="3">
-        <v>1330</v>
+        <v>578</v>
       </c>
       <c r="F91" s="3">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G91" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5027,33 +5027,33 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B92" t="s">
         <v>309</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
         <v>310</v>
       </c>
-      <c r="C92" t="s">
-        <v>311</v>
-      </c>
-      <c r="D92" t="s">
-        <v>312</v>
-      </c>
       <c r="E92" s="3">
-        <v>641</v>
+        <v>5083</v>
       </c>
       <c r="F92" s="3">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="G92" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -5062,33 +5062,33 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B93" t="s">
+        <v>312</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
         <v>313</v>
       </c>
-      <c r="B93" t="s">
-        <v>314</v>
-      </c>
-      <c r="C93" t="s">
-        <v>149</v>
-      </c>
-      <c r="D93" t="s">
-        <v>315</v>
-      </c>
       <c r="E93" s="3">
-        <v>12004</v>
+        <v>113046</v>
       </c>
       <c r="F93" s="3">
-        <v>691</v>
+        <v>8422</v>
       </c>
       <c r="G93" s="3">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5097,30 +5097,30 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
         <v>316</v>
       </c>
-      <c r="B94" t="s">
-        <v>317</v>
-      </c>
-      <c r="C94" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" t="s">
-        <v>318</v>
-      </c>
       <c r="E94" s="3">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5135,30 +5135,30 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" t="s">
         <v>319</v>
       </c>
-      <c r="B95" t="s">
-        <v>320</v>
-      </c>
-      <c r="C95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
-      </c>
       <c r="E95" s="3">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5167,33 +5167,33 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
         <v>322</v>
       </c>
-      <c r="B96" t="s">
-        <v>323</v>
-      </c>
-      <c r="C96" t="s">
-        <v>311</v>
-      </c>
-      <c r="D96" t="s">
-        <v>324</v>
-      </c>
       <c r="E96" s="3">
-        <v>1274</v>
+        <v>42</v>
       </c>
       <c r="F96" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5202,33 +5202,33 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" t="s">
         <v>325</v>
       </c>
-      <c r="B97" t="s">
-        <v>326</v>
-      </c>
-      <c r="C97" t="s">
-        <v>327</v>
-      </c>
-      <c r="D97" t="s">
-        <v>328</v>
-      </c>
       <c r="E97" s="3">
-        <v>2</v>
+        <v>1493</v>
       </c>
       <c r="F97" s="3">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5237,33 +5237,33 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D98" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E98" s="3">
-        <v>578</v>
+        <v>56</v>
       </c>
       <c r="F98" s="3">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G98" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5272,33 +5272,33 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
+        <v>330</v>
+      </c>
+      <c r="C99" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" t="s">
         <v>332</v>
       </c>
-      <c r="B99" t="s">
-        <v>333</v>
-      </c>
-      <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" t="s">
-        <v>334</v>
-      </c>
       <c r="E99" s="3">
-        <v>692</v>
+        <v>1921</v>
       </c>
       <c r="F99" s="3">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5307,30 +5307,30 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D100" t="s">
         <v>335</v>
       </c>
-      <c r="B100" t="s">
-        <v>336</v>
-      </c>
-      <c r="C100" t="s">
-        <v>311</v>
-      </c>
-      <c r="D100" t="s">
-        <v>337</v>
-      </c>
       <c r="E100" s="3">
-        <v>425</v>
+        <v>653</v>
       </c>
       <c r="F100" s="3">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5345,30 +5345,30 @@
         <v>7</v>
       </c>
       <c r="L100" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" t="s">
         <v>338</v>
       </c>
-      <c r="B101" t="s">
-        <v>339</v>
-      </c>
-      <c r="C101" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" t="s">
-        <v>340</v>
-      </c>
       <c r="E101" s="3">
-        <v>1760</v>
+        <v>152</v>
       </c>
       <c r="F101" s="3">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="G101" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5377,33 +5377,33 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B102" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" t="s">
         <v>341</v>
       </c>
-      <c r="B102" t="s">
-        <v>342</v>
-      </c>
-      <c r="C102" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" t="s">
-        <v>343</v>
-      </c>
       <c r="E102" s="3">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="F102" s="3">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="G102" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5412,27 +5412,27 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" t="s">
+        <v>343</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103" t="s">
         <v>344</v>
       </c>
-      <c r="B103" t="s">
-        <v>345</v>
-      </c>
-      <c r="C103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" t="s">
-        <v>346</v>
-      </c>
       <c r="E103" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -5450,30 +5450,30 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
         <v>347</v>
       </c>
-      <c r="B104" t="s">
-        <v>348</v>
-      </c>
-      <c r="C104" t="s">
-        <v>50</v>
-      </c>
-      <c r="D104" t="s">
-        <v>349</v>
-      </c>
       <c r="E104" s="3">
-        <v>94</v>
+        <v>3021</v>
       </c>
       <c r="F104" s="3">
-        <v>6</v>
+        <v>580</v>
       </c>
       <c r="G104" s="3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5482,33 +5482,33 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105" t="s">
+        <v>349</v>
+      </c>
+      <c r="C105" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" t="s">
         <v>350</v>
       </c>
-      <c r="B105" t="s">
-        <v>351</v>
-      </c>
-      <c r="C105" t="s">
-        <v>172</v>
-      </c>
-      <c r="D105" t="s">
-        <v>352</v>
-      </c>
       <c r="E105" s="3">
-        <v>152</v>
+        <v>4711</v>
       </c>
       <c r="F105" s="3">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5517,33 +5517,33 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B106" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" t="s">
         <v>353</v>
       </c>
-      <c r="B106" t="s">
+      <c r="D106" t="s">
         <v>354</v>
       </c>
-      <c r="C106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" t="s">
-        <v>355</v>
-      </c>
       <c r="E106" s="3">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F106" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5552,33 +5552,33 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B107" t="s">
         <v>356</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" t="s">
         <v>357</v>
       </c>
-      <c r="C107" t="s">
-        <v>172</v>
-      </c>
-      <c r="D107" t="s">
-        <v>358</v>
-      </c>
       <c r="E107" s="3">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="F107" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5587,33 +5587,33 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B108" t="s">
         <v>359</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" t="s">
         <v>360</v>
       </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>361</v>
-      </c>
       <c r="E108" s="3">
-        <v>75707</v>
+        <v>268</v>
       </c>
       <c r="F108" s="3">
-        <v>4287</v>
+        <v>23</v>
       </c>
       <c r="G108" s="3">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5622,33 +5622,33 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>628</v>
+        <v>3</v>
       </c>
       <c r="L108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B109" t="s">
         <v>362</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" t="s">
         <v>363</v>
       </c>
-      <c r="C109" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" t="s">
-        <v>364</v>
-      </c>
       <c r="E109" s="3">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="F109" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5657,33 +5657,33 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B110" t="s">
         <v>365</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>366</v>
-      </c>
-      <c r="C110" t="s">
-        <v>311</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
       </c>
       <c r="E110" s="3">
-        <v>1185</v>
+        <v>116</v>
       </c>
       <c r="F110" s="3">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="G110" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5706,19 +5706,19 @@
         <v>369</v>
       </c>
       <c r="C111" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
         <v>370</v>
       </c>
       <c r="E111" s="3">
-        <v>17</v>
+        <v>126844</v>
       </c>
       <c r="F111" s="3">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5741,19 +5741,19 @@
         <v>372</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="D112" t="s">
         <v>373</v>
       </c>
       <c r="E112" s="3">
-        <v>9999</v>
+        <v>1760</v>
       </c>
       <c r="F112" s="3">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="G112" s="3">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="L112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5776,19 +5776,19 @@
         <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
         <v>376</v>
       </c>
       <c r="E113" s="3">
-        <v>13154</v>
+        <v>26</v>
       </c>
       <c r="F113" s="3">
-        <v>1256</v>
+        <v>3</v>
       </c>
       <c r="G113" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5811,16 +5811,16 @@
         <v>378</v>
       </c>
       <c r="C114" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="D114" t="s">
         <v>379</v>
       </c>
       <c r="E114" s="3">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="F114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
         <v>0</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5846,16 +5846,16 @@
         <v>381</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
         <v>382</v>
       </c>
       <c r="E115" s="3">
-        <v>653</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G115" s="3">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5881,19 +5881,19 @@
         <v>384</v>
       </c>
       <c r="C116" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="D116" t="s">
         <v>385</v>
       </c>
       <c r="E116" s="3">
-        <v>691</v>
+        <v>5962</v>
       </c>
       <c r="F116" s="3">
-        <v>13</v>
+        <v>765</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="L116" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5916,19 +5916,19 @@
         <v>387</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="D117" t="s">
         <v>388</v>
       </c>
       <c r="E117" s="3">
-        <v>106303</v>
+        <v>1663</v>
       </c>
       <c r="F117" s="3">
-        <v>4496</v>
+        <v>218</v>
       </c>
       <c r="G117" s="3">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5937,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>647</v>
+        <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5951,19 +5951,19 @@
         <v>390</v>
       </c>
       <c r="C118" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
         <v>391</v>
       </c>
       <c r="E118" s="3">
-        <v>11</v>
+        <v>1084</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -5972,10 +5972,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5986,19 +5986,19 @@
         <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="D119" t="s">
         <v>394</v>
       </c>
       <c r="E119" s="3">
-        <v>691</v>
+        <v>17</v>
       </c>
       <c r="F119" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G119" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -6007,10 +6007,10 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6021,19 +6021,19 @@
         <v>396</v>
       </c>
       <c r="C120" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
         <v>397</v>
       </c>
       <c r="E120" s="3">
-        <v>1542</v>
+        <v>9</v>
       </c>
       <c r="F120" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -6042,10 +6042,10 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6056,19 +6056,19 @@
         <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D121" t="s">
         <v>400</v>
       </c>
       <c r="E121" s="3">
-        <v>43</v>
+        <v>7431</v>
       </c>
       <c r="F121" s="3">
-        <v>6</v>
+        <v>661</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6091,19 +6091,19 @@
         <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D122" t="s">
         <v>403</v>
       </c>
       <c r="E122" s="3">
-        <v>1663</v>
+        <v>113</v>
       </c>
       <c r="F122" s="3">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G122" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6112,10 +6112,10 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L122" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6126,19 +6126,19 @@
         <v>405</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="D123" t="s">
         <v>406</v>
       </c>
       <c r="E123" s="3">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6147,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6161,19 +6161,19 @@
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D124" t="s">
         <v>409</v>
       </c>
       <c r="E124" s="3">
-        <v>4358</v>
+        <v>285</v>
       </c>
       <c r="F124" s="3">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="G124" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6182,10 +6182,10 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6196,19 +6196,19 @@
         <v>411</v>
       </c>
       <c r="C125" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
         <v>412</v>
       </c>
       <c r="E125" s="3">
-        <v>112</v>
+        <v>732</v>
       </c>
       <c r="F125" s="3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -6217,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6231,19 +6231,19 @@
         <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
         <v>415</v>
       </c>
       <c r="E126" s="3">
-        <v>8</v>
+        <v>24429</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>2588</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="L126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6266,19 +6266,19 @@
         <v>417</v>
       </c>
       <c r="C127" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D127" t="s">
         <v>418</v>
       </c>
       <c r="E127" s="3">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="F127" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6301,13 +6301,13 @@
         <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="D128" t="s">
         <v>421</v>
       </c>
       <c r="E128" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6336,19 +6336,19 @@
         <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="D129" t="s">
         <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="F129" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6371,19 +6371,19 @@
         <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
         <v>427</v>
       </c>
       <c r="E130" s="3">
-        <v>113046</v>
+        <v>641</v>
       </c>
       <c r="F130" s="3">
-        <v>8422</v>
+        <v>80</v>
       </c>
       <c r="G130" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="L130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6406,19 +6406,19 @@
         <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
         <v>430</v>
       </c>
       <c r="E131" s="3">
-        <v>346</v>
+        <v>106303</v>
       </c>
       <c r="F131" s="3">
-        <v>16</v>
+        <v>4496</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6427,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>647</v>
       </c>
       <c r="L131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6441,19 +6441,19 @@
         <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="D132" t="s">
         <v>433</v>
       </c>
       <c r="E132" s="3">
-        <v>0</v>
+        <v>1330</v>
       </c>
       <c r="F132" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -6462,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6476,19 +6476,19 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D133" t="s">
         <v>436</v>
       </c>
       <c r="E133" s="3">
-        <v>1080</v>
+        <v>226</v>
       </c>
       <c r="F133" s="3">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="G133" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133" s="3">
         <v>0</v>
@@ -6497,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6511,19 +6511,19 @@
         <v>438</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
       </c>
       <c r="E134" s="3">
-        <v>12342</v>
+        <v>1517</v>
       </c>
       <c r="F134" s="3">
-        <v>330</v>
+        <v>162</v>
       </c>
       <c r="G134" s="3">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -6532,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="L134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6546,19 +6546,19 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="D135" t="s">
         <v>442</v>
       </c>
       <c r="E135" s="3">
-        <v>5</v>
+        <v>366</v>
       </c>
       <c r="F135" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -6567,10 +6567,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6581,16 +6581,16 @@
         <v>444</v>
       </c>
       <c r="C136" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s">
         <v>445</v>
       </c>
-      <c r="D136" t="s">
-        <v>446</v>
-      </c>
       <c r="E136" s="3">
-        <v>2165</v>
+        <v>1542</v>
       </c>
       <c r="F136" s="3">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="G136" s="3">
         <v>1</v>
@@ -6602,30 +6602,30 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="L136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B137" t="s">
         <v>447</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" t="s">
         <v>448</v>
       </c>
-      <c r="C137" t="s">
-        <v>149</v>
-      </c>
-      <c r="D137" t="s">
-        <v>449</v>
-      </c>
       <c r="E137" s="3">
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6640,30 +6640,30 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B138" t="s">
         <v>450</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>171</v>
+      </c>
+      <c r="D138" t="s">
         <v>451</v>
       </c>
-      <c r="C138" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138" t="s">
-        <v>452</v>
-      </c>
       <c r="E138" s="3">
-        <v>11977</v>
+        <v>0</v>
       </c>
       <c r="F138" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G138" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -6672,33 +6672,33 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" t="s">
         <v>453</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" t="s">
         <v>454</v>
       </c>
-      <c r="C139" t="s">
-        <v>172</v>
-      </c>
-      <c r="D139" t="s">
-        <v>455</v>
-      </c>
       <c r="E139" s="3">
-        <v>299</v>
+        <v>1162</v>
       </c>
       <c r="F139" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G139" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -6707,33 +6707,33 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" t="s">
         <v>456</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" t="s">
         <v>457</v>
       </c>
-      <c r="C140" t="s">
-        <v>46</v>
-      </c>
-      <c r="D140" t="s">
-        <v>458</v>
-      </c>
       <c r="E140" s="3">
-        <v>17</v>
+        <v>7772</v>
       </c>
       <c r="F140" s="3">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="G140" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -6742,33 +6742,33 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="L140" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
         <v>459</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>460</v>
-      </c>
-      <c r="C141" t="s">
-        <v>65</v>
       </c>
       <c r="D141" t="s">
         <v>461</v>
       </c>
       <c r="E141" s="3">
-        <v>2959</v>
+        <v>3</v>
       </c>
       <c r="F141" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G141" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6791,19 +6791,19 @@
         <v>463</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
         <v>464</v>
       </c>
       <c r="E142" s="3">
-        <v>42</v>
+        <v>12342</v>
       </c>
       <c r="F142" s="3">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="G142" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="L142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6826,19 +6826,19 @@
         <v>466</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D143" t="s">
         <v>467</v>
       </c>
       <c r="E143" s="3">
-        <v>644</v>
+        <v>1080</v>
       </c>
       <c r="F143" s="3">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G143" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -6847,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L143" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6861,19 +6861,19 @@
         <v>469</v>
       </c>
       <c r="C144" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D144" t="s">
         <v>470</v>
       </c>
       <c r="E144" s="3">
-        <v>1162</v>
+        <v>0</v>
       </c>
       <c r="F144" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -6882,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6896,19 +6896,19 @@
         <v>472</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D145" t="s">
         <v>473</v>
       </c>
       <c r="E145" s="3">
-        <v>175</v>
+        <v>2352</v>
       </c>
       <c r="F145" s="3">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -6917,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6931,19 +6931,19 @@
         <v>475</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
         <v>476</v>
       </c>
       <c r="E146" s="3">
-        <v>49</v>
+        <v>11977</v>
       </c>
       <c r="F146" s="3">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="G146" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -6952,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="L146" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6966,19 +6966,19 @@
         <v>478</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
         <v>479</v>
       </c>
       <c r="E147" s="3">
-        <v>2848</v>
+        <v>30</v>
       </c>
       <c r="F147" s="3">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="G147" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7001,19 +7001,19 @@
         <v>481</v>
       </c>
       <c r="C148" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D148" t="s">
         <v>482</v>
       </c>
       <c r="E148" s="3">
-        <v>26</v>
+        <v>691</v>
       </c>
       <c r="F148" s="3">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -7025,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7036,19 +7036,19 @@
         <v>484</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="D149" t="s">
         <v>485</v>
       </c>
       <c r="E149" s="3">
-        <v>24429</v>
+        <v>619</v>
       </c>
       <c r="F149" s="3">
-        <v>2588</v>
+        <v>29</v>
       </c>
       <c r="G149" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
@@ -7057,10 +7057,10 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="L149" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7071,19 +7071,19 @@
         <v>487</v>
       </c>
       <c r="C150" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D150" t="s">
         <v>488</v>
       </c>
       <c r="E150" s="3">
-        <v>1372</v>
+        <v>692</v>
       </c>
       <c r="F150" s="3">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="G150" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
@@ -7092,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7106,19 +7106,19 @@
         <v>490</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="D151" t="s">
         <v>491</v>
       </c>
       <c r="E151" s="3">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="F151" s="3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G151" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
@@ -7127,10 +7127,10 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7141,31 +7141,31 @@
         <v>493</v>
       </c>
       <c r="C152" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D152" t="s">
         <v>494</v>
       </c>
       <c r="E152" s="3">
-        <v>1593</v>
+        <v>1185</v>
       </c>
       <c r="F152" s="3">
-        <v>331</v>
+        <v>84</v>
       </c>
       <c r="G152" s="3">
+        <v>5</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
         <v>6</v>
       </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
       <c r="L152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7347,7 +7347,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>148490</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B3">
         <v>39503</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="B4">
         <v>34062</v>
@@ -7371,7 +7371,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>33788</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>24115</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B7">
         <v>12811</v>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>9798</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>5531</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>5525</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B11">
         <v>4322</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="B12">
         <v>4067</v>
@@ -7435,7 +7435,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>3906</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>1861</v>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B15">
         <v>785</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B16">
         <v>260</v>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>185</v>
       </c>
       <c r="B17">
         <v>175</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>140</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="B19">
         <v>126</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>85</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>53</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>167</v>
       </c>
       <c r="B22">
         <v>7</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -7523,7 +7523,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>331</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
       <c r="B29">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="485">
   <si>
     <t>URL</t>
   </si>
@@ -68,6 +68,18 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
   </si>
   <si>
@@ -80,7 +92,112 @@
     <t>2019-12-01T08:00:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
@@ -92,195 +209,210 @@
     <t>2019-10-11T13:40:02.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
   </si>
   <si>
     <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
   </si>
   <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
     <t>2019-07-03T08:38:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
   </si>
   <si>
@@ -290,61 +422,13 @@
     <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
@@ -359,67 +443,13 @@
     <t>2019-09-18T14:45:38.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
@@ -431,31 +461,589 @@
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
@@ -467,6 +1055,69 @@
     <t>2019-12-24T11:48:38.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
   </si>
   <si>
@@ -476,6 +1127,234 @@
     <t>2019-12-27T16:30:00.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
   </si>
   <si>
@@ -488,82 +1367,22 @@
     <t>2019-01-28T18:58:55.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=4eJHwErB5AY</t>
-  </si>
-  <si>
-    <t>Big Joanie, le punk féministe, anti-raciste et LGBT made in London</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-10T11:04:16.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
@@ -578,100 +1397,22 @@
     <t>2019-11-30T05:00:09.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
@@ -680,340 +1421,43 @@
     <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
   </si>
   <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
     <t>2019-12-25T19:59:37.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=miScks1WSH4</t>
-  </si>
-  <si>
-    <t>Women in Finance // 3rd Shadowing Day</t>
-  </si>
-  <si>
-    <t>2019-12-06T09:09:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
@@ -1023,483 +1467,6 @@
   </si>
   <si>
     <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8U-4mf2WYgE</t>
-  </si>
-  <si>
-    <t>La réforme des retraites par les nuls</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:21:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-jpijjmYpxM</t>
-  </si>
-  <si>
-    <t>#FAQ17 - Posez vos questions</t>
-  </si>
-  <si>
-    <t>2019-11-24T14:47:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=12TUqrhVi3A</t>
-  </si>
-  <si>
-    <t>Retraites: à l’Assemblée, le gouvernement sur le gril</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:09:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=m1O931HwaeU</t>
-  </si>
-  <si>
-    <t>Je sonne l'alerte ! L'hiver est là. Des gens ont faim et froid !</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:06:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1860,7 +1827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1961,19 +1928,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>74953</v>
+        <v>62509</v>
       </c>
       <c r="F4" s="3">
-        <v>1016</v>
+        <v>4841</v>
       </c>
       <c r="G4" s="3">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1982,33 +1949,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>212</v>
+        <v>526</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="3">
-        <v>4759</v>
+        <v>74953</v>
       </c>
       <c r="F5" s="3">
-        <v>129</v>
+        <v>1016</v>
       </c>
       <c r="G5" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -2017,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2037,13 +2004,13 @@
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>74</v>
+        <v>24890</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2052,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2072,13 +2039,13 @@
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>13867</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
-        <v>934</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -2087,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2107,10 +2074,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="3">
-        <v>4640</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2125,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2136,19 +2103,19 @@
         <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3">
-        <v>23</v>
+        <v>2883</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2157,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2177,13 +2144,13 @@
         <v>43</v>
       </c>
       <c r="E10" s="3">
-        <v>472979</v>
+        <v>13867</v>
       </c>
       <c r="F10" s="3">
-        <v>20185</v>
+        <v>934</v>
       </c>
       <c r="G10" s="3">
-        <v>515</v>
+        <v>17</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2192,27 +2159,27 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="3">
-        <v>8644</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -2230,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2241,19 +2208,19 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="3">
-        <v>62509</v>
+        <v>2053</v>
       </c>
       <c r="F12" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2262,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2282,13 +2249,13 @@
         <v>54</v>
       </c>
       <c r="E13" s="3">
-        <v>23164</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2297,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2311,19 +2278,19 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="3">
-        <v>2078</v>
+        <v>844</v>
       </c>
       <c r="F14" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2332,30 +2299,30 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="3">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -2370,30 +2337,30 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="3">
-        <v>95</v>
+        <v>4759</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2402,45 +2369,45 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" s="3">
+        <v>566966</v>
+      </c>
+      <c r="F17" s="3">
+        <v>18782</v>
+      </c>
+      <c r="G17" s="3">
+        <v>416</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>298</v>
+      </c>
+      <c r="L17" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4463</v>
-      </c>
-      <c r="F17" s="3">
-        <v>211</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>56</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2451,19 +2418,19 @@
         <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
       </c>
       <c r="E18" s="3">
-        <v>428</v>
+        <v>222595</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2472,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2486,19 +2453,19 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3">
-        <v>239</v>
+        <v>2078</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2507,33 +2474,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="3">
-        <v>69498</v>
+        <v>3080</v>
       </c>
       <c r="F20" s="3">
-        <v>1189</v>
+        <v>58</v>
       </c>
       <c r="G20" s="3">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2542,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2556,19 +2523,19 @@
         <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="3">
-        <v>3080</v>
+        <v>25592</v>
       </c>
       <c r="F21" s="3">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="G21" s="3">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2577,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2591,19 +2558,19 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="3">
-        <v>87</v>
+        <v>472979</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2612,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2626,19 +2593,19 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="3">
-        <v>25592</v>
+        <v>18665</v>
       </c>
       <c r="F23" s="3">
-        <v>221</v>
+        <v>659</v>
       </c>
       <c r="G23" s="3">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2647,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2661,19 +2628,19 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
       </c>
       <c r="E24" s="3">
-        <v>4183126</v>
+        <v>52652</v>
       </c>
       <c r="F24" s="3">
-        <v>49430</v>
+        <v>7833</v>
       </c>
       <c r="G24" s="3">
-        <v>5701</v>
+        <v>85</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2682,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1196</v>
+        <v>346</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2696,19 +2663,19 @@
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>93</v>
       </c>
       <c r="E25" s="3">
-        <v>2053</v>
+        <v>8968</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2717,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2731,19 +2698,19 @@
         <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3">
-        <v>8968</v>
+        <v>23164</v>
       </c>
       <c r="F26" s="3">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="G26" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2752,21 +2719,21 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
@@ -2790,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2801,19 +2768,19 @@
         <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>103</v>
       </c>
       <c r="E28" s="3">
-        <v>2883</v>
+        <v>3484</v>
       </c>
       <c r="F28" s="3">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="G28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2822,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2836,19 +2803,19 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
       </c>
       <c r="E29" s="3">
-        <v>3484</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2857,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2871,16 +2838,16 @@
         <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
         <v>109</v>
       </c>
       <c r="E30" s="3">
-        <v>844</v>
+        <v>239</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -2895,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2906,19 +2873,19 @@
         <v>111</v>
       </c>
       <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" t="s">
-        <v>113</v>
-      </c>
       <c r="E31" s="3">
-        <v>41</v>
+        <v>69498</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>1189</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2927,33 +2894,33 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
         <v>114</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
         <v>115</v>
       </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
-      </c>
       <c r="E32" s="3">
-        <v>566966</v>
+        <v>428</v>
       </c>
       <c r="F32" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2962,33 +2929,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
         <v>117</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>119</v>
-      </c>
       <c r="E33" s="3">
-        <v>1237</v>
+        <v>8644</v>
       </c>
       <c r="F33" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2997,33 +2964,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
         <v>121</v>
       </c>
-      <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
-        <v>122</v>
-      </c>
       <c r="E34" s="3">
-        <v>27</v>
+        <v>1237</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -3035,30 +3002,30 @@
         <v>3</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
         <v>123</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>125</v>
-      </c>
       <c r="E35" s="3">
-        <v>18665</v>
+        <v>4463</v>
       </c>
       <c r="F35" s="3">
-        <v>659</v>
+        <v>211</v>
       </c>
       <c r="G35" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -3067,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3081,19 +3048,19 @@
         <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="3">
-        <v>52652</v>
+        <v>4640</v>
       </c>
       <c r="F36" s="3">
-        <v>7833</v>
+        <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3102,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3116,13 +3083,13 @@
         <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="3">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -3140,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3151,19 +3118,19 @@
         <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D38" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="3">
-        <v>222595</v>
+        <v>4183126</v>
       </c>
       <c r="F38" s="3">
-        <v>9022</v>
+        <v>49430</v>
       </c>
       <c r="G38" s="3">
-        <v>147</v>
+        <v>5701</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -3172,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>130</v>
+        <v>1196</v>
       </c>
       <c r="L38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3186,19 +3153,19 @@
         <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
       <c r="E39" s="3">
-        <v>23702</v>
+        <v>617</v>
       </c>
       <c r="F39" s="3">
-        <v>3315</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -3207,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3221,16 +3188,16 @@
         <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" s="3">
-        <v>617</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -3245,21 +3212,21 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3">
         <v>511312</v>
@@ -3280,30 +3247,30 @@
         <v>201</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E42" s="3">
-        <v>24890</v>
+        <v>23702</v>
       </c>
       <c r="F42" s="3">
-        <v>1321</v>
+        <v>3315</v>
       </c>
       <c r="G42" s="3">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -3312,33 +3279,33 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E43" s="3">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F43" s="3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3347,33 +3314,33 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E44" s="3">
-        <v>2959</v>
+        <v>11</v>
       </c>
       <c r="F44" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3382,33 +3349,33 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="3">
-        <v>110</v>
+        <v>7772</v>
       </c>
       <c r="F45" s="3">
-        <v>2</v>
+        <v>239</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3417,33 +3384,33 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
         <v>160</v>
       </c>
       <c r="E46" s="3">
-        <v>1274</v>
+        <v>17</v>
       </c>
       <c r="F46" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3452,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3472,10 +3439,10 @@
         <v>164</v>
       </c>
       <c r="E47" s="3">
-        <v>346</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3487,10 +3454,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3507,13 +3474,13 @@
         <v>168</v>
       </c>
       <c r="E48" s="3">
-        <v>6</v>
+        <v>5563</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3522,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3536,16 +3503,16 @@
         <v>170</v>
       </c>
       <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
         <v>171</v>
       </c>
-      <c r="D49" t="s">
-        <v>172</v>
-      </c>
       <c r="E49" s="3">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3560,30 +3527,30 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
         <v>174</v>
       </c>
-      <c r="B50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>176</v>
-      </c>
       <c r="E50" s="3">
-        <v>12004</v>
+        <v>49</v>
       </c>
       <c r="F50" s="3">
-        <v>691</v>
+        <v>6</v>
       </c>
       <c r="G50" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3592,33 +3559,33 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
         <v>177</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>178</v>
       </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>179</v>
-      </c>
       <c r="E51" s="3">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3627,30 +3594,30 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
         <v>180</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>181</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
       </c>
       <c r="E52" s="3">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3662,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3676,19 +3643,19 @@
         <v>184</v>
       </c>
       <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="D53" t="s">
-        <v>186</v>
-      </c>
       <c r="E53" s="3">
-        <v>2165</v>
+        <v>175</v>
       </c>
       <c r="F53" s="3">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3697,33 +3664,33 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
         <v>187</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>188</v>
-      </c>
-      <c r="C54" t="s">
-        <v>57</v>
       </c>
       <c r="D54" t="s">
         <v>189</v>
       </c>
       <c r="E54" s="3">
-        <v>322</v>
+        <v>691</v>
       </c>
       <c r="F54" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3732,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3746,19 +3713,19 @@
         <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s">
         <v>192</v>
       </c>
       <c r="E55" s="3">
-        <v>357</v>
+        <v>619</v>
       </c>
       <c r="F55" s="3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3767,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3781,19 +3748,19 @@
         <v>194</v>
       </c>
       <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
         <v>195</v>
       </c>
-      <c r="D56" t="s">
-        <v>196</v>
-      </c>
       <c r="E56" s="3">
-        <v>112</v>
+        <v>1386</v>
       </c>
       <c r="F56" s="3">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3805,27 +3772,27 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" t="s">
         <v>197</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" t="s">
         <v>198</v>
       </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" t="s">
-        <v>199</v>
-      </c>
       <c r="E57" s="3">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3840,30 +3807,30 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
         <v>200</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>201</v>
-      </c>
-      <c r="C58" t="s">
-        <v>163</v>
       </c>
       <c r="D58" t="s">
         <v>202</v>
       </c>
       <c r="E58" s="3">
-        <v>1386</v>
+        <v>226</v>
       </c>
       <c r="F58" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3872,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3886,19 +3853,19 @@
         <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="3">
-        <v>132</v>
+        <v>106303</v>
       </c>
       <c r="F59" s="3">
-        <v>7</v>
+        <v>4496</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3907,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>647</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3921,19 +3888,19 @@
         <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
         <v>208</v>
       </c>
       <c r="E60" s="3">
-        <v>104</v>
+        <v>346</v>
       </c>
       <c r="F60" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3942,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3956,19 +3923,19 @@
         <v>210</v>
       </c>
       <c r="C61" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
         <v>211</v>
       </c>
-      <c r="D61" t="s">
-        <v>212</v>
-      </c>
       <c r="E61" s="3">
-        <v>13154</v>
+        <v>56</v>
       </c>
       <c r="F61" s="3">
-        <v>1256</v>
+        <v>8</v>
       </c>
       <c r="G61" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3977,27 +3944,27 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" t="s">
         <v>213</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" t="s">
         <v>214</v>
       </c>
-      <c r="C62" t="s">
-        <v>171</v>
-      </c>
-      <c r="D62" t="s">
-        <v>215</v>
-      </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4015,21 +3982,21 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s">
         <v>216</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" t="s">
         <v>217</v>
-      </c>
-      <c r="C63" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" t="s">
-        <v>218</v>
       </c>
       <c r="E63" s="3">
         <v>222</v>
@@ -4050,30 +4017,30 @@
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
         <v>219</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
         <v>220</v>
       </c>
-      <c r="C64" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" t="s">
-        <v>222</v>
-      </c>
       <c r="E64" s="3">
-        <v>995</v>
+        <v>1330</v>
       </c>
       <c r="F64" s="3">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G64" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4082,30 +4049,30 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
         <v>223</v>
       </c>
-      <c r="B65" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" t="s">
-        <v>225</v>
-      </c>
       <c r="E65" s="3">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="F65" s="3">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -4117,33 +4084,33 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
         <v>226</v>
       </c>
-      <c r="B66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" t="s">
-        <v>228</v>
-      </c>
       <c r="E66" s="3">
-        <v>1803</v>
+        <v>357</v>
       </c>
       <c r="F66" s="3">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G66" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4152,30 +4119,30 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" t="s">
         <v>229</v>
       </c>
-      <c r="B67" t="s">
-        <v>230</v>
-      </c>
-      <c r="C67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" t="s">
-        <v>231</v>
-      </c>
       <c r="E67" s="3">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4187,33 +4154,33 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
         <v>232</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>233</v>
       </c>
-      <c r="C68" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" t="s">
-        <v>234</v>
-      </c>
       <c r="E68" s="3">
-        <v>691</v>
+        <v>1921</v>
       </c>
       <c r="F68" s="3">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4222,33 +4189,33 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s">
         <v>235</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69" t="s">
         <v>236</v>
       </c>
-      <c r="C69" t="s">
-        <v>237</v>
-      </c>
-      <c r="D69" t="s">
-        <v>238</v>
-      </c>
       <c r="E69" s="3">
-        <v>269112</v>
+        <v>113046</v>
       </c>
       <c r="F69" s="3">
-        <v>5243</v>
+        <v>8422</v>
       </c>
       <c r="G69" s="3">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4257,33 +4224,33 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>240</v>
       </c>
-      <c r="C70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D70" t="s">
-        <v>241</v>
-      </c>
       <c r="E70" s="3">
-        <v>1556</v>
+        <v>1254</v>
       </c>
       <c r="F70" s="3">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="G70" s="3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4292,68 +4259,68 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
         <v>242</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
         <v>243</v>
       </c>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" t="s">
-        <v>244</v>
-      </c>
       <c r="E71" s="3">
-        <v>5880</v>
+        <v>1080</v>
       </c>
       <c r="F71" s="3">
-        <v>594</v>
+        <v>101</v>
       </c>
       <c r="G71" s="3">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>9</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>89</v>
-      </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" t="s">
         <v>245</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72" t="s">
         <v>246</v>
       </c>
-      <c r="C72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" t="s">
-        <v>247</v>
-      </c>
       <c r="E72" s="3">
-        <v>96</v>
+        <v>4508</v>
       </c>
       <c r="F72" s="3">
-        <v>1</v>
+        <v>446</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4362,30 +4329,30 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
         <v>248</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
         <v>249</v>
       </c>
-      <c r="C73" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" t="s">
-        <v>251</v>
-      </c>
       <c r="E73" s="3">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F73" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4400,30 +4367,30 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" t="s">
         <v>252</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>253</v>
       </c>
-      <c r="C74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" t="s">
-        <v>254</v>
-      </c>
       <c r="E74" s="3">
-        <v>1254</v>
+        <v>13154</v>
       </c>
       <c r="F74" s="3">
-        <v>138</v>
+        <v>1256</v>
       </c>
       <c r="G74" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4432,33 +4399,33 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
         <v>255</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" t="s">
         <v>256</v>
       </c>
-      <c r="C75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" t="s">
-        <v>257</v>
-      </c>
       <c r="E75" s="3">
-        <v>52</v>
+        <v>5083</v>
       </c>
       <c r="F75" s="3">
-        <v>1</v>
+        <v>594</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4467,33 +4434,33 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" t="s">
         <v>258</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>259</v>
-      </c>
-      <c r="C76" t="s">
-        <v>35</v>
       </c>
       <c r="D76" t="s">
         <v>260</v>
       </c>
       <c r="E76" s="3">
-        <v>152</v>
+        <v>269112</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4502,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4516,19 +4483,19 @@
         <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>263</v>
       </c>
       <c r="E77" s="3">
-        <v>4508</v>
+        <v>12342</v>
       </c>
       <c r="F77" s="3">
-        <v>446</v>
+        <v>330</v>
       </c>
       <c r="G77" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4537,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4551,19 +4518,19 @@
         <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="D78" t="s">
         <v>266</v>
       </c>
       <c r="E78" s="3">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F78" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4572,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4586,19 +4553,19 @@
         <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="D79" t="s">
         <v>269</v>
       </c>
       <c r="E79" s="3">
-        <v>4358</v>
+        <v>3021</v>
       </c>
       <c r="F79" s="3">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="G79" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4607,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4621,19 +4588,19 @@
         <v>271</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
         <v>272</v>
       </c>
       <c r="E80" s="3">
-        <v>1593</v>
+        <v>4358</v>
       </c>
       <c r="F80" s="3">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="G80" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4642,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4656,19 +4623,19 @@
         <v>274</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
         <v>275</v>
       </c>
       <c r="E81" s="3">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4680,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4691,19 +4658,19 @@
         <v>277</v>
       </c>
       <c r="C82" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D82" t="s">
         <v>278</v>
       </c>
       <c r="E82" s="3">
-        <v>2848</v>
+        <v>1663</v>
       </c>
       <c r="F82" s="3">
-        <v>523</v>
+        <v>218</v>
       </c>
       <c r="G82" s="3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4712,10 +4679,10 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4726,19 +4693,19 @@
         <v>280</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
         <v>281</v>
       </c>
       <c r="E83" s="3">
-        <v>1372</v>
+        <v>6</v>
       </c>
       <c r="F83" s="3">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4750,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4761,19 +4728,19 @@
         <v>283</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="D84" t="s">
         <v>284</v>
       </c>
       <c r="E84" s="3">
-        <v>75707</v>
+        <v>1593</v>
       </c>
       <c r="F84" s="3">
-        <v>4287</v>
+        <v>331</v>
       </c>
       <c r="G84" s="3">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4782,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4796,19 +4763,19 @@
         <v>286</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
         <v>287</v>
       </c>
       <c r="E85" s="3">
-        <v>52</v>
+        <v>5880</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4817,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4831,19 +4798,19 @@
         <v>289</v>
       </c>
       <c r="C86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" t="s">
         <v>290</v>
       </c>
-      <c r="D86" t="s">
-        <v>291</v>
-      </c>
       <c r="E86" s="3">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="F86" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G86" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4852,33 +4819,33 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" t="s">
         <v>292</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" t="s">
         <v>293</v>
       </c>
-      <c r="C87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D87" t="s">
-        <v>294</v>
-      </c>
       <c r="E87" s="3">
-        <v>9999</v>
+        <v>6</v>
       </c>
       <c r="F87" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="G87" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4887,33 +4854,33 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B88" t="s">
         <v>295</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
         <v>296</v>
       </c>
-      <c r="C88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" t="s">
-        <v>297</v>
-      </c>
       <c r="E88" s="3">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="F88" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4925,30 +4892,30 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" t="s">
         <v>298</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>150</v>
+      </c>
+      <c r="D89" t="s">
         <v>299</v>
       </c>
-      <c r="C89" t="s">
-        <v>221</v>
-      </c>
-      <c r="D89" t="s">
-        <v>300</v>
-      </c>
       <c r="E89" s="3">
-        <v>644</v>
+        <v>112</v>
       </c>
       <c r="F89" s="3">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4957,33 +4924,33 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B90" t="s">
         <v>301</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D90" t="s">
         <v>302</v>
       </c>
-      <c r="C90" t="s">
-        <v>303</v>
-      </c>
-      <c r="D90" t="s">
-        <v>304</v>
-      </c>
       <c r="E90" s="3">
-        <v>5563</v>
+        <v>126844</v>
       </c>
       <c r="F90" s="3">
-        <v>265</v>
+        <v>8977</v>
       </c>
       <c r="G90" s="3">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4992,33 +4959,33 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B91" t="s">
+        <v>304</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
         <v>305</v>
       </c>
-      <c r="B91" t="s">
-        <v>306</v>
-      </c>
-      <c r="C91" t="s">
-        <v>221</v>
-      </c>
-      <c r="D91" t="s">
-        <v>307</v>
-      </c>
       <c r="E91" s="3">
-        <v>578</v>
+        <v>75707</v>
       </c>
       <c r="F91" s="3">
-        <v>41</v>
+        <v>4287</v>
       </c>
       <c r="G91" s="3">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5027,33 +4994,33 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" t="s">
+        <v>307</v>
+      </c>
+      <c r="C92" t="s">
         <v>308</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>309</v>
       </c>
-      <c r="C92" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" t="s">
-        <v>310</v>
-      </c>
       <c r="E92" s="3">
-        <v>5083</v>
+        <v>3</v>
       </c>
       <c r="F92" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -5065,30 +5032,30 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B93" t="s">
         <v>311</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" t="s">
         <v>312</v>
       </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>313</v>
-      </c>
       <c r="E93" s="3">
-        <v>113046</v>
+        <v>1274</v>
       </c>
       <c r="F93" s="3">
-        <v>8422</v>
+        <v>128</v>
       </c>
       <c r="G93" s="3">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5097,33 +5064,33 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B94" t="s">
         <v>314</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" t="s">
         <v>315</v>
       </c>
-      <c r="C94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" t="s">
-        <v>316</v>
-      </c>
       <c r="E94" s="3">
-        <v>111</v>
+        <v>644</v>
       </c>
       <c r="F94" s="3">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5135,30 +5102,30 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" t="s">
         <v>317</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>318</v>
-      </c>
-      <c r="C95" t="s">
-        <v>61</v>
       </c>
       <c r="D95" t="s">
         <v>319</v>
       </c>
       <c r="E95" s="3">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F95" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G95" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5170,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5181,13 +5148,13 @@
         <v>321</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="D96" t="s">
         <v>322</v>
       </c>
       <c r="E96" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5205,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5216,51 +5183,51 @@
         <v>324</v>
       </c>
       <c r="C97" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E97" s="3">
-        <v>1493</v>
+        <v>116</v>
       </c>
       <c r="F97" s="3">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="3">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
         <v>3</v>
       </c>
-      <c r="H97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>36</v>
-      </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E98" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F98" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -5275,30 +5242,30 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
         <v>332</v>
       </c>
       <c r="E99" s="3">
-        <v>1921</v>
+        <v>12004</v>
       </c>
       <c r="F99" s="3">
-        <v>64</v>
+        <v>691</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5307,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5321,16 +5288,16 @@
         <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E100" s="3">
-        <v>653</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5342,33 +5309,33 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="D101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>152</v>
+        <v>11977</v>
       </c>
       <c r="F101" s="3">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5377,33 +5344,33 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>425</v>
+        <v>285</v>
       </c>
       <c r="F102" s="3">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5412,33 +5379,33 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5447,33 +5414,33 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>3021</v>
+        <v>1084</v>
       </c>
       <c r="F104" s="3">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="G104" s="3">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5482,33 +5449,33 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E105" s="3">
-        <v>4711</v>
+        <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G105" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5517,33 +5484,33 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>353</v>
+        <v>188</v>
       </c>
       <c r="D106" t="s">
         <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>1</v>
+        <v>575</v>
       </c>
       <c r="F106" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5552,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5566,19 +5533,19 @@
         <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>74</v>
       </c>
       <c r="D107" t="s">
         <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>0</v>
+        <v>1493</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5587,10 +5554,10 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5601,19 +5568,19 @@
         <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="D108" t="s">
         <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>268</v>
+        <v>1803</v>
       </c>
       <c r="F108" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G108" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5625,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="L108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5636,19 +5603,19 @@
         <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="D109" t="s">
         <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>49</v>
+        <v>2352</v>
       </c>
       <c r="F109" s="3">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5660,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5671,19 +5638,19 @@
         <v>365</v>
       </c>
       <c r="C110" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" t="s">
         <v>366</v>
       </c>
-      <c r="D110" t="s">
-        <v>367</v>
-      </c>
       <c r="E110" s="3">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="F110" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5692,33 +5659,33 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B111" t="s">
         <v>368</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" t="s">
         <v>369</v>
       </c>
-      <c r="C111" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" t="s">
-        <v>370</v>
-      </c>
       <c r="E111" s="3">
-        <v>126844</v>
+        <v>2959</v>
       </c>
       <c r="F111" s="3">
-        <v>8977</v>
+        <v>38</v>
       </c>
       <c r="G111" s="3">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5727,33 +5694,33 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="L111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" t="s">
         <v>371</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+      <c r="D112" t="s">
         <v>372</v>
       </c>
-      <c r="C112" t="s">
-        <v>221</v>
-      </c>
-      <c r="D112" t="s">
-        <v>373</v>
-      </c>
       <c r="E112" s="3">
-        <v>1760</v>
+        <v>1542</v>
       </c>
       <c r="F112" s="3">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="G112" s="3">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5762,30 +5729,30 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B113" t="s">
         <v>374</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" t="s">
         <v>375</v>
       </c>
-      <c r="C113" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" t="s">
-        <v>376</v>
-      </c>
       <c r="E113" s="3">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="F113" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G113" s="3">
         <v>0</v>
@@ -5800,30 +5767,30 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" t="s">
         <v>377</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" t="s">
         <v>378</v>
       </c>
-      <c r="C114" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" t="s">
-        <v>379</v>
-      </c>
       <c r="E114" s="3">
-        <v>32</v>
+        <v>1556</v>
       </c>
       <c r="F114" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G114" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5832,33 +5799,33 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B115" t="s">
         <v>380</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>239</v>
+      </c>
+      <c r="D115" t="s">
         <v>381</v>
       </c>
-      <c r="C115" t="s">
-        <v>167</v>
-      </c>
-      <c r="D115" t="s">
-        <v>382</v>
-      </c>
       <c r="E115" s="3">
-        <v>2</v>
+        <v>691</v>
       </c>
       <c r="F115" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5870,30 +5837,30 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B116" t="s">
         <v>383</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D116" t="s">
         <v>384</v>
       </c>
-      <c r="C116" t="s">
-        <v>211</v>
-      </c>
-      <c r="D116" t="s">
-        <v>385</v>
-      </c>
       <c r="E116" s="3">
-        <v>5962</v>
+        <v>70</v>
       </c>
       <c r="F116" s="3">
-        <v>765</v>
+        <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5902,33 +5869,33 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="L116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B117" t="s">
         <v>386</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>150</v>
+      </c>
+      <c r="D117" t="s">
         <v>387</v>
       </c>
-      <c r="C117" t="s">
-        <v>221</v>
-      </c>
-      <c r="D117" t="s">
-        <v>388</v>
-      </c>
       <c r="E117" s="3">
-        <v>1663</v>
+        <v>268</v>
       </c>
       <c r="F117" s="3">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="G117" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5937,33 +5904,33 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B118" t="s">
         <v>389</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" t="s">
         <v>390</v>
       </c>
-      <c r="C118" t="s">
-        <v>221</v>
-      </c>
-      <c r="D118" t="s">
-        <v>391</v>
-      </c>
       <c r="E118" s="3">
-        <v>1084</v>
+        <v>322</v>
       </c>
       <c r="F118" s="3">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="G118" s="3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -5975,30 +5942,30 @@
         <v>2</v>
       </c>
       <c r="L118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" t="s">
         <v>392</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" t="s">
         <v>393</v>
       </c>
-      <c r="C119" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" t="s">
-        <v>394</v>
-      </c>
       <c r="E119" s="3">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="F119" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -6007,33 +5974,33 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B120" t="s">
         <v>395</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>325</v>
+      </c>
+      <c r="D120" t="s">
         <v>396</v>
       </c>
-      <c r="C120" t="s">
-        <v>112</v>
-      </c>
-      <c r="D120" t="s">
-        <v>397</v>
-      </c>
       <c r="E120" s="3">
-        <v>9</v>
+        <v>1162</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -6042,30 +6009,30 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B121" t="s">
         <v>398</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>325</v>
+      </c>
+      <c r="D121" t="s">
         <v>399</v>
       </c>
-      <c r="C121" t="s">
-        <v>211</v>
-      </c>
-      <c r="D121" t="s">
-        <v>400</v>
-      </c>
       <c r="E121" s="3">
-        <v>7431</v>
+        <v>732</v>
       </c>
       <c r="F121" s="3">
-        <v>661</v>
+        <v>29</v>
       </c>
       <c r="G121" s="3">
         <v>20</v>
@@ -6077,33 +6044,33 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="L121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B122" t="s">
         <v>401</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>402</v>
-      </c>
-      <c r="C122" t="s">
-        <v>195</v>
       </c>
       <c r="D122" t="s">
         <v>403</v>
       </c>
       <c r="E122" s="3">
-        <v>113</v>
+        <v>656</v>
       </c>
       <c r="F122" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6112,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6126,19 +6093,19 @@
         <v>405</v>
       </c>
       <c r="C123" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="D123" t="s">
         <v>406</v>
       </c>
       <c r="E123" s="3">
-        <v>11</v>
+        <v>1372</v>
       </c>
       <c r="F123" s="3">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G123" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6150,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6161,19 +6128,19 @@
         <v>408</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="D124" t="s">
         <v>409</v>
       </c>
       <c r="E124" s="3">
-        <v>285</v>
+        <v>152</v>
       </c>
       <c r="F124" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G124" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6182,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6196,19 +6163,19 @@
         <v>411</v>
       </c>
       <c r="C125" t="s">
-        <v>366</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
         <v>412</v>
       </c>
       <c r="E125" s="3">
-        <v>732</v>
+        <v>4711</v>
       </c>
       <c r="F125" s="3">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="G125" s="3">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -6217,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="L125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6231,19 +6198,19 @@
         <v>414</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
         <v>415</v>
       </c>
       <c r="E126" s="3">
-        <v>24429</v>
+        <v>32</v>
       </c>
       <c r="F126" s="3">
-        <v>2588</v>
+        <v>0</v>
       </c>
       <c r="G126" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6252,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6266,19 +6233,19 @@
         <v>417</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
         <v>418</v>
       </c>
       <c r="E127" s="3">
-        <v>575</v>
+        <v>5962</v>
       </c>
       <c r="F127" s="3">
-        <v>38</v>
+        <v>765</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6287,10 +6254,10 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="L127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6301,19 +6268,19 @@
         <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="D128" t="s">
         <v>421</v>
       </c>
       <c r="E128" s="3">
-        <v>2</v>
+        <v>641</v>
       </c>
       <c r="F128" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G128" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
@@ -6322,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6336,19 +6303,19 @@
         <v>423</v>
       </c>
       <c r="C129" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
         <v>424</v>
       </c>
       <c r="E129" s="3">
-        <v>299</v>
+        <v>692</v>
       </c>
       <c r="F129" s="3">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G129" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6357,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6371,19 +6338,19 @@
         <v>426</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D130" t="s">
         <v>427</v>
       </c>
       <c r="E130" s="3">
-        <v>641</v>
+        <v>578</v>
       </c>
       <c r="F130" s="3">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="G130" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6392,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6406,19 +6373,19 @@
         <v>429</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="D131" t="s">
         <v>430</v>
       </c>
       <c r="E131" s="3">
-        <v>106303</v>
+        <v>2848</v>
       </c>
       <c r="F131" s="3">
-        <v>4496</v>
+        <v>523</v>
       </c>
       <c r="G131" s="3">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6427,10 +6394,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6441,19 +6408,19 @@
         <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="D132" t="s">
         <v>433</v>
       </c>
       <c r="E132" s="3">
-        <v>1330</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G132" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -6462,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6476,16 +6443,16 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
         <v>436</v>
       </c>
       <c r="E133" s="3">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="F133" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -6500,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6511,7 +6478,7 @@
         <v>438</v>
       </c>
       <c r="C134" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
@@ -6535,7 +6502,7 @@
         <v>13</v>
       </c>
       <c r="L134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6546,19 +6513,19 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
         <v>442</v>
       </c>
       <c r="E135" s="3">
-        <v>366</v>
+        <v>21</v>
       </c>
       <c r="F135" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -6567,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6581,19 +6548,19 @@
         <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="3">
-        <v>1542</v>
+        <v>52</v>
       </c>
       <c r="F136" s="3">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -6602,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6616,16 +6583,16 @@
         <v>447</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>448</v>
       </c>
       <c r="D137" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E137" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F137" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6640,30 +6607,30 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E138" s="3">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="F138" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -6672,33 +6639,33 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B139" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C139" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E139" s="3">
-        <v>1162</v>
+        <v>7431</v>
       </c>
       <c r="F139" s="3">
-        <v>39</v>
+        <v>661</v>
       </c>
       <c r="G139" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -6707,33 +6674,33 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="L139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="D140" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E140" s="3">
-        <v>7772</v>
+        <v>2165</v>
       </c>
       <c r="F140" s="3">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="G140" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -6742,33 +6709,33 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="L140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>150</v>
       </c>
       <c r="D141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E141" s="3">
-        <v>3</v>
+        <v>366</v>
       </c>
       <c r="F141" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G141" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -6777,33 +6744,33 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E142" s="3">
-        <v>12342</v>
+        <v>0</v>
       </c>
       <c r="F142" s="3">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G142" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -6812,33 +6779,33 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="D143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E143" s="3">
-        <v>1080</v>
+        <v>995</v>
       </c>
       <c r="F143" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G143" s="3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -6847,27 +6814,27 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="L143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E144" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -6885,30 +6852,30 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B145" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="D145" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E145" s="3">
-        <v>2352</v>
+        <v>32</v>
       </c>
       <c r="F145" s="3">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -6917,33 +6884,33 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B146" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D146" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E146" s="3">
-        <v>11977</v>
+        <v>8</v>
       </c>
       <c r="F146" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G146" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
@@ -6952,33 +6919,33 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E147" s="3">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
       </c>
       <c r="G147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -6987,33 +6954,33 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B148" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E148" s="3">
-        <v>691</v>
+        <v>653</v>
       </c>
       <c r="F148" s="3">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="G148" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -7022,150 +6989,10 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L148" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B149" t="s">
-        <v>484</v>
-      </c>
-      <c r="C149" t="s">
-        <v>171</v>
-      </c>
-      <c r="D149" t="s">
-        <v>485</v>
-      </c>
-      <c r="E149" s="3">
-        <v>619</v>
-      </c>
-      <c r="F149" s="3">
-        <v>29</v>
-      </c>
-      <c r="G149" s="3">
-        <v>2</v>
-      </c>
-      <c r="H149" s="3">
-        <v>0</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B150" t="s">
-        <v>487</v>
-      </c>
-      <c r="C150" t="s">
-        <v>159</v>
-      </c>
-      <c r="D150" t="s">
-        <v>488</v>
-      </c>
-      <c r="E150" s="3">
-        <v>692</v>
-      </c>
-      <c r="F150" s="3">
-        <v>82</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="3">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>10</v>
-      </c>
-      <c r="L150" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B151" t="s">
-        <v>490</v>
-      </c>
-      <c r="C151" t="s">
-        <v>171</v>
-      </c>
-      <c r="D151" t="s">
-        <v>491</v>
-      </c>
-      <c r="E151" s="3">
-        <v>188</v>
-      </c>
-      <c r="F151" s="3">
-        <v>10</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="3">
-        <v>0</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B152" t="s">
-        <v>493</v>
-      </c>
-      <c r="C152" t="s">
-        <v>159</v>
-      </c>
-      <c r="D152" t="s">
-        <v>494</v>
-      </c>
-      <c r="E152" s="3">
-        <v>1185</v>
-      </c>
-      <c r="F152" s="3">
-        <v>84</v>
-      </c>
-      <c r="G152" s="3">
-        <v>5</v>
-      </c>
-      <c r="H152" s="3">
-        <v>0</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>6</v>
-      </c>
-      <c r="L152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7316,10 +7143,6 @@
     <hyperlink ref="A146" r:id="rId144"/>
     <hyperlink ref="A147" r:id="rId145"/>
     <hyperlink ref="A148" r:id="rId146"/>
-    <hyperlink ref="A149" r:id="rId147"/>
-    <hyperlink ref="A150" r:id="rId148"/>
-    <hyperlink ref="A151" r:id="rId149"/>
-    <hyperlink ref="A152" r:id="rId150"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7327,7 +7150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7342,196 +7165,196 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>419110</v>
+        <v>347779</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B2">
-        <v>148490</v>
+        <v>140702</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="B3">
-        <v>39503</v>
+        <v>39142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>34062</v>
+        <v>33788</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="B5">
-        <v>33788</v>
+        <v>33684</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B6">
-        <v>24115</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="B7">
-        <v>12811</v>
+        <v>8426</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="B8">
-        <v>9798</v>
+        <v>5439</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="B9">
-        <v>5531</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="B10">
-        <v>5525</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B11">
-        <v>4322</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>4067</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B13">
-        <v>3906</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B14">
-        <v>1861</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>785</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>458</v>
       </c>
       <c r="B17">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="B19">
-        <v>126</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B21">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>163</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7539,15 +7362,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7555,7 +7378,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7563,9 +7386,17 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30">
         <v>0</v>
       </c>
     </row>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,6 +68,156 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
   </si>
   <si>
@@ -77,7 +227,163 @@
     <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
@@ -86,34 +392,16 @@
     <t>Mon voisin m'offre une maison</t>
   </si>
   <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
     <t>2019-12-01T08:00:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
@@ -128,24 +416,12 @@
     <t>2017-04-05T13:28:29.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
   </si>
   <si>
     <t>Nord Stream II, le blocage ?</t>
   </si>
   <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
     <t>2019-12-23T17:23:54.000Z</t>
   </si>
   <si>
@@ -155,75 +431,9 @@
     <t>Women in Finance // Le Top Job de Guiraude Lame</t>
   </si>
   <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
     <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
   </si>
   <si>
@@ -233,82 +443,13 @@
     <t>2019-04-15T15:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
@@ -320,145 +461,478 @@
     <t>2019-12-20T08:16:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
+  </si>
+  <si>
+    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T18:41:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
@@ -467,19 +941,298 @@
     <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
   </si>
   <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
     <t>2019-12-28T08:24:58.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
@@ -491,27 +1244,60 @@
     <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
   </si>
   <si>
     <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-12T13:19:08.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
   </si>
   <si>
@@ -524,46 +1310,58 @@
     <t>2019-12-10T12:12:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
@@ -575,64 +1373,73 @@
     <t>2019-12-26T22:08:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
@@ -644,570 +1451,6 @@
     <t>2019-12-24T09:30:04.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
-  </si>
-  <si>
-    <t>Grèves   record de longévité battu   Journal du vendredi 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T18:41:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
   </si>
   <si>
@@ -1217,18 +1460,6 @@
     <t>2019-08-13T22:45:39.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
   </si>
   <si>
@@ -1236,237 +1467,6 @@
   </si>
   <si>
     <t>2019-12-11T21:32:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1928,19 +1928,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>62509</v>
+        <v>844</v>
       </c>
       <c r="F4" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1949,33 +1949,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>74953</v>
+        <v>3080</v>
       </c>
       <c r="F5" s="3">
-        <v>1016</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1984,33 +1984,33 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>24890</v>
+        <v>23702</v>
       </c>
       <c r="F6" s="3">
-        <v>1321</v>
+        <v>3315</v>
       </c>
       <c r="G6" s="3">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2039,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2068,16 +2068,16 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="3">
-        <v>88</v>
+        <v>2053</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2092,30 +2092,30 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" s="3">
-        <v>2883</v>
+        <v>8644</v>
       </c>
       <c r="F9" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2124,33 +2124,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="3">
-        <v>13867</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2159,30 +2159,30 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="3">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2197,30 +2197,30 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="3">
-        <v>2053</v>
+        <v>3484</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2229,33 +2229,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="3">
-        <v>95</v>
+        <v>1237</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2264,27 +2264,27 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" s="3">
-        <v>844</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -2302,30 +2302,30 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
       <c r="E15" s="3">
-        <v>23</v>
+        <v>4759</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2334,33 +2334,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" s="3">
-        <v>4759</v>
+        <v>52652</v>
       </c>
       <c r="F16" s="3">
-        <v>129</v>
+        <v>7833</v>
       </c>
       <c r="G16" s="3">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2369,68 +2369,68 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" s="3">
+        <v>472979</v>
+      </c>
+      <c r="F17" s="3">
+        <v>20185</v>
+      </c>
+      <c r="G17" s="3">
+        <v>515</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>260</v>
+      </c>
+      <c r="L17" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="3">
-        <v>566966</v>
-      </c>
-      <c r="F17" s="3">
-        <v>18782</v>
-      </c>
-      <c r="G17" s="3">
-        <v>416</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>298</v>
-      </c>
-      <c r="L17" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="3">
-        <v>222595</v>
+        <v>62509</v>
       </c>
       <c r="F18" s="3">
-        <v>9022</v>
+        <v>4841</v>
       </c>
       <c r="G18" s="3">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2439,33 +2439,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>130</v>
+        <v>526</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>75</v>
-      </c>
       <c r="E19" s="3">
-        <v>2078</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G19" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2474,33 +2474,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="3">
-        <v>3080</v>
+        <v>566966</v>
       </c>
       <c r="F20" s="3">
-        <v>58</v>
+        <v>18782</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>416</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2509,33 +2509,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13</v>
+        <v>298</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
       <c r="E21" s="3">
-        <v>25592</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3">
-        <v>221</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2544,33 +2544,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
       <c r="E22" s="3">
-        <v>472979</v>
+        <v>25592</v>
       </c>
       <c r="F22" s="3">
-        <v>20185</v>
+        <v>221</v>
       </c>
       <c r="G22" s="3">
-        <v>515</v>
+        <v>29</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2579,33 +2579,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="3">
-        <v>18665</v>
+        <v>23164</v>
       </c>
       <c r="F23" s="3">
-        <v>659</v>
+        <v>162</v>
       </c>
       <c r="G23" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2614,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2628,19 +2628,19 @@
         <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>90</v>
       </c>
       <c r="E24" s="3">
-        <v>52652</v>
+        <v>4463</v>
       </c>
       <c r="F24" s="3">
-        <v>7833</v>
+        <v>211</v>
       </c>
       <c r="G24" s="3">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2649,33 +2649,33 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>346</v>
+        <v>60</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3">
-        <v>8968</v>
+        <v>428</v>
       </c>
       <c r="F25" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2684,33 +2684,33 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="3">
-        <v>23164</v>
+        <v>617</v>
       </c>
       <c r="F26" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2733,19 +2733,19 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27" s="3">
-        <v>170</v>
+        <v>24890</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>1321</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2754,33 +2754,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3">
-        <v>3484</v>
+        <v>18665</v>
       </c>
       <c r="F28" s="3">
-        <v>224</v>
+        <v>659</v>
       </c>
       <c r="G28" s="3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2789,33 +2789,33 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="3">
-        <v>87</v>
+        <v>2078</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2824,33 +2824,33 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" s="3">
-        <v>239</v>
+        <v>8968</v>
       </c>
       <c r="F30" s="3">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2859,33 +2859,33 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3">
-        <v>69498</v>
+        <v>4183126</v>
       </c>
       <c r="F31" s="3">
-        <v>1189</v>
+        <v>49430</v>
       </c>
       <c r="G31" s="3">
-        <v>45</v>
+        <v>5701</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2894,27 +2894,27 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="3">
-        <v>428</v>
+        <v>4640</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2932,30 +2932,30 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="3">
-        <v>8644</v>
+        <v>2883</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2964,33 +2964,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="3">
-        <v>1237</v>
+        <v>69498</v>
       </c>
       <c r="F34" s="3">
-        <v>51</v>
+        <v>1189</v>
       </c>
       <c r="G34" s="3">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2999,33 +2999,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E35" s="3">
-        <v>4463</v>
+        <v>74953</v>
       </c>
       <c r="F35" s="3">
-        <v>211</v>
+        <v>1016</v>
       </c>
       <c r="G35" s="3">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3048,19 +3048,19 @@
         <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
         <v>128</v>
       </c>
       <c r="E36" s="3">
-        <v>4640</v>
+        <v>511312</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>15167</v>
       </c>
       <c r="G36" s="3">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3083,16 +3083,16 @@
         <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E37" s="3">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -3107,30 +3107,30 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E38" s="3">
-        <v>4183126</v>
+        <v>13867</v>
       </c>
       <c r="F38" s="3">
-        <v>49430</v>
+        <v>934</v>
       </c>
       <c r="G38" s="3">
-        <v>5701</v>
+        <v>17</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -3139,28 +3139,28 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1196</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="3">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="3">
-        <v>617</v>
-      </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
@@ -3177,30 +3177,30 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="3">
-        <v>41</v>
+        <v>222595</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>9022</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3223,19 +3223,19 @@
         <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>144</v>
       </c>
       <c r="E41" s="3">
-        <v>511312</v>
+        <v>87</v>
       </c>
       <c r="F41" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3258,19 +3258,19 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="3">
-        <v>23702</v>
+        <v>170</v>
       </c>
       <c r="F42" s="3">
-        <v>3315</v>
+        <v>4</v>
       </c>
       <c r="G42" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3299,13 +3299,13 @@
         <v>151</v>
       </c>
       <c r="E43" s="3">
-        <v>145</v>
+        <v>995</v>
       </c>
       <c r="F43" s="3">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3328,19 +3328,19 @@
         <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="3">
-        <v>11</v>
+        <v>1274</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3349,33 +3349,33 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E45" s="3">
-        <v>7772</v>
+        <v>52</v>
       </c>
       <c r="F45" s="3">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3384,27 +3384,27 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E46" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3422,30 +3422,30 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3457,30 +3457,30 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3">
-        <v>5563</v>
+        <v>13154</v>
       </c>
       <c r="F48" s="3">
-        <v>265</v>
+        <v>1256</v>
       </c>
       <c r="G48" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3489,33 +3489,33 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E49" s="3">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3524,33 +3524,33 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
-        <v>49</v>
+        <v>113046</v>
       </c>
       <c r="F50" s="3">
-        <v>6</v>
+        <v>8422</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3559,33 +3559,33 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
         <v>178</v>
       </c>
       <c r="E51" s="3">
-        <v>1185</v>
+        <v>17</v>
       </c>
       <c r="F51" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3608,19 +3608,19 @@
         <v>180</v>
       </c>
       <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
         <v>181</v>
       </c>
-      <c r="D52" t="s">
-        <v>182</v>
-      </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3629,30 +3629,30 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
         <v>183</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
         <v>184</v>
       </c>
-      <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" t="s">
-        <v>185</v>
-      </c>
       <c r="E53" s="3">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="F53" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -3664,33 +3664,33 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" t="s">
         <v>186</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>187</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>188</v>
       </c>
-      <c r="D54" t="s">
-        <v>189</v>
-      </c>
       <c r="E54" s="3">
-        <v>691</v>
+        <v>299</v>
       </c>
       <c r="F54" s="3">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3699,33 +3699,33 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
         <v>190</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>191</v>
-      </c>
-      <c r="C55" t="s">
-        <v>181</v>
       </c>
       <c r="D55" t="s">
         <v>192</v>
       </c>
       <c r="E55" s="3">
-        <v>619</v>
+        <v>188</v>
       </c>
       <c r="F55" s="3">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3734,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3748,19 +3748,19 @@
         <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
         <v>195</v>
       </c>
       <c r="E56" s="3">
-        <v>1386</v>
+        <v>70</v>
       </c>
       <c r="F56" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3772,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3783,19 +3783,19 @@
         <v>197</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
         <v>198</v>
       </c>
       <c r="E57" s="3">
-        <v>111</v>
+        <v>9999</v>
       </c>
       <c r="F57" s="3">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3804,10 +3804,10 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3824,10 +3824,10 @@
         <v>202</v>
       </c>
       <c r="E58" s="3">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3853,19 +3853,19 @@
         <v>204</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
         <v>205</v>
       </c>
       <c r="E59" s="3">
-        <v>106303</v>
+        <v>24</v>
       </c>
       <c r="F59" s="3">
-        <v>4496</v>
+        <v>1</v>
       </c>
       <c r="G59" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3874,10 +3874,10 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3888,16 +3888,16 @@
         <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
         <v>208</v>
       </c>
       <c r="E60" s="3">
-        <v>346</v>
+        <v>49</v>
       </c>
       <c r="F60" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3923,19 +3923,19 @@
         <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
         <v>211</v>
       </c>
       <c r="E61" s="3">
-        <v>56</v>
+        <v>1593</v>
       </c>
       <c r="F61" s="3">
-        <v>8</v>
+        <v>331</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3958,19 +3958,19 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
         <v>214</v>
       </c>
       <c r="E62" s="3">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3999,13 +3999,13 @@
         <v>217</v>
       </c>
       <c r="E63" s="3">
-        <v>222</v>
+        <v>1663</v>
       </c>
       <c r="F63" s="3">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="G63" s="3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4014,10 +4014,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4028,19 +4028,19 @@
         <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
         <v>220</v>
       </c>
       <c r="E64" s="3">
-        <v>1330</v>
+        <v>4508</v>
       </c>
       <c r="F64" s="3">
-        <v>65</v>
+        <v>446</v>
       </c>
       <c r="G64" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4049,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4063,19 +4063,19 @@
         <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
         <v>223</v>
       </c>
       <c r="E65" s="3">
-        <v>96</v>
+        <v>619</v>
       </c>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4098,19 +4098,19 @@
         <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
         <v>226</v>
       </c>
       <c r="E66" s="3">
-        <v>357</v>
+        <v>56</v>
       </c>
       <c r="F66" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4133,16 +4133,16 @@
         <v>228</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D67" t="s">
         <v>229</v>
       </c>
       <c r="E67" s="3">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -4154,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4168,19 +4168,19 @@
         <v>231</v>
       </c>
       <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
         <v>232</v>
       </c>
-      <c r="D68" t="s">
-        <v>233</v>
-      </c>
       <c r="E68" s="3">
-        <v>1921</v>
+        <v>12342</v>
       </c>
       <c r="F68" s="3">
-        <v>64</v>
+        <v>330</v>
       </c>
       <c r="G68" s="3">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4189,33 +4189,33 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69" t="s">
         <v>234</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>235</v>
-      </c>
-      <c r="C69" t="s">
-        <v>66</v>
       </c>
       <c r="D69" t="s">
         <v>236</v>
       </c>
       <c r="E69" s="3">
-        <v>113046</v>
+        <v>656</v>
       </c>
       <c r="F69" s="3">
-        <v>8422</v>
+        <v>30</v>
       </c>
       <c r="G69" s="3">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4224,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4238,19 +4238,19 @@
         <v>238</v>
       </c>
       <c r="C70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" t="s">
         <v>239</v>
       </c>
-      <c r="D70" t="s">
-        <v>240</v>
-      </c>
       <c r="E70" s="3">
-        <v>1254</v>
+        <v>1556</v>
       </c>
       <c r="F70" s="3">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4259,33 +4259,33 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B71" t="s">
         <v>241</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
         <v>242</v>
       </c>
-      <c r="C71" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" t="s">
-        <v>243</v>
-      </c>
       <c r="E71" s="3">
-        <v>1080</v>
+        <v>75707</v>
       </c>
       <c r="F71" s="3">
-        <v>101</v>
+        <v>4287</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4294,33 +4294,33 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>9</v>
+        <v>628</v>
       </c>
       <c r="L71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" t="s">
         <v>244</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>245</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
       </c>
       <c r="D72" t="s">
         <v>246</v>
       </c>
       <c r="E72" s="3">
-        <v>4508</v>
+        <v>1542</v>
       </c>
       <c r="F72" s="3">
-        <v>446</v>
+        <v>48</v>
       </c>
       <c r="G72" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4329,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4343,16 +4343,16 @@
         <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E73" s="3">
-        <v>30</v>
+        <v>2165</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
@@ -4364,33 +4364,33 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="D74" t="s">
         <v>253</v>
       </c>
       <c r="E74" s="3">
-        <v>13154</v>
+        <v>0</v>
       </c>
       <c r="F74" s="3">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4413,19 +4413,19 @@
         <v>255</v>
       </c>
       <c r="C75" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" s="3">
-        <v>5083</v>
+        <v>1162</v>
       </c>
       <c r="F75" s="3">
-        <v>594</v>
+        <v>39</v>
       </c>
       <c r="G75" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4434,33 +4434,33 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
         <v>260</v>
       </c>
       <c r="E76" s="3">
-        <v>269112</v>
+        <v>285</v>
       </c>
       <c r="F76" s="3">
-        <v>5243</v>
+        <v>1</v>
       </c>
       <c r="G76" s="3">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4469,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4483,19 +4483,19 @@
         <v>262</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
         <v>263</v>
       </c>
       <c r="E77" s="3">
-        <v>12342</v>
+        <v>692</v>
       </c>
       <c r="F77" s="3">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="G77" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4518,19 +4518,19 @@
         <v>265</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
         <v>266</v>
       </c>
       <c r="E78" s="3">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="F78" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G78" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4539,10 +4539,10 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4553,19 +4553,19 @@
         <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
         <v>269</v>
       </c>
       <c r="E79" s="3">
-        <v>3021</v>
+        <v>11</v>
       </c>
       <c r="F79" s="3">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4574,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4588,19 +4588,19 @@
         <v>271</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>272</v>
       </c>
       <c r="E80" s="3">
-        <v>4358</v>
+        <v>578</v>
       </c>
       <c r="F80" s="3">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="G80" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4609,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4623,19 +4623,19 @@
         <v>274</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
         <v>275</v>
       </c>
       <c r="E81" s="3">
-        <v>299</v>
+        <v>1493</v>
       </c>
       <c r="F81" s="3">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4644,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4658,19 +4658,19 @@
         <v>277</v>
       </c>
       <c r="C82" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E82" s="3">
-        <v>1663</v>
+        <v>32</v>
       </c>
       <c r="F82" s="3">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4679,27 +4679,27 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E83" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4717,30 +4717,30 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C84" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E84" s="3">
-        <v>1593</v>
+        <v>691</v>
       </c>
       <c r="F84" s="3">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="G84" s="3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4752,30 +4752,30 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E85" s="3">
-        <v>5880</v>
+        <v>113</v>
       </c>
       <c r="F85" s="3">
-        <v>594</v>
+        <v>12</v>
       </c>
       <c r="G85" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4784,33 +4784,33 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E86" s="3">
-        <v>113</v>
+        <v>1330</v>
       </c>
       <c r="F86" s="3">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4819,30 +4819,30 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E87" s="3">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="F87" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -4857,30 +4857,30 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
         <v>150</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E88" s="3">
-        <v>104</v>
+        <v>1084</v>
       </c>
       <c r="F88" s="3">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="G88" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4889,30 +4889,30 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="D89" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E89" s="3">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="F89" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4924,33 +4924,33 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="D90" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E90" s="3">
-        <v>126844</v>
+        <v>2</v>
       </c>
       <c r="F90" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4959,33 +4959,33 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B91" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E91" s="3">
-        <v>75707</v>
+        <v>145</v>
       </c>
       <c r="F91" s="3">
-        <v>4287</v>
+        <v>25</v>
       </c>
       <c r="G91" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4994,30 +4994,30 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>628</v>
+        <v>3</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B92" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E92" s="3">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="F92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -5032,27 +5032,27 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="D93" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E93" s="3">
-        <v>1274</v>
+        <v>357</v>
       </c>
       <c r="F93" s="3">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -5064,33 +5064,33 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C94" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="D94" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E94" s="3">
-        <v>644</v>
+        <v>269112</v>
       </c>
       <c r="F94" s="3">
-        <v>136</v>
+        <v>5243</v>
       </c>
       <c r="G94" s="3">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5099,33 +5099,33 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>154</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E95" s="3">
-        <v>61</v>
+        <v>1185</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5134,30 +5134,30 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5172,30 +5172,30 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="D97" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E97" s="3">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F97" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G97" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5204,33 +5204,33 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="D98" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E98" s="3">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="F98" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5239,33 +5239,33 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E99" s="3">
-        <v>12004</v>
+        <v>2959</v>
       </c>
       <c r="F99" s="3">
-        <v>691</v>
+        <v>38</v>
       </c>
       <c r="G99" s="3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5274,30 +5274,30 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="L99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C100" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
         <v>336</v>
       </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5312,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5323,19 +5323,19 @@
         <v>338</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
         <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>11977</v>
+        <v>1517</v>
       </c>
       <c r="F101" s="3">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="G101" s="3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5344,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5358,19 +5358,19 @@
         <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
         <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>285</v>
+        <v>575</v>
       </c>
       <c r="F102" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5393,19 +5393,19 @@
         <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D103" t="s">
         <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>60</v>
+        <v>4358</v>
       </c>
       <c r="F103" s="3">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5414,10 +5414,10 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5428,19 +5428,19 @@
         <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D104" t="s">
         <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>1084</v>
+        <v>691</v>
       </c>
       <c r="F104" s="3">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="G104" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5463,7 +5463,7 @@
         <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D105" t="s">
         <v>351</v>
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="3">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5498,19 +5498,19 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D106" t="s">
         <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>575</v>
+        <v>132</v>
       </c>
       <c r="F106" s="3">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5533,19 +5533,19 @@
         <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>1493</v>
+        <v>42</v>
       </c>
       <c r="F107" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5554,10 +5554,10 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5568,19 +5568,19 @@
         <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
         <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>1803</v>
+        <v>222</v>
       </c>
       <c r="F108" s="3">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="G108" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5589,10 +5589,10 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5603,19 +5603,19 @@
         <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="D109" t="s">
         <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>2352</v>
+        <v>5962</v>
       </c>
       <c r="F109" s="3">
-        <v>89</v>
+        <v>765</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5624,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="L109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5638,19 +5638,19 @@
         <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
         <v>366</v>
       </c>
       <c r="E110" s="3">
-        <v>2</v>
+        <v>2352</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G110" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5659,10 +5659,10 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5673,19 +5673,19 @@
         <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="D111" t="s">
         <v>369</v>
       </c>
       <c r="E111" s="3">
-        <v>2959</v>
+        <v>653</v>
       </c>
       <c r="F111" s="3">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="G111" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5708,19 +5708,19 @@
         <v>371</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
         <v>372</v>
       </c>
       <c r="E112" s="3">
-        <v>1542</v>
+        <v>3021</v>
       </c>
       <c r="F112" s="3">
-        <v>48</v>
+        <v>580</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5743,19 +5743,19 @@
         <v>374</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="D113" t="s">
         <v>375</v>
       </c>
       <c r="E113" s="3">
-        <v>188</v>
+        <v>11977</v>
       </c>
       <c r="F113" s="3">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="G113" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5764,10 +5764,10 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5778,19 +5778,19 @@
         <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="D114" t="s">
         <v>378</v>
       </c>
       <c r="E114" s="3">
-        <v>1556</v>
+        <v>1386</v>
       </c>
       <c r="F114" s="3">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="G114" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5799,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5813,19 +5813,19 @@
         <v>380</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="3">
-        <v>691</v>
+        <v>43</v>
       </c>
       <c r="F115" s="3">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="G115" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5848,19 +5848,19 @@
         <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>70</v>
+        <v>5083</v>
       </c>
       <c r="F116" s="3">
-        <v>1</v>
+        <v>594</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5869,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5883,19 +5883,19 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="3">
-        <v>268</v>
+        <v>1803</v>
       </c>
       <c r="F117" s="3">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="G117" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5904,10 +5904,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5918,16 +5918,16 @@
         <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="D118" t="s">
         <v>390</v>
       </c>
       <c r="E118" s="3">
-        <v>322</v>
+        <v>2848</v>
       </c>
       <c r="F118" s="3">
-        <v>16</v>
+        <v>523</v>
       </c>
       <c r="G118" s="3">
         <v>11</v>
@@ -5939,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5953,19 +5953,19 @@
         <v>392</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="D119" t="s">
         <v>393</v>
       </c>
       <c r="E119" s="3">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="F119" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G119" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5988,19 +5988,19 @@
         <v>395</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="D120" t="s">
         <v>396</v>
       </c>
       <c r="E120" s="3">
-        <v>1162</v>
+        <v>6</v>
       </c>
       <c r="F120" s="3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -6009,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6023,20 +6023,20 @@
         <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>325</v>
+        <v>191</v>
       </c>
       <c r="D121" t="s">
         <v>399</v>
       </c>
       <c r="E121" s="3">
-        <v>732</v>
+        <v>12004</v>
       </c>
       <c r="F121" s="3">
+        <v>691</v>
+      </c>
+      <c r="G121" s="3">
         <v>29</v>
       </c>
-      <c r="G121" s="3">
-        <v>20</v>
-      </c>
       <c r="H121" s="3">
         <v>0</v>
       </c>
@@ -6044,10 +6044,10 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="L121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6058,19 +6058,19 @@
         <v>401</v>
       </c>
       <c r="C122" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" t="s">
         <v>402</v>
       </c>
-      <c r="D122" t="s">
-        <v>403</v>
-      </c>
       <c r="E122" s="3">
-        <v>656</v>
+        <v>9</v>
       </c>
       <c r="F122" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G122" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6079,33 +6079,33 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" t="s">
         <v>404</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>100</v>
+      </c>
+      <c r="D123" t="s">
         <v>405</v>
       </c>
-      <c r="C123" t="s">
-        <v>239</v>
-      </c>
-      <c r="D123" t="s">
-        <v>406</v>
-      </c>
       <c r="E123" s="3">
-        <v>1372</v>
+        <v>4711</v>
       </c>
       <c r="F123" s="3">
-        <v>172</v>
+        <v>387</v>
       </c>
       <c r="G123" s="3">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6114,33 +6114,33 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B124" t="s">
         <v>407</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124" t="s">
         <v>408</v>
       </c>
-      <c r="C124" t="s">
-        <v>150</v>
-      </c>
-      <c r="D124" t="s">
-        <v>409</v>
-      </c>
       <c r="E124" s="3">
-        <v>152</v>
+        <v>7772</v>
       </c>
       <c r="F124" s="3">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="G124" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6149,33 +6149,33 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="L124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B125" t="s">
         <v>410</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>161</v>
+      </c>
+      <c r="D125" t="s">
         <v>411</v>
       </c>
-      <c r="C125" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" t="s">
-        <v>412</v>
-      </c>
       <c r="E125" s="3">
-        <v>4711</v>
+        <v>5</v>
       </c>
       <c r="F125" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G125" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -6184,33 +6184,33 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" t="s">
         <v>413</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" t="s">
         <v>414</v>
       </c>
-      <c r="C126" t="s">
-        <v>31</v>
-      </c>
-      <c r="D126" t="s">
-        <v>415</v>
-      </c>
       <c r="E126" s="3">
-        <v>32</v>
+        <v>1080</v>
       </c>
       <c r="F126" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -6219,33 +6219,33 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L126" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" t="s">
         <v>416</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" t="s">
         <v>417</v>
       </c>
-      <c r="C127" t="s">
-        <v>252</v>
-      </c>
-      <c r="D127" t="s">
-        <v>418</v>
-      </c>
       <c r="E127" s="3">
-        <v>5962</v>
+        <v>366</v>
       </c>
       <c r="F127" s="3">
-        <v>765</v>
+        <v>43</v>
       </c>
       <c r="G127" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6254,24 +6254,24 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B128" t="s">
         <v>419</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" t="s">
         <v>420</v>
-      </c>
-      <c r="C128" t="s">
-        <v>177</v>
-      </c>
-      <c r="D128" t="s">
-        <v>421</v>
       </c>
       <c r="E128" s="3">
         <v>641</v>
@@ -6292,30 +6292,30 @@
         <v>12</v>
       </c>
       <c r="L128" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" t="s">
         <v>422</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>64</v>
+      </c>
+      <c r="D129" t="s">
         <v>423</v>
       </c>
-      <c r="C129" t="s">
-        <v>177</v>
-      </c>
-      <c r="D129" t="s">
-        <v>424</v>
-      </c>
       <c r="E129" s="3">
-        <v>692</v>
+        <v>126844</v>
       </c>
       <c r="F129" s="3">
-        <v>82</v>
+        <v>8977</v>
       </c>
       <c r="G129" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6324,33 +6324,33 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="L129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
         <v>425</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>150</v>
+      </c>
+      <c r="D130" t="s">
         <v>426</v>
       </c>
-      <c r="C130" t="s">
-        <v>239</v>
-      </c>
-      <c r="D130" t="s">
-        <v>427</v>
-      </c>
       <c r="E130" s="3">
-        <v>578</v>
+        <v>1254</v>
       </c>
       <c r="F130" s="3">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="G130" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6359,33 +6359,33 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L130" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B131" t="s">
         <v>428</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>429</v>
-      </c>
-      <c r="C131" t="s">
-        <v>252</v>
       </c>
       <c r="D131" t="s">
         <v>430</v>
       </c>
       <c r="E131" s="3">
-        <v>2848</v>
+        <v>5563</v>
       </c>
       <c r="F131" s="3">
-        <v>523</v>
+        <v>265</v>
       </c>
       <c r="G131" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6394,10 +6394,10 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L131" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6408,31 +6408,31 @@
         <v>432</v>
       </c>
       <c r="C132" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="D132" t="s">
         <v>433</v>
       </c>
       <c r="E132" s="3">
+        <v>112</v>
+      </c>
+      <c r="F132" s="3">
+        <v>11</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
         <v>2</v>
       </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="3">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
       <c r="L132" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6443,13 +6443,13 @@
         <v>435</v>
       </c>
       <c r="C133" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D133" t="s">
         <v>436</v>
       </c>
       <c r="E133" s="3">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6478,19 +6478,19 @@
         <v>438</v>
       </c>
       <c r="C134" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
         <v>439</v>
       </c>
       <c r="E134" s="3">
-        <v>1517</v>
+        <v>106303</v>
       </c>
       <c r="F134" s="3">
-        <v>162</v>
+        <v>4496</v>
       </c>
       <c r="G134" s="3">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -6499,10 +6499,10 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>13</v>
+        <v>647</v>
       </c>
       <c r="L134" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6513,19 +6513,19 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="D135" t="s">
         <v>442</v>
       </c>
       <c r="E135" s="3">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -6534,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6548,19 +6548,19 @@
         <v>444</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
         <v>445</v>
       </c>
       <c r="E136" s="3">
-        <v>52</v>
+        <v>7431</v>
       </c>
       <c r="F136" s="3">
-        <v>1</v>
+        <v>661</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L136" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6583,16 +6583,16 @@
         <v>447</v>
       </c>
       <c r="C137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s">
         <v>448</v>
       </c>
-      <c r="D137" t="s">
-        <v>449</v>
-      </c>
       <c r="E137" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6607,30 +6607,30 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B138" t="s">
         <v>450</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>51</v>
+      </c>
+      <c r="D138" t="s">
         <v>451</v>
       </c>
-      <c r="C138" t="s">
-        <v>96</v>
-      </c>
-      <c r="D138" t="s">
-        <v>452</v>
-      </c>
       <c r="E138" s="3">
-        <v>9999</v>
+        <v>175</v>
       </c>
       <c r="F138" s="3">
-        <v>357</v>
+        <v>25</v>
       </c>
       <c r="G138" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
@@ -6639,33 +6639,33 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" t="s">
         <v>453</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" t="s">
         <v>454</v>
       </c>
-      <c r="C139" t="s">
-        <v>252</v>
-      </c>
-      <c r="D139" t="s">
-        <v>455</v>
-      </c>
       <c r="E139" s="3">
-        <v>7431</v>
+        <v>104</v>
       </c>
       <c r="F139" s="3">
-        <v>661</v>
+        <v>9</v>
       </c>
       <c r="G139" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
@@ -6674,30 +6674,30 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B140" t="s">
         <v>456</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D140" t="s">
         <v>457</v>
       </c>
-      <c r="C140" t="s">
-        <v>458</v>
-      </c>
-      <c r="D140" t="s">
-        <v>459</v>
-      </c>
       <c r="E140" s="3">
-        <v>2165</v>
+        <v>116</v>
       </c>
       <c r="F140" s="3">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="G140" s="3">
         <v>1</v>
@@ -6709,33 +6709,33 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
+        <v>459</v>
+      </c>
+      <c r="C141" t="s">
         <v>460</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>461</v>
       </c>
-      <c r="C141" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" t="s">
-        <v>462</v>
-      </c>
       <c r="E141" s="3">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="F141" s="3">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="G141" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
@@ -6744,33 +6744,33 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B142" t="s">
         <v>463</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>150</v>
+      </c>
+      <c r="D142" t="s">
         <v>464</v>
       </c>
-      <c r="C142" t="s">
-        <v>181</v>
-      </c>
-      <c r="D142" t="s">
-        <v>465</v>
-      </c>
       <c r="E142" s="3">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="F142" s="3">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="G142" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -6782,30 +6782,30 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B143" t="s">
         <v>466</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>187</v>
+      </c>
+      <c r="D143" t="s">
         <v>467</v>
       </c>
-      <c r="C143" t="s">
-        <v>239</v>
-      </c>
-      <c r="D143" t="s">
-        <v>468</v>
-      </c>
       <c r="E143" s="3">
-        <v>995</v>
+        <v>152</v>
       </c>
       <c r="F143" s="3">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G143" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
@@ -6814,45 +6814,45 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B144" t="s">
         <v>469</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>470</v>
-      </c>
-      <c r="C144" t="s">
-        <v>140</v>
       </c>
       <c r="D144" t="s">
         <v>471</v>
       </c>
       <c r="E144" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F144" s="3">
+        <v>64</v>
+      </c>
+      <c r="G144" s="3">
+        <v>2</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
         <v>9</v>
       </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="3">
-        <v>0</v>
-      </c>
-      <c r="J144">
-        <v>0</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
       <c r="L144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6863,13 +6863,13 @@
         <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="D145" t="s">
         <v>474</v>
       </c>
       <c r="E145" s="3">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -6887,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6898,16 +6898,16 @@
         <v>476</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="D146" t="s">
         <v>477</v>
       </c>
       <c r="E146" s="3">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="F146" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
@@ -6919,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L146" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6933,19 +6933,19 @@
         <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="D147" t="s">
         <v>480</v>
       </c>
       <c r="E147" s="3">
-        <v>17</v>
+        <v>732</v>
       </c>
       <c r="F147" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G147" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6968,19 +6968,19 @@
         <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D148" t="s">
         <v>483</v>
       </c>
       <c r="E148" s="3">
-        <v>653</v>
+        <v>1372</v>
       </c>
       <c r="F148" s="3">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="G148" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>140702</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="B3">
         <v>39142</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>33788</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>33684</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>23400</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>8426</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>5439</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B9">
         <v>4833</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="B10">
         <v>4322</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>429</v>
       </c>
       <c r="B11">
         <v>3837</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>3731</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B13">
         <v>1861</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>807</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>715</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>278</v>
       </c>
       <c r="B16">
         <v>259</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>458</v>
+        <v>249</v>
       </c>
       <c r="B17">
         <v>165</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="B18">
         <v>126</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="B19">
         <v>71</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>67</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>57</v>
@@ -7330,7 +7330,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>48</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>402</v>
+        <v>235</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,31 +68,352 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
+  </si>
+  <si>
+    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
+  </si>
+  <si>
+    <t>Ministère Territoires et Collectivités</t>
+  </si>
+  <si>
+    <t>2019-07-03T09:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
+  </si>
+  <si>
+    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
+  </si>
+  <si>
+    <t>2019-10-04T12:20:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
+  </si>
+  <si>
+    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-09T15:30:03.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
+  </si>
+  <si>
+    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
+  </si>
+  <si>
+    <t>2019-07-03T08:38:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
+  </si>
+  <si>
+    <t>Toulouse poursuit son programme de renouvellement urbain</t>
+  </si>
+  <si>
+    <t>2019-07-22T13:09:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
   </si>
   <si>
     <t>Natixis – Interview Mobilité – Xavier</t>
   </si>
   <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
     <t>2017-02-20T13:34:13.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
@@ -104,85 +425,31 @@
     <t>2019-12-18T21:54:39.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=XyXUEdPE6_o</t>
-  </si>
-  <si>
-    <t>Lancement de la Grande Équipe de la réussite républicaine, à Marseille</t>
-  </si>
-  <si>
-    <t>Ministère Territoires et Collectivités</t>
-  </si>
-  <si>
-    <t>2019-10-04T12:20:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pz100h0f0wM</t>
-  </si>
-  <si>
-    <t>Installation du Conseil national des Tiers lieux à Pantin, le 17 juin 2019</t>
-  </si>
-  <si>
-    <t>2019-07-03T09:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9QRQxx6Ixw0</t>
-  </si>
-  <si>
-    <t>Toulouse poursuit son programme de renouvellement urbain</t>
-  </si>
-  <si>
-    <t>2019-07-22T13:09:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bGiFDNVyj0c</t>
-  </si>
-  <si>
-    <t>Jacqueline Gourault se rend à Hondschoote, département du Nord, à la rencontre de ses habitants</t>
-  </si>
-  <si>
-    <t>2019-07-03T08:38:19.000Z</t>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
@@ -194,271 +461,430 @@
     <t>2019-10-11T13:40:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rkuf0Q6d93k</t>
-  </si>
-  <si>
-    <t>La libération de l'ex-Président Lula, causes et conséquences. 09.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T15:30:03.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
+  </si>
+  <si>
+    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:20:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
+  </si>
+  <si>
+    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
+  </si>
+  <si>
+    <t>Fred Bes</t>
+  </si>
+  <si>
+    <t>2019-12-17T20:32:34.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
+  </si>
+  <si>
+    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
+  </si>
+  <si>
+    <t>2019-12-11T21:32:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
+  </si>
+  <si>
+    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T19:28:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
+  </si>
+  <si>
+    <t>C'est ton enfant - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-10T17:18:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
+  </si>
+  <si>
+    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-10T19:18:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
+  </si>
+  <si>
+    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-24T19:30:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
+  </si>
+  <si>
+    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
+  </si>
+  <si>
+    <t>2019-12-09T12:38:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
+  </si>
+  <si>
+    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
+  </si>
+  <si>
+    <t>2019-12-12T20:47:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
+  </si>
+  <si>
+    <t>Les perles de LREM en 2019</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:54:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-16T19:13:40.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
+  </si>
+  <si>
+    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
+  </si>
+  <si>
+    <t>Daniel Dupont</t>
+  </si>
+  <si>
+    <t>2019-11-26T22:20:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
@@ -467,24 +893,435 @@
     <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
   </si>
   <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
     <t>2019-12-25T19:59:37.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
+  </si>
+  <si>
+    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-13T22:06:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
+  </si>
+  <si>
+    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-07-17T12:45:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
+  </si>
+  <si>
+    <t>Bientôt de la publicité sur Netflix ?</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:17:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
+  </si>
+  <si>
+    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:48:51.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
+  </si>
+  <si>
+    <t>Trump rend hommage aux gilets jaunes</t>
+  </si>
+  <si>
+    <t>2019-08-13T22:45:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
+  </si>
+  <si>
+    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T19:07:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
+  </si>
+  <si>
+    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T18:51:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
   </si>
   <si>
     <t>Les prophéties de Christophe Barbier</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-16T17:17:16.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
+  </si>
+  <si>
+    <t>comment lire les articles du parisien gratuitement</t>
+  </si>
+  <si>
+    <t>2019-12-19T11:02:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
+  </si>
+  <si>
+    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
+  </si>
+  <si>
+    <t>2019-12-11T10:23:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
+  </si>
+  <si>
+    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-23T18:44:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
   </si>
   <si>
@@ -494,46 +1331,61 @@
     <t>2019-12-17T16:58:46.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=hF1BW76bPR8</t>
-  </si>
-  <si>
-    <t>Réponse apportée par la Présidente de la HAS 10.07.2019</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-07-17T12:45:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
+  </si>
+  <si>
+    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
+  </si>
+  <si>
+    <t>2019-12-11T17:08:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
+  </si>
+  <si>
+    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
+  </si>
+  <si>
+    <t>2019-12-28T08:24:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
@@ -545,166 +1397,40 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pDhr-em2HoU</t>
-  </si>
-  <si>
-    <t>Brexit   une victoire sans appel   Journal du vendredi 13 décembre 2019</t>
-  </si>
-  <si>
-    <t>Fred Bes</t>
-  </si>
-  <si>
-    <t>2019-12-13T22:06:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2pJ9fMlV0VE</t>
-  </si>
-  <si>
-    <t>Les annonces de Philippe sur les retraites font pschitt auprès des syndicats</t>
-  </si>
-  <si>
-    <t>2019-12-11T17:08:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GvSHe1Wg1xQ</t>
-  </si>
-  <si>
-    <t>Interview de Patrick Bouchain, Grand Prix de l'urbanisme 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:20:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=B8JrTvffIdo</t>
-  </si>
-  <si>
-    <t>L’unité syndicale qui cache les divisions   Journal du Mardi 17 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T20:32:34.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qmeJw7yLap8</t>
-  </si>
-  <si>
-    <t>I Média n°276 Grève   des médias parisiano centrés et pro Macron</t>
-  </si>
-  <si>
-    <t>2019-12-12T20:47:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
@@ -716,168 +1442,6 @@
     <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ykKhkkFtCeQ</t>
-  </si>
-  <si>
-    <t>Jimi Hendrix - Room full of mirrors -  Royal Albert Hall 1969</t>
-  </si>
-  <si>
-    <t>Daniel Dupont</t>
-  </si>
-  <si>
-    <t>2019-11-26T22:20:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=agwEU4-RfmI</t>
-  </si>
-  <si>
-    <t>Les perles de LREM en 2019</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:54:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hecBzyhIJK4</t>
-  </si>
-  <si>
-    <t>La grève pour les retraites ou contre Macron     Journal du Mardi 10 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-10T19:18:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wPiALACmgPU</t>
-  </si>
-  <si>
-    <t>Bientôt de la publicité sur Netflix ?</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:17:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=h0BVv1N5OMw</t>
   </si>
   <si>
@@ -887,264 +1451,6 @@
     <t>2019-12-27T18:41:49.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PGd0yfHZ-Pc</t>
-  </si>
-  <si>
-    <t>I Média n°278 – Noël, 31… Les médias veulent gâcher la fête !</t>
-  </si>
-  <si>
-    <t>2019-12-28T08:24:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bS97qS54dnc</t>
-  </si>
-  <si>
-    <t>Trump   le coup de bluff des démocrates   Journal du jeudi 19 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T19:07:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=st9DfcnTNFc</t>
-  </si>
-  <si>
-    <t>Beauvais : Julien Denormandie annonce 200 millions d’euros pour la rénovation urbaine</t>
-  </si>
-  <si>
-    <t>2019-12-09T12:38:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=n9olk8BvyYE</t>
-  </si>
-  <si>
-    <t>C'est ton enfant - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-10T17:18:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8BwEh8EVEUQ</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye   “une regrettable erreur”   Journal du lundi 16 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-16T19:13:40.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RYlUMGvQ_0k</t>
-  </si>
-  <si>
-    <t>Le martyr des Chrétiens d’Orient se poursuit   Journal du mardi 24 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-24T19:30:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
   </si>
   <si>
@@ -1154,198 +1460,6 @@
     <t>2019-12-26T16:00:04.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DLUzInx7qz0</t>
-  </si>
-  <si>
-    <t>Algérie : Les enjeux des élections avec Jen-Pierre Filiu</t>
-  </si>
-  <si>
-    <t>2019-12-11T10:23:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fT6I6tLZAMo</t>
-  </si>
-  <si>
-    <t>Grève   transports, le point de rupture pour l’opinion   Journal du vendredi 20 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T19:28:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wDmkc2aty0Y</t>
-  </si>
-  <si>
-    <t>Noël, ses fêtes et ses grèves   Journal du lundi 23 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-23T18:44:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
   </si>
   <si>
@@ -1353,120 +1467,6 @@
   </si>
   <si>
     <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcF-GVBrNj4</t>
-  </si>
-  <si>
-    <t>Pietraszewski   slalom ou tout schuss     Journal Mercredi 18 Décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:48:51.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tQUaeLXOCS4</t>
-  </si>
-  <si>
-    <t>comment lire les articles du parisien gratuitement</t>
-  </si>
-  <si>
-    <t>2019-12-19T11:02:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dDvkUpcPiDA</t>
-  </si>
-  <si>
-    <t>Grèves à Noël   La macronie s’en fout !   Journal du jeudi 26 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T18:51:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PWUD1L2VBmo</t>
-  </si>
-  <si>
-    <t>Trump rend hommage aux gilets jaunes</t>
-  </si>
-  <si>
-    <t>2019-08-13T22:45:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-SYPL1I1Yew</t>
-  </si>
-  <si>
-    <t>MERCI GUILLAUME N. -  CAGNOTTE POUR LES POMPIERS</t>
-  </si>
-  <si>
-    <t>2019-12-11T21:32:12.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1928,19 +1928,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>844</v>
+        <v>52652</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>7833</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1949,33 +1949,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="3">
-        <v>3080</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1984,33 +1984,33 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="3">
-        <v>23702</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3">
-        <v>3315</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2039,10 +2039,10 @@
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2068,13 +2068,13 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3">
-        <v>2053</v>
+        <v>8644</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2103,16 +2103,16 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>8644</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2138,19 +2138,19 @@
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
-        <v>95</v>
+        <v>4463</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2159,33 +2159,33 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3">
-        <v>239</v>
+        <v>13867</v>
       </c>
       <c r="F11" s="3">
-        <v>2</v>
+        <v>934</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -2194,33 +2194,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
-        <v>3484</v>
+        <v>62509</v>
       </c>
       <c r="F12" s="3">
-        <v>224</v>
+        <v>4841</v>
       </c>
       <c r="G12" s="3">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -2229,33 +2229,33 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>526</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>1237</v>
+        <v>18665</v>
       </c>
       <c r="F13" s="3">
-        <v>51</v>
+        <v>659</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -2264,33 +2264,33 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
-        <v>74</v>
+        <v>2883</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2299,33 +2299,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
-        <v>4759</v>
+        <v>74953</v>
       </c>
       <c r="F15" s="3">
-        <v>129</v>
+        <v>1016</v>
       </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2334,33 +2334,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3">
-        <v>52652</v>
+        <v>3484</v>
       </c>
       <c r="F16" s="3">
-        <v>7833</v>
+        <v>224</v>
       </c>
       <c r="G16" s="3">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2369,33 +2369,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>346</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3">
-        <v>472979</v>
+        <v>222595</v>
       </c>
       <c r="F17" s="3">
-        <v>20185</v>
+        <v>9022</v>
       </c>
       <c r="G17" s="3">
-        <v>515</v>
+        <v>147</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2404,33 +2404,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3">
-        <v>62509</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3">
-        <v>4841</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2439,33 +2439,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3">
-        <v>41</v>
+        <v>1237</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2474,33 +2474,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3">
-        <v>566966</v>
+        <v>617</v>
       </c>
       <c r="F20" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2509,33 +2509,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3">
-        <v>27</v>
+        <v>23164</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2544,33 +2544,33 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
-        <v>25592</v>
+        <v>511312</v>
       </c>
       <c r="F22" s="3">
-        <v>221</v>
+        <v>15167</v>
       </c>
       <c r="G22" s="3">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2579,33 +2579,33 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3">
-        <v>23164</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2614,33 +2614,33 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="3">
-        <v>4463</v>
+        <v>4640</v>
       </c>
       <c r="F24" s="3">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2649,24 +2649,24 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E25" s="3">
         <v>428</v>
@@ -2687,24 +2687,24 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E26" s="3">
-        <v>617</v>
+        <v>2053</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -2722,30 +2722,30 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="3">
-        <v>24890</v>
+        <v>25592</v>
       </c>
       <c r="F27" s="3">
-        <v>1321</v>
+        <v>221</v>
       </c>
       <c r="G27" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2768,19 +2768,19 @@
         <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>104</v>
       </c>
       <c r="E28" s="3">
-        <v>18665</v>
+        <v>3080</v>
       </c>
       <c r="F28" s="3">
-        <v>659</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2803,19 +2803,19 @@
         <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="3">
-        <v>2078</v>
+        <v>69498</v>
       </c>
       <c r="F29" s="3">
-        <v>44</v>
+        <v>1189</v>
       </c>
       <c r="G29" s="3">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2824,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2838,19 +2838,19 @@
         <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="3">
-        <v>8968</v>
+        <v>24890</v>
       </c>
       <c r="F30" s="3">
-        <v>117</v>
+        <v>1321</v>
       </c>
       <c r="G30" s="3">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2873,19 +2873,19 @@
         <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="3">
-        <v>4183126</v>
+        <v>239</v>
       </c>
       <c r="F31" s="3">
-        <v>49430</v>
+        <v>2</v>
       </c>
       <c r="G31" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2908,19 +2908,19 @@
         <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="3">
-        <v>4640</v>
+        <v>472979</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2929,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2943,19 +2943,19 @@
         <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="3">
-        <v>2883</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2964,33 +2964,33 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3">
-        <v>69498</v>
+        <v>844</v>
       </c>
       <c r="F34" s="3">
-        <v>1189</v>
+        <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2999,33 +2999,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35" s="3">
-        <v>74953</v>
+        <v>4183126</v>
       </c>
       <c r="F35" s="3">
-        <v>1016</v>
+        <v>49430</v>
       </c>
       <c r="G35" s="3">
-        <v>29</v>
+        <v>5701</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -3034,33 +3034,33 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>212</v>
+        <v>1196</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="3">
-        <v>511312</v>
+        <v>170</v>
       </c>
       <c r="F36" s="3">
-        <v>15167</v>
+        <v>4</v>
       </c>
       <c r="G36" s="3">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -3069,33 +3069,33 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="L36" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
         <v>132</v>
       </c>
       <c r="E37" s="3">
-        <v>88</v>
+        <v>566966</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
+        <v>18782</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3118,19 +3118,19 @@
         <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="3">
-        <v>13867</v>
+        <v>23702</v>
       </c>
       <c r="F38" s="3">
-        <v>934</v>
+        <v>3315</v>
       </c>
       <c r="G38" s="3">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -3139,10 +3139,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3153,19 +3153,19 @@
         <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
       </c>
       <c r="E39" s="3">
-        <v>46</v>
+        <v>8968</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" s="3">
         <v>1</v>
@@ -3174,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3188,19 +3188,19 @@
         <v>140</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="3">
-        <v>222595</v>
+        <v>2078</v>
       </c>
       <c r="F40" s="3">
-        <v>9022</v>
+        <v>44</v>
       </c>
       <c r="G40" s="3">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -3209,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3223,13 +3223,13 @@
         <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>144</v>
       </c>
       <c r="E41" s="3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3258,19 +3258,19 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>147</v>
       </c>
       <c r="E42" s="3">
-        <v>170</v>
+        <v>4759</v>
       </c>
       <c r="F42" s="3">
-        <v>4</v>
+        <v>129</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -3279,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3299,13 +3299,13 @@
         <v>151</v>
       </c>
       <c r="E43" s="3">
-        <v>995</v>
+        <v>21</v>
       </c>
       <c r="F43" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3334,13 +3334,13 @@
         <v>155</v>
       </c>
       <c r="E44" s="3">
-        <v>1274</v>
+        <v>1084</v>
       </c>
       <c r="F44" s="3">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3349,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3363,13 +3363,13 @@
         <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
       </c>
       <c r="E45" s="3">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -3384,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3398,13 +3398,13 @@
         <v>160</v>
       </c>
       <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
         <v>161</v>
       </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
       <c r="E46" s="3">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3422,30 +3422,30 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
         <v>163</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>164</v>
-      </c>
-      <c r="C47" t="s">
-        <v>131</v>
       </c>
       <c r="D47" t="s">
         <v>165</v>
       </c>
       <c r="E47" s="3">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="F47" s="3">
         <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3454,10 +3454,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3474,13 +3474,13 @@
         <v>169</v>
       </c>
       <c r="E48" s="3">
-        <v>13154</v>
+        <v>619</v>
       </c>
       <c r="F48" s="3">
-        <v>1256</v>
+        <v>29</v>
       </c>
       <c r="G48" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3503,19 +3503,19 @@
         <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
         <v>172</v>
       </c>
       <c r="E49" s="3">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="F49" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3538,19 +3538,19 @@
         <v>174</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
         <v>175</v>
       </c>
       <c r="E50" s="3">
-        <v>113046</v>
+        <v>1493</v>
       </c>
       <c r="F50" s="3">
-        <v>8422</v>
+        <v>115</v>
       </c>
       <c r="G50" s="3">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3573,19 +3573,19 @@
         <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
         <v>178</v>
       </c>
       <c r="E51" s="3">
-        <v>17</v>
+        <v>9999</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3608,16 +3608,16 @@
         <v>180</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E52" s="3">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -3629,33 +3629,33 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
-        <v>52</v>
+        <v>5563</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3664,33 +3664,33 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3">
-        <v>299</v>
+        <v>5083</v>
       </c>
       <c r="F54" s="3">
-        <v>24</v>
+        <v>594</v>
       </c>
       <c r="G54" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3702,30 +3702,30 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E55" s="3">
-        <v>188</v>
+        <v>1372</v>
       </c>
       <c r="F55" s="3">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3737,30 +3737,30 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E56" s="3">
-        <v>70</v>
+        <v>2352</v>
       </c>
       <c r="F56" s="3">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3769,33 +3769,33 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E57" s="3">
-        <v>9999</v>
+        <v>366</v>
       </c>
       <c r="F57" s="3">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="G57" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3804,27 +3804,27 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3842,30 +3842,30 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="D59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3">
-        <v>24</v>
+        <v>575</v>
       </c>
       <c r="F59" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3874,33 +3874,33 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E60" s="3">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="F60" s="3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3909,33 +3909,33 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E61" s="3">
-        <v>1593</v>
+        <v>2848</v>
       </c>
       <c r="F61" s="3">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="G61" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3947,30 +3947,30 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E62" s="3">
+        <v>222</v>
+      </c>
+      <c r="F62" s="3">
         <v>30</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3979,33 +3979,33 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E63" s="3">
-        <v>1663</v>
+        <v>1921</v>
       </c>
       <c r="F63" s="3">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="G63" s="3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -4014,33 +4014,33 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E64" s="3">
-        <v>4508</v>
+        <v>96</v>
       </c>
       <c r="F64" s="3">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="G64" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -4049,33 +4049,33 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E65" s="3">
-        <v>619</v>
+        <v>1593</v>
       </c>
       <c r="F65" s="3">
-        <v>29</v>
+        <v>331</v>
       </c>
       <c r="G65" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -4084,33 +4084,33 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E66" s="3">
-        <v>56</v>
+        <v>75707</v>
       </c>
       <c r="F66" s="3">
-        <v>8</v>
+        <v>4287</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -4119,33 +4119,33 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>126844</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -4154,33 +4154,33 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E68" s="3">
-        <v>12342</v>
+        <v>13154</v>
       </c>
       <c r="F68" s="3">
-        <v>330</v>
+        <v>1256</v>
       </c>
       <c r="G68" s="3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -4189,33 +4189,33 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E69" s="3">
-        <v>656</v>
+        <v>5962</v>
       </c>
       <c r="F69" s="3">
-        <v>30</v>
+        <v>765</v>
       </c>
       <c r="G69" s="3">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -4224,68 +4224,68 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E70" s="3">
-        <v>1556</v>
+        <v>175</v>
       </c>
       <c r="F70" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>4</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>20</v>
-      </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E71" s="3">
-        <v>75707</v>
+        <v>269112</v>
       </c>
       <c r="F71" s="3">
-        <v>4287</v>
+        <v>5243</v>
       </c>
       <c r="G71" s="3">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4294,33 +4294,33 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>628</v>
+        <v>246</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E72" s="3">
-        <v>1542</v>
+        <v>1254</v>
       </c>
       <c r="F72" s="3">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="G72" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4329,33 +4329,33 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E73" s="3">
-        <v>2165</v>
+        <v>56</v>
       </c>
       <c r="F73" s="3">
-        <v>278</v>
+        <v>8</v>
       </c>
       <c r="G73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4364,30 +4364,30 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -4399,33 +4399,33 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E75" s="3">
-        <v>1162</v>
+        <v>226</v>
       </c>
       <c r="F75" s="3">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4434,33 +4434,33 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E76" s="3">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="F76" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G76" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4472,27 +4472,27 @@
         <v>6</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E77" s="3">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F77" s="3">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -4504,33 +4504,33 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="D78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E78" s="3">
-        <v>268</v>
+        <v>1185</v>
       </c>
       <c r="F78" s="3">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="G78" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4539,27 +4539,27 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E79" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -4577,30 +4577,30 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E80" s="3">
-        <v>578</v>
+        <v>1556</v>
       </c>
       <c r="F80" s="3">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G80" s="3">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4609,33 +4609,33 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E81" s="3">
-        <v>1493</v>
+        <v>52</v>
       </c>
       <c r="F81" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4644,33 +4644,33 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
         <v>279</v>
       </c>
       <c r="E82" s="3">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G82" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4699,13 +4699,13 @@
         <v>283</v>
       </c>
       <c r="E83" s="3">
-        <v>3</v>
+        <v>1162</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4728,7 +4728,7 @@
         <v>285</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
         <v>286</v>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4763,19 +4763,19 @@
         <v>288</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
         <v>289</v>
       </c>
       <c r="E85" s="3">
-        <v>113</v>
+        <v>4358</v>
       </c>
       <c r="F85" s="3">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4784,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4798,19 +4798,19 @@
         <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
         <v>292</v>
       </c>
       <c r="E86" s="3">
-        <v>1330</v>
+        <v>995</v>
       </c>
       <c r="F86" s="3">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G86" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4819,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4833,19 +4833,19 @@
         <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
         <v>295</v>
       </c>
       <c r="E87" s="3">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="F87" s="3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4868,19 +4868,19 @@
         <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>298</v>
       </c>
       <c r="E88" s="3">
-        <v>1084</v>
+        <v>30</v>
       </c>
       <c r="F88" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G88" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4903,13 +4903,13 @@
         <v>300</v>
       </c>
       <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
         <v>301</v>
       </c>
-      <c r="D89" t="s">
-        <v>302</v>
-      </c>
       <c r="E89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4927,24 +4927,24 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B90" t="s">
         <v>303</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>304</v>
-      </c>
-      <c r="C90" t="s">
-        <v>161</v>
       </c>
       <c r="D90" t="s">
         <v>305</v>
       </c>
       <c r="E90" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4973,16 +4973,16 @@
         <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="D91" t="s">
         <v>308</v>
       </c>
       <c r="E91" s="3">
-        <v>145</v>
+        <v>653</v>
       </c>
       <c r="F91" s="3">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4994,10 +4994,10 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5008,16 +5008,16 @@
         <v>310</v>
       </c>
       <c r="C92" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="D92" t="s">
         <v>311</v>
       </c>
       <c r="E92" s="3">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="F92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5043,19 +5043,19 @@
         <v>313</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
         <v>314</v>
       </c>
       <c r="E93" s="3">
-        <v>357</v>
+        <v>11</v>
       </c>
       <c r="F93" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5078,19 +5078,19 @@
         <v>316</v>
       </c>
       <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" t="s">
         <v>317</v>
       </c>
-      <c r="D94" t="s">
-        <v>318</v>
-      </c>
       <c r="E94" s="3">
-        <v>269112</v>
+        <v>104</v>
       </c>
       <c r="F94" s="3">
-        <v>5243</v>
+        <v>9</v>
       </c>
       <c r="G94" s="3">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -5099,33 +5099,33 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B95" t="s">
         <v>319</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" t="s">
         <v>320</v>
       </c>
-      <c r="C95" t="s">
-        <v>154</v>
-      </c>
-      <c r="D95" t="s">
-        <v>321</v>
-      </c>
       <c r="E95" s="3">
-        <v>1185</v>
+        <v>188</v>
       </c>
       <c r="F95" s="3">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="G95" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -5134,33 +5134,33 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" t="s">
         <v>322</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
         <v>323</v>
       </c>
-      <c r="C96" t="s">
-        <v>187</v>
-      </c>
-      <c r="D96" t="s">
-        <v>324</v>
-      </c>
       <c r="E96" s="3">
-        <v>111</v>
+        <v>106303</v>
       </c>
       <c r="F96" s="3">
-        <v>11</v>
+        <v>4496</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5169,33 +5169,33 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B97" t="s">
         <v>325</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
         <v>326</v>
       </c>
-      <c r="C97" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" t="s">
-        <v>327</v>
-      </c>
       <c r="E97" s="3">
-        <v>0</v>
+        <v>4711</v>
       </c>
       <c r="F97" s="3">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -5204,33 +5204,33 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B98" t="s">
         <v>328</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+      <c r="D98" t="s">
         <v>329</v>
       </c>
-      <c r="C98" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98" t="s">
-        <v>330</v>
-      </c>
       <c r="E98" s="3">
-        <v>5880</v>
+        <v>644</v>
       </c>
       <c r="F98" s="3">
-        <v>594</v>
+        <v>136</v>
       </c>
       <c r="G98" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -5239,33 +5239,33 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B99" t="s">
         <v>331</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>332</v>
-      </c>
-      <c r="C99" t="s">
-        <v>24</v>
       </c>
       <c r="D99" t="s">
         <v>333</v>
       </c>
       <c r="E99" s="3">
-        <v>2959</v>
+        <v>110</v>
       </c>
       <c r="F99" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G99" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5288,16 +5288,16 @@
         <v>335</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E100" s="3">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5312,30 +5312,30 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E101" s="3">
-        <v>1517</v>
+        <v>9</v>
       </c>
       <c r="F101" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5344,33 +5344,33 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E102" s="3">
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5379,33 +5379,33 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E103" s="3">
-        <v>4358</v>
+        <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5414,33 +5414,33 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C104" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E104" s="3">
-        <v>691</v>
+        <v>1080</v>
       </c>
       <c r="F104" s="3">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5449,33 +5449,33 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C105" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="D105" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E105" s="3">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="F105" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5484,33 +5484,33 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E106" s="3">
-        <v>132</v>
+        <v>3021</v>
       </c>
       <c r="F106" s="3">
-        <v>7</v>
+        <v>580</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5519,33 +5519,33 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="L106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D107" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E107" s="3">
-        <v>42</v>
+        <v>1330</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5554,33 +5554,33 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L107" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D108" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E108" s="3">
-        <v>222</v>
+        <v>1517</v>
       </c>
       <c r="F108" s="3">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="G108" s="3">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5589,33 +5589,33 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L108" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>364</v>
       </c>
       <c r="D109" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E109" s="3">
-        <v>5962</v>
+        <v>656</v>
       </c>
       <c r="F109" s="3">
-        <v>765</v>
+        <v>30</v>
       </c>
       <c r="G109" s="3">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5624,33 +5624,33 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B110" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C110" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D110" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E110" s="3">
-        <v>2352</v>
+        <v>94</v>
       </c>
       <c r="F110" s="3">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5659,33 +5659,33 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B111" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E111" s="3">
-        <v>653</v>
+        <v>60</v>
       </c>
       <c r="F111" s="3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5694,33 +5694,33 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L111" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B112" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="D112" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E112" s="3">
-        <v>3021</v>
+        <v>322</v>
       </c>
       <c r="F112" s="3">
-        <v>580</v>
+        <v>16</v>
       </c>
       <c r="G112" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5729,33 +5729,33 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B113" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C113" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E113" s="3">
-        <v>11977</v>
+        <v>4508</v>
       </c>
       <c r="F113" s="3">
-        <v>324</v>
+        <v>446</v>
       </c>
       <c r="G113" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5764,33 +5764,33 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L113" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B114" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E114" s="3">
-        <v>1386</v>
+        <v>111</v>
       </c>
       <c r="F114" s="3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G114" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5799,33 +5799,33 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="D115" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E115" s="3">
-        <v>43</v>
+        <v>1663</v>
       </c>
       <c r="F115" s="3">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5834,33 +5834,33 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L115" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E116" s="3">
-        <v>5083</v>
+        <v>7772</v>
       </c>
       <c r="F116" s="3">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="G116" s="3">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5869,33 +5869,33 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L116" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E117" s="3">
-        <v>1803</v>
+        <v>152</v>
       </c>
       <c r="F117" s="3">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G117" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5904,33 +5904,33 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L117" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E118" s="3">
-        <v>2848</v>
+        <v>5880</v>
       </c>
       <c r="F118" s="3">
-        <v>523</v>
+        <v>594</v>
       </c>
       <c r="G118" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -5939,27 +5939,27 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L118" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B119" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C119" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D119" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E119" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -5977,30 +5977,30 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D120" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E120" s="3">
-        <v>6</v>
+        <v>11977</v>
       </c>
       <c r="F120" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H120" s="3">
         <v>0</v>
@@ -6009,33 +6009,33 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L120" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B121" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="D121" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E121" s="3">
-        <v>12004</v>
+        <v>1274</v>
       </c>
       <c r="F121" s="3">
-        <v>691</v>
+        <v>128</v>
       </c>
       <c r="G121" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -6044,33 +6044,33 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="L121" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B122" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="D122" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E122" s="3">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="F122" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G122" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -6079,33 +6079,33 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L122" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E123" s="3">
-        <v>4711</v>
+        <v>6</v>
       </c>
       <c r="F123" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G123" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H123" s="3">
         <v>0</v>
@@ -6114,33 +6114,33 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C124" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="D124" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E124" s="3">
-        <v>7772</v>
+        <v>32</v>
       </c>
       <c r="F124" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G124" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H124" s="3">
         <v>0</v>
@@ -6149,33 +6149,33 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B125" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D125" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E125" s="3">
-        <v>5</v>
+        <v>12004</v>
       </c>
       <c r="F125" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="G125" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -6184,68 +6184,68 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="L125" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B126" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C126" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D126" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E126" s="3">
-        <v>1080</v>
+        <v>112</v>
       </c>
       <c r="F126" s="3">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
         <v>2</v>
       </c>
-      <c r="H126" s="3">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>9</v>
-      </c>
       <c r="L126" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="D127" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E127" s="3">
-        <v>366</v>
+        <v>578</v>
       </c>
       <c r="F127" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H127" s="3">
         <v>0</v>
@@ -6257,30 +6257,30 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B128" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E128" s="3">
-        <v>641</v>
+        <v>2</v>
       </c>
       <c r="F128" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" s="3">
         <v>0</v>
@@ -6289,33 +6289,33 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E129" s="3">
-        <v>126844</v>
+        <v>8</v>
       </c>
       <c r="F129" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G129" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -6324,33 +6324,33 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B130" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C130" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E130" s="3">
-        <v>1254</v>
+        <v>1542</v>
       </c>
       <c r="F130" s="3">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="G130" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
@@ -6359,33 +6359,33 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L130" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C131" t="s">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E131" s="3">
-        <v>5563</v>
+        <v>641</v>
       </c>
       <c r="F131" s="3">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="G131" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H131" s="3">
         <v>0</v>
@@ -6394,33 +6394,33 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L131" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C132" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="D132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E132" s="3">
-        <v>112</v>
+        <v>1803</v>
       </c>
       <c r="F132" s="3">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
@@ -6429,30 +6429,30 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D133" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E133" s="3">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -6464,33 +6464,33 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L133" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B134" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C134" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E134" s="3">
-        <v>106303</v>
+        <v>2959</v>
       </c>
       <c r="F134" s="3">
-        <v>4496</v>
+        <v>38</v>
       </c>
       <c r="G134" s="3">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
@@ -6499,30 +6499,30 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>647</v>
+        <v>3</v>
       </c>
       <c r="L134" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B135" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="D135" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E135" s="3">
-        <v>32</v>
+        <v>2165</v>
       </c>
       <c r="F135" s="3">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="G135" s="3">
         <v>1</v>
@@ -6534,33 +6534,33 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="L135" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B136" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E136" s="3">
-        <v>7431</v>
+        <v>70</v>
       </c>
       <c r="F136" s="3">
-        <v>661</v>
+        <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H136" s="3">
         <v>0</v>
@@ -6569,30 +6569,30 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="L136" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B137" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E137" s="3">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="F137" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -6604,27 +6604,27 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L137" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B138" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E138" s="3">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F138" s="3">
         <v>25</v>
@@ -6639,30 +6639,30 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L138" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B139" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E139" s="3">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F139" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G139" s="3">
         <v>1</v>
@@ -6674,33 +6674,33 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L139" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B140" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="D140" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E140" s="3">
-        <v>116</v>
+        <v>113046</v>
       </c>
       <c r="F140" s="3">
-        <v>14</v>
+        <v>8422</v>
       </c>
       <c r="G140" s="3">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
@@ -6709,34 +6709,34 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="L140" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B141" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E141" s="3">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
         <v>2</v>
       </c>
-      <c r="G141" s="3">
-        <v>0</v>
-      </c>
       <c r="H141" s="3">
         <v>0</v>
       </c>
@@ -6744,33 +6744,33 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L141" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C142" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E142" s="3">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="F142" s="3">
-        <v>136</v>
+        <v>1</v>
       </c>
       <c r="G142" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
@@ -6782,27 +6782,27 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B143" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E143" s="3">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F143" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -6814,33 +6814,33 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B144" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="D144" t="s">
         <v>471</v>
       </c>
       <c r="E144" s="3">
-        <v>1921</v>
+        <v>61</v>
       </c>
       <c r="F144" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G144" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
@@ -6849,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6863,19 +6863,19 @@
         <v>473</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D145" t="s">
         <v>474</v>
       </c>
       <c r="E145" s="3">
-        <v>8</v>
+        <v>12342</v>
       </c>
       <c r="F145" s="3">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
@@ -6884,10 +6884,10 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="L145" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6898,16 +6898,16 @@
         <v>476</v>
       </c>
       <c r="C146" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="D146" t="s">
         <v>477</v>
       </c>
       <c r="E146" s="3">
-        <v>346</v>
+        <v>113</v>
       </c>
       <c r="F146" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
@@ -6919,10 +6919,10 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6933,19 +6933,19 @@
         <v>479</v>
       </c>
       <c r="C147" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
         <v>480</v>
       </c>
       <c r="E147" s="3">
-        <v>732</v>
+        <v>1386</v>
       </c>
       <c r="F147" s="3">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G147" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L147" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6968,19 +6968,19 @@
         <v>482</v>
       </c>
       <c r="C148" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D148" t="s">
         <v>483</v>
       </c>
       <c r="E148" s="3">
-        <v>1372</v>
+        <v>7431</v>
       </c>
       <c r="F148" s="3">
-        <v>172</v>
+        <v>661</v>
       </c>
       <c r="G148" s="3">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
@@ -6989,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L148" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>140702</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>244</v>
       </c>
       <c r="B3">
         <v>39142</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>33788</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B5">
         <v>33684</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>23400</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>8426</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>5439</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="B9">
         <v>4833</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B10">
         <v>4322</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="B11">
         <v>3837</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>3731</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B13">
         <v>1861</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="B14">
         <v>807</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>715</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>259</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>443</v>
       </c>
       <c r="B17">
         <v>165</v>
@@ -7298,7 +7298,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B18">
         <v>126</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>71</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B20">
         <v>67</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>57</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>304</v>
       </c>
       <c r="B23">
         <v>7</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>470</v>
+        <v>219</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>332</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7394,7 +7394,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B30">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,100 +68,307 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
   </si>
   <si>
     <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
   </si>
   <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
     <t>2019-12-20T08:16:05.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
   </si>
   <si>
     <t>Women in Finance // Le Top Job de Guiraude Lame</t>
   </si>
   <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
     <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
@@ -173,25 +380,25 @@
     <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
@@ -203,138 +410,6 @@
     <t>2019-11-08T13:50:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
   </si>
   <si>
@@ -344,79 +419,565 @@
     <t>2014-12-01T23:30:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
@@ -428,13 +989,43 @@
     <t>2019-12-19T03:07:38.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
@@ -449,34 +1040,31 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
@@ -485,265 +1073,43 @@
     <t>The Village | Crackopolis - ARTE Radio Podcast</t>
   </si>
   <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
     <t>2019-12-19T16:45:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
@@ -755,16 +1121,55 @@
     <t>2019-12-26T22:08:10.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
@@ -776,366 +1181,6 @@
     <t>2019-12-27T06:32:48.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
   </si>
   <si>
@@ -1143,51 +1188,6 @@
   </si>
   <si>
     <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1649,19 +1649,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="3">
-        <v>170</v>
+        <v>62509</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>4841</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1670,45 +1670,45 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>526</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3">
+        <v>511312</v>
+      </c>
+      <c r="F5" s="3">
+        <v>15167</v>
+      </c>
+      <c r="G5" s="3">
+        <v>402</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>201</v>
+      </c>
+      <c r="L5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3484</v>
-      </c>
-      <c r="F5" s="3">
-        <v>224</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1725,13 +1725,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>222595</v>
+        <v>74953</v>
       </c>
       <c r="F6" s="3">
-        <v>9022</v>
+        <v>1016</v>
       </c>
       <c r="G6" s="3">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1740,33 +1740,33 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>130</v>
+        <v>212</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" s="3">
-        <v>18665</v>
+        <v>3484</v>
       </c>
       <c r="F7" s="3">
-        <v>659</v>
+        <v>224</v>
       </c>
       <c r="G7" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1775,33 +1775,33 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
       <c r="E8" s="3">
-        <v>46</v>
+        <v>24890</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1321</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1810,33 +1810,33 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="3">
-        <v>8968</v>
+        <v>4640</v>
       </c>
       <c r="F9" s="3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1845,33 +1845,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" s="3">
-        <v>472979</v>
+        <v>8644</v>
       </c>
       <c r="F10" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1880,33 +1880,33 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" s="3">
-        <v>74953</v>
+        <v>472979</v>
       </c>
       <c r="F11" s="3">
-        <v>1016</v>
+        <v>20185</v>
       </c>
       <c r="G11" s="3">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1915,33 +1915,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
       <c r="E12" s="3">
-        <v>52652</v>
+        <v>4183126</v>
       </c>
       <c r="F12" s="3">
-        <v>7833</v>
+        <v>49430</v>
       </c>
       <c r="G12" s="3">
-        <v>85</v>
+        <v>5701</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1950,68 +1950,68 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>346</v>
+        <v>1196</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" s="3">
+        <v>23702</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3315</v>
+      </c>
+      <c r="G13" s="3">
+        <v>72</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>54</v>
       </c>
-      <c r="E13" s="3">
-        <v>2883</v>
-      </c>
-      <c r="F13" s="3">
-        <v>42</v>
-      </c>
-      <c r="G13" s="3">
-        <v>6</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="3">
-        <v>41</v>
+        <v>25592</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>221</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2020,33 +2020,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="3">
-        <v>87</v>
+        <v>69498</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2055,33 +2055,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" s="3">
-        <v>62509</v>
+        <v>222595</v>
       </c>
       <c r="F16" s="3">
-        <v>4841</v>
+        <v>9022</v>
       </c>
       <c r="G16" s="3">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2090,33 +2090,33 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>526</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="3">
-        <v>25592</v>
+        <v>617</v>
       </c>
       <c r="F17" s="3">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2125,33 +2125,33 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" s="3">
-        <v>24890</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3">
-        <v>1321</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2160,33 +2160,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="3">
-        <v>23702</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3">
-        <v>3315</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2209,16 +2209,16 @@
         <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="3">
-        <v>27</v>
+        <v>428</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2250,13 +2250,13 @@
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>2078</v>
+        <v>41</v>
       </c>
       <c r="F21" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2279,19 +2279,19 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="3">
-        <v>3080</v>
+        <v>844</v>
       </c>
       <c r="F22" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2314,7 +2314,7 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
@@ -2338,7 +2338,7 @@
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2349,19 +2349,19 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="3">
-        <v>2053</v>
+        <v>18665</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2370,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2384,19 +2384,19 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
         <v>92</v>
       </c>
       <c r="E25" s="3">
-        <v>617</v>
+        <v>8968</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2419,19 +2419,19 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>95</v>
       </c>
       <c r="E26" s="3">
-        <v>844</v>
+        <v>3080</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2440,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2454,19 +2454,19 @@
         <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3">
-        <v>8644</v>
+        <v>1237</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2475,33 +2475,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3">
-        <v>9999</v>
+        <v>13867</v>
       </c>
       <c r="F28" s="3">
-        <v>357</v>
+        <v>934</v>
       </c>
       <c r="G28" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2524,19 +2524,19 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3">
-        <v>1237</v>
+        <v>4759</v>
       </c>
       <c r="F29" s="3">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="G29" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2559,31 +2559,31 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="3">
-        <v>23164</v>
+        <v>170</v>
       </c>
       <c r="F30" s="3">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>8</v>
       </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>4</v>
-      </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2594,13 +2594,13 @@
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="3">
-        <v>428</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2629,19 +2629,19 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>13867</v>
+        <v>2883</v>
       </c>
       <c r="F32" s="3">
-        <v>934</v>
+        <v>42</v>
       </c>
       <c r="G32" s="3">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2664,16 +2664,16 @@
         <v>116</v>
       </c>
       <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
       <c r="E33" s="3">
-        <v>88</v>
+        <v>2053</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2688,30 +2688,30 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
         <v>120</v>
       </c>
-      <c r="C34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" t="s">
-        <v>121</v>
-      </c>
       <c r="E34" s="3">
-        <v>511312</v>
+        <v>52652</v>
       </c>
       <c r="F34" s="3">
-        <v>15167</v>
+        <v>7833</v>
       </c>
       <c r="G34" s="3">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2720,33 +2720,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="L34" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" t="s">
         <v>122</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>123</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>4183126</v>
+        <v>9999</v>
       </c>
       <c r="F35" s="3">
-        <v>49430</v>
+        <v>357</v>
       </c>
       <c r="G35" s="3">
-        <v>5701</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>1196</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2769,19 +2769,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>69498</v>
+        <v>2078</v>
       </c>
       <c r="F36" s="3">
-        <v>1189</v>
+        <v>44</v>
       </c>
       <c r="G36" s="3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2804,13 +2804,13 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>4640</v>
+        <v>87</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2839,19 +2839,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>4759</v>
+        <v>23164</v>
       </c>
       <c r="F38" s="3">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G38" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2874,19 +2874,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3">
-        <v>1803</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2895,33 +2895,33 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>94</v>
+        <v>113046</v>
       </c>
       <c r="F40" s="3">
-        <v>6</v>
+        <v>8422</v>
       </c>
       <c r="G40" s="3">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -2930,33 +2930,33 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>143</v>
       </c>
       <c r="E41" s="3">
-        <v>656</v>
+        <v>42</v>
       </c>
       <c r="F41" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2979,19 +2979,19 @@
         <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>146</v>
       </c>
       <c r="E42" s="3">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="F42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3014,19 +3014,19 @@
         <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
         <v>149</v>
       </c>
       <c r="E43" s="3">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3055,13 +3055,13 @@
         <v>153</v>
       </c>
       <c r="E44" s="3">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="F44" s="3">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G44" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3084,19 +3084,19 @@
         <v>155</v>
       </c>
       <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
         <v>156</v>
       </c>
-      <c r="D45" t="s">
-        <v>157</v>
-      </c>
       <c r="E45" s="3">
-        <v>691</v>
+        <v>94</v>
       </c>
       <c r="F45" s="3">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3105,33 +3105,33 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
         <v>158</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
         <v>159</v>
       </c>
-      <c r="C46" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" t="s">
-        <v>160</v>
-      </c>
       <c r="E46" s="3">
-        <v>2352</v>
+        <v>322</v>
       </c>
       <c r="F46" s="3">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3140,27 +3140,27 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>162</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
       </c>
       <c r="D47" t="s">
         <v>163</v>
       </c>
       <c r="E47" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3178,30 +3178,30 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3">
-        <v>1517</v>
+        <v>8</v>
       </c>
       <c r="F48" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3210,30 +3210,30 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E49" s="3">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -3248,30 +3248,30 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E50" s="3">
-        <v>995</v>
+        <v>578</v>
       </c>
       <c r="F50" s="3">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="G50" s="3">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3280,33 +3280,33 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E51" s="3">
-        <v>1185</v>
+        <v>1593</v>
       </c>
       <c r="F51" s="3">
-        <v>84</v>
+        <v>331</v>
       </c>
       <c r="G51" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3315,30 +3315,30 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E52" s="3">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3350,33 +3350,33 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
-        <v>4508</v>
+        <v>75707</v>
       </c>
       <c r="F53" s="3">
-        <v>446</v>
+        <v>4287</v>
       </c>
       <c r="G53" s="3">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3385,27 +3385,27 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>24</v>
+        <v>628</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3423,30 +3423,30 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E55" s="3">
-        <v>126844</v>
+        <v>188</v>
       </c>
       <c r="F55" s="3">
-        <v>8977</v>
+        <v>10</v>
       </c>
       <c r="G55" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3455,33 +3455,33 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
         <v>195</v>
       </c>
       <c r="E56" s="3">
-        <v>7431</v>
+        <v>653</v>
       </c>
       <c r="F56" s="3">
-        <v>661</v>
+        <v>102</v>
       </c>
       <c r="G56" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3504,10 +3504,10 @@
         <v>197</v>
       </c>
       <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
         <v>198</v>
-      </c>
-      <c r="D57" t="s">
-        <v>199</v>
       </c>
       <c r="E57" s="3">
         <v>61</v>
@@ -3528,30 +3528,30 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
         <v>200</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" t="s">
         <v>201</v>
       </c>
-      <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" t="s">
-        <v>202</v>
-      </c>
       <c r="E58" s="3">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3560,33 +3560,33 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
         <v>203</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>178</v>
+      </c>
+      <c r="D59" t="s">
         <v>204</v>
       </c>
-      <c r="C59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" t="s">
-        <v>205</v>
-      </c>
       <c r="E59" s="3">
-        <v>1593</v>
+        <v>2848</v>
       </c>
       <c r="F59" s="3">
-        <v>331</v>
+        <v>523</v>
       </c>
       <c r="G59" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3598,27 +3598,27 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" t="s">
         <v>206</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>207</v>
-      </c>
-      <c r="C60" t="s">
-        <v>175</v>
       </c>
       <c r="D60" t="s">
         <v>208</v>
       </c>
       <c r="E60" s="3">
-        <v>641</v>
+        <v>2165</v>
       </c>
       <c r="F60" s="3">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="G60" s="3">
         <v>1</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3644,19 +3644,19 @@
         <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
         <v>211</v>
       </c>
       <c r="E61" s="3">
-        <v>3021</v>
+        <v>1493</v>
       </c>
       <c r="F61" s="3">
-        <v>580</v>
+        <v>115</v>
       </c>
       <c r="G61" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3679,19 +3679,19 @@
         <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
         <v>214</v>
       </c>
       <c r="E62" s="3">
-        <v>653</v>
+        <v>1517</v>
       </c>
       <c r="F62" s="3">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3714,19 +3714,19 @@
         <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
         <v>217</v>
       </c>
       <c r="E63" s="3">
-        <v>1663</v>
+        <v>32</v>
       </c>
       <c r="F63" s="3">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3749,19 +3749,19 @@
         <v>219</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
         <v>220</v>
       </c>
       <c r="E64" s="3">
-        <v>322</v>
+        <v>1663</v>
       </c>
       <c r="F64" s="3">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="G64" s="3">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3784,19 +3784,19 @@
         <v>222</v>
       </c>
       <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
         <v>223</v>
       </c>
-      <c r="D65" t="s">
-        <v>224</v>
-      </c>
       <c r="E65" s="3">
-        <v>226</v>
+        <v>2959</v>
       </c>
       <c r="F65" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -3805,33 +3805,33 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" t="s">
         <v>225</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" t="s">
         <v>226</v>
       </c>
-      <c r="C66" t="s">
-        <v>175</v>
-      </c>
-      <c r="D66" t="s">
-        <v>227</v>
-      </c>
       <c r="E66" s="3">
-        <v>1080</v>
+        <v>357</v>
       </c>
       <c r="F66" s="3">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="G66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -3840,33 +3840,33 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" t="s">
         <v>228</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
         <v>229</v>
       </c>
-      <c r="C67" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>230</v>
-      </c>
       <c r="E67" s="3">
-        <v>52</v>
+        <v>4711</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -3875,33 +3875,33 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" t="s">
         <v>231</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>232</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>233</v>
       </c>
       <c r="E68" s="3">
-        <v>5880</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G68" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3924,19 +3924,19 @@
         <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D69" t="s">
         <v>236</v>
       </c>
       <c r="E69" s="3">
-        <v>30</v>
+        <v>7431</v>
       </c>
       <c r="F69" s="3">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3959,19 +3959,19 @@
         <v>238</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="D70" t="s">
         <v>239</v>
       </c>
       <c r="E70" s="3">
-        <v>1274</v>
+        <v>52</v>
       </c>
       <c r="F70" s="3">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3994,19 +3994,19 @@
         <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D71" t="s">
         <v>242</v>
       </c>
       <c r="E71" s="3">
-        <v>346</v>
+        <v>1386</v>
       </c>
       <c r="F71" s="3">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4029,19 +4029,19 @@
         <v>244</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
         <v>245</v>
       </c>
       <c r="E72" s="3">
-        <v>175</v>
+        <v>12342</v>
       </c>
       <c r="F72" s="3">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4070,13 +4070,13 @@
         <v>249</v>
       </c>
       <c r="E73" s="3">
-        <v>1921</v>
+        <v>3</v>
       </c>
       <c r="F73" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4099,19 +4099,19 @@
         <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
         <v>252</v>
       </c>
       <c r="E74" s="3">
-        <v>1556</v>
+        <v>691</v>
       </c>
       <c r="F74" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="G74" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4134,19 +4134,19 @@
         <v>254</v>
       </c>
       <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
         <v>255</v>
       </c>
-      <c r="D75" t="s">
-        <v>256</v>
-      </c>
       <c r="E75" s="3">
-        <v>110</v>
+        <v>5962</v>
       </c>
       <c r="F75" s="3">
-        <v>2</v>
+        <v>765</v>
       </c>
       <c r="G75" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4155,30 +4155,30 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B76" t="s">
         <v>257</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
         <v>258</v>
       </c>
-      <c r="C76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" t="s">
-        <v>259</v>
-      </c>
       <c r="E76" s="3">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4190,33 +4190,33 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B77" t="s">
         <v>260</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" t="s">
         <v>261</v>
       </c>
-      <c r="C77" t="s">
-        <v>101</v>
-      </c>
-      <c r="D77" t="s">
-        <v>262</v>
-      </c>
       <c r="E77" s="3">
-        <v>11977</v>
+        <v>13154</v>
       </c>
       <c r="F77" s="3">
-        <v>324</v>
+        <v>1256</v>
       </c>
       <c r="G77" s="3">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4225,33 +4225,33 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B78" t="s">
         <v>263</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
         <v>264</v>
       </c>
-      <c r="C78" t="s">
-        <v>186</v>
-      </c>
-      <c r="D78" t="s">
-        <v>265</v>
-      </c>
       <c r="E78" s="3">
-        <v>0</v>
+        <v>5880</v>
       </c>
       <c r="F78" s="3">
-        <v>1</v>
+        <v>594</v>
       </c>
       <c r="G78" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4260,33 +4260,33 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B79" t="s">
         <v>266</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
         <v>267</v>
       </c>
-      <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" t="s">
-        <v>268</v>
-      </c>
       <c r="E79" s="3">
-        <v>1330</v>
+        <v>0</v>
       </c>
       <c r="F79" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G79" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4295,33 +4295,33 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
         <v>269</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" t="s">
         <v>270</v>
       </c>
-      <c r="C80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" t="s">
-        <v>271</v>
-      </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>1542</v>
       </c>
       <c r="F80" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4330,34 +4330,34 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" t="s">
         <v>272</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>273</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>274</v>
       </c>
-      <c r="D81" t="s">
-        <v>275</v>
-      </c>
       <c r="E81" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F81" s="3">
+        <v>64</v>
+      </c>
+      <c r="G81" s="3">
         <v>2</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -4365,33 +4365,33 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" t="s">
         <v>276</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
         <v>277</v>
       </c>
-      <c r="C82" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" t="s">
-        <v>278</v>
-      </c>
       <c r="E82" s="3">
-        <v>619</v>
+        <v>30</v>
       </c>
       <c r="F82" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G82" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4400,33 +4400,33 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" t="s">
         <v>279</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" t="s">
         <v>280</v>
       </c>
-      <c r="C83" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" t="s">
-        <v>281</v>
-      </c>
       <c r="E83" s="3">
-        <v>42</v>
+        <v>1330</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4435,33 +4435,33 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" t="s">
         <v>282</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
         <v>283</v>
       </c>
-      <c r="C84" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" t="s">
-        <v>284</v>
-      </c>
       <c r="E84" s="3">
-        <v>12342</v>
+        <v>995</v>
       </c>
       <c r="F84" s="3">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="G84" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4470,33 +4470,33 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" t="s">
         <v>285</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85" t="s">
         <v>286</v>
       </c>
-      <c r="C85" t="s">
-        <v>274</v>
-      </c>
-      <c r="D85" t="s">
-        <v>287</v>
-      </c>
       <c r="E85" s="3">
-        <v>5</v>
+        <v>4508</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4505,33 +4505,33 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" t="s">
         <v>288</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D86" t="s">
         <v>289</v>
       </c>
-      <c r="C86" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" t="s">
-        <v>290</v>
-      </c>
       <c r="E86" s="3">
-        <v>5083</v>
+        <v>7772</v>
       </c>
       <c r="F86" s="3">
-        <v>594</v>
+        <v>239</v>
       </c>
       <c r="G86" s="3">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4540,33 +4540,33 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" t="s">
         <v>291</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
         <v>292</v>
       </c>
-      <c r="C87" t="s">
-        <v>186</v>
-      </c>
-      <c r="D87" t="s">
-        <v>293</v>
-      </c>
       <c r="E87" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F87" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G87" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4575,33 +4575,33 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" t="s">
         <v>294</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" t="s">
         <v>295</v>
       </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>296</v>
-      </c>
       <c r="E88" s="3">
-        <v>75707</v>
+        <v>1254</v>
       </c>
       <c r="F88" s="3">
-        <v>4287</v>
+        <v>138</v>
       </c>
       <c r="G88" s="3">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4610,33 +4610,33 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>628</v>
+        <v>12</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" t="s">
         <v>297</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
         <v>298</v>
       </c>
-      <c r="C89" t="s">
-        <v>156</v>
-      </c>
-      <c r="D89" t="s">
-        <v>299</v>
-      </c>
       <c r="E89" s="3">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="F89" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4645,33 +4645,33 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" t="s">
         <v>300</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
         <v>301</v>
       </c>
-      <c r="C90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" t="s">
-        <v>302</v>
-      </c>
       <c r="E90" s="3">
-        <v>2848</v>
+        <v>1274</v>
       </c>
       <c r="F90" s="3">
-        <v>523</v>
+        <v>128</v>
       </c>
       <c r="G90" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4680,33 +4680,33 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" t="s">
         <v>303</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" t="s">
         <v>304</v>
       </c>
-      <c r="C91" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" t="s">
-        <v>305</v>
-      </c>
       <c r="E91" s="3">
-        <v>5962</v>
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4715,33 +4715,33 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92" t="s">
         <v>306</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" t="s">
         <v>307</v>
       </c>
-      <c r="C92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" t="s">
-        <v>308</v>
-      </c>
       <c r="E92" s="3">
-        <v>4358</v>
+        <v>126844</v>
       </c>
       <c r="F92" s="3">
-        <v>230</v>
+        <v>8977</v>
       </c>
       <c r="G92" s="3">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -4750,33 +4750,33 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" t="s">
         <v>309</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>123</v>
+      </c>
+      <c r="D93" t="s">
         <v>310</v>
       </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" t="s">
-        <v>311</v>
-      </c>
       <c r="E93" s="3">
-        <v>7772</v>
+        <v>2352</v>
       </c>
       <c r="F93" s="3">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G93" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4785,33 +4785,33 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" t="s">
         <v>312</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D94" t="s">
         <v>313</v>
       </c>
-      <c r="C94" t="s">
-        <v>28</v>
-      </c>
-      <c r="D94" t="s">
-        <v>314</v>
-      </c>
       <c r="E94" s="3">
-        <v>113046</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>8422</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4820,30 +4820,30 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" t="s">
         <v>315</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>316</v>
-      </c>
-      <c r="C95" t="s">
-        <v>198</v>
       </c>
       <c r="D95" t="s">
         <v>317</v>
       </c>
       <c r="E95" s="3">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="F95" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4869,13 +4869,13 @@
         <v>319</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="D96" t="s">
         <v>320</v>
       </c>
       <c r="E96" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4904,19 +4904,19 @@
         <v>322</v>
       </c>
       <c r="C97" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
         <v>323</v>
       </c>
       <c r="E97" s="3">
-        <v>0</v>
+        <v>1803</v>
       </c>
       <c r="F97" s="3">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G97" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -4925,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4939,19 +4939,19 @@
         <v>325</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="D98" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="3">
-        <v>13154</v>
+        <v>1080</v>
       </c>
       <c r="F98" s="3">
-        <v>1256</v>
+        <v>101</v>
       </c>
       <c r="G98" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4974,19 +4974,19 @@
         <v>328</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="D99" t="s">
         <v>329</v>
       </c>
       <c r="E99" s="3">
-        <v>32</v>
+        <v>3021</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5009,19 +5009,19 @@
         <v>331</v>
       </c>
       <c r="C100" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" t="s">
         <v>332</v>
       </c>
-      <c r="D100" t="s">
-        <v>333</v>
-      </c>
       <c r="E100" s="3">
-        <v>1</v>
+        <v>1185</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5030,33 +5030,33 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" t="s">
         <v>334</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>335</v>
-      </c>
-      <c r="C101" t="s">
-        <v>223</v>
       </c>
       <c r="D101" t="s">
         <v>336</v>
       </c>
       <c r="E101" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="F101" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5079,19 +5079,19 @@
         <v>338</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E102" s="3">
-        <v>6</v>
+        <v>656</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5100,33 +5100,33 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
         <v>343</v>
       </c>
       <c r="E103" s="3">
-        <v>5563</v>
+        <v>1084</v>
       </c>
       <c r="F103" s="3">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="G103" s="3">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5135,10 +5135,10 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5149,19 +5149,19 @@
         <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D104" t="s">
         <v>346</v>
       </c>
       <c r="E104" s="3">
-        <v>644</v>
+        <v>6</v>
       </c>
       <c r="F104" s="3">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5184,19 +5184,19 @@
         <v>348</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D105" t="s">
         <v>349</v>
       </c>
       <c r="E105" s="3">
-        <v>106303</v>
+        <v>43</v>
       </c>
       <c r="F105" s="3">
-        <v>4496</v>
+        <v>6</v>
       </c>
       <c r="G105" s="3">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5205,10 +5205,10 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>1697</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5219,19 +5219,19 @@
         <v>351</v>
       </c>
       <c r="C106" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" t="s">
         <v>352</v>
       </c>
-      <c r="D106" t="s">
-        <v>353</v>
-      </c>
       <c r="E106" s="3">
-        <v>2165</v>
+        <v>691</v>
       </c>
       <c r="F106" s="3">
-        <v>278</v>
+        <v>13</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5240,33 +5240,33 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" t="s">
         <v>354</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
         <v>355</v>
       </c>
-      <c r="C107" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" t="s">
-        <v>356</v>
-      </c>
       <c r="E107" s="3">
-        <v>285</v>
+        <v>106303</v>
       </c>
       <c r="F107" s="3">
-        <v>1</v>
+        <v>4496</v>
       </c>
       <c r="G107" s="3">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5275,33 +5275,33 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>6</v>
+        <v>1697</v>
       </c>
       <c r="L107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" t="s">
         <v>357</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
         <v>358</v>
       </c>
-      <c r="C108" t="s">
-        <v>41</v>
-      </c>
-      <c r="D108" t="s">
-        <v>359</v>
-      </c>
       <c r="E108" s="3">
-        <v>2959</v>
+        <v>4358</v>
       </c>
       <c r="F108" s="3">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="G108" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5310,33 +5310,33 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B109" t="s">
         <v>360</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" t="s">
         <v>361</v>
       </c>
-      <c r="C109" t="s">
-        <v>362</v>
-      </c>
-      <c r="D109" t="s">
-        <v>363</v>
-      </c>
       <c r="E109" s="3">
-        <v>269112</v>
+        <v>5083</v>
       </c>
       <c r="F109" s="3">
-        <v>5243</v>
+        <v>594</v>
       </c>
       <c r="G109" s="3">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5345,33 +5345,33 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B110" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" t="s">
         <v>364</v>
       </c>
-      <c r="B110" t="s">
-        <v>365</v>
-      </c>
-      <c r="C110" t="s">
-        <v>152</v>
-      </c>
-      <c r="D110" t="s">
-        <v>366</v>
-      </c>
       <c r="E110" s="3">
-        <v>578</v>
+        <v>11977</v>
       </c>
       <c r="F110" s="3">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="G110" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5380,33 +5380,33 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B111" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" t="s">
         <v>367</v>
       </c>
-      <c r="B111" t="s">
-        <v>368</v>
-      </c>
-      <c r="C111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D111" t="s">
-        <v>369</v>
-      </c>
       <c r="E111" s="3">
-        <v>1084</v>
+        <v>175</v>
       </c>
       <c r="F111" s="3">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="G111" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5415,33 +5415,33 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B112" t="s">
+        <v>369</v>
+      </c>
+      <c r="C112" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" t="s">
         <v>370</v>
       </c>
-      <c r="B112" t="s">
-        <v>371</v>
-      </c>
-      <c r="C112" t="s">
-        <v>186</v>
-      </c>
-      <c r="D112" t="s">
-        <v>372</v>
-      </c>
       <c r="E112" s="3">
-        <v>188</v>
+        <v>644</v>
       </c>
       <c r="F112" s="3">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5453,31 +5453,31 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B113" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
         <v>373</v>
       </c>
-      <c r="B113" t="s">
-        <v>374</v>
-      </c>
-      <c r="C113" t="s">
-        <v>332</v>
-      </c>
-      <c r="D113" t="s">
-        <v>375</v>
-      </c>
       <c r="E113" s="3">
+        <v>285</v>
+      </c>
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
         <v>2</v>
       </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <v>0</v>
-      </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
@@ -5485,33 +5485,33 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" t="s">
         <v>376</v>
       </c>
-      <c r="B114" t="s">
+      <c r="D114" t="s">
         <v>377</v>
       </c>
-      <c r="C114" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" t="s">
-        <v>378</v>
-      </c>
       <c r="E114" s="3">
-        <v>32</v>
+        <v>269112</v>
       </c>
       <c r="F114" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5520,33 +5520,33 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="L114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" t="s">
         <v>379</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>380</v>
-      </c>
-      <c r="C115" t="s">
-        <v>156</v>
       </c>
       <c r="D115" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="3">
-        <v>1386</v>
+        <v>5563</v>
       </c>
       <c r="F115" s="3">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="G115" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5569,19 +5569,19 @@
         <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>1254</v>
+        <v>32</v>
       </c>
       <c r="F116" s="3">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5604,19 +5604,19 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="3">
-        <v>4711</v>
+        <v>1556</v>
       </c>
       <c r="F117" s="3">
-        <v>387</v>
+        <v>100</v>
       </c>
       <c r="G117" s="3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="L117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5639,19 +5639,19 @@
         <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="D118" t="s">
         <v>390</v>
       </c>
       <c r="E118" s="3">
-        <v>1542</v>
+        <v>2</v>
       </c>
       <c r="F118" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>133942</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="B3">
         <v>36229</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>33069</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>29873</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>22477</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B7">
         <v>7782</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B8">
         <v>5320</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>3753</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>3437</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B11">
         <v>3336</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="B12">
         <v>3059</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>679</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <v>619</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>207</v>
       </c>
       <c r="B16">
         <v>148</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="B17">
         <v>69</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>61</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,6 +68,291 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
   </si>
   <si>
@@ -77,7 +362,52 @@
     <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
@@ -86,337 +416,16 @@
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
@@ -431,6 +440,564 @@
     <t>2019-12-11T11:14:09.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
+  </si>
+  <si>
+    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
+  </si>
+  <si>
+    <t>2019-12-13T20:13:53.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
   </si>
   <si>
@@ -440,52 +1007,142 @@
     <t>2019-12-09T17:00:07.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
@@ -497,64 +1154,22 @@
     <t>2019-12-21T03:07:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
@@ -563,9 +1178,6 @@
     <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
   </si>
   <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
     <t>2019-12-24T09:30:04.000Z</t>
   </si>
   <si>
@@ -576,618 +1188,6 @@
   </si>
   <si>
     <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1649,19 +1649,19 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>62509</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1670,33 +1670,33 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>511312</v>
+        <v>25592</v>
       </c>
       <c r="F5" s="3">
-        <v>15167</v>
+        <v>221</v>
       </c>
       <c r="G5" s="3">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1719,19 +1719,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="3">
-        <v>74953</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1740,24 +1740,24 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="3">
         <v>3484</v>
@@ -1778,30 +1778,30 @@
         <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="3">
-        <v>24890</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
-        <v>1321</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1810,33 +1810,33 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="3">
-        <v>4640</v>
+        <v>4759</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1845,27 +1845,27 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" s="3">
-        <v>8644</v>
+        <v>2053</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -1883,42 +1883,42 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="3">
+        <v>4183126</v>
+      </c>
+      <c r="F11" s="3">
+        <v>49430</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5701</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1196</v>
+      </c>
+      <c r="L11" t="s">
         <v>47</v>
-      </c>
-      <c r="E11" s="3">
-        <v>472979</v>
-      </c>
-      <c r="F11" s="3">
-        <v>20185</v>
-      </c>
-      <c r="G11" s="3">
-        <v>515</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>260</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1929,19 +1929,19 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="3">
-        <v>4183126</v>
+        <v>170</v>
       </c>
       <c r="F12" s="3">
-        <v>49430</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>5701</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1950,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1196</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1964,19 +1964,19 @@
         <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>23702</v>
+        <v>222595</v>
       </c>
       <c r="F13" s="3">
-        <v>3315</v>
+        <v>9022</v>
       </c>
       <c r="G13" s="3">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1985,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1999,19 +1999,19 @@
         <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
-        <v>25592</v>
+        <v>69498</v>
       </c>
       <c r="F14" s="3">
-        <v>221</v>
+        <v>1189</v>
       </c>
       <c r="G14" s="3">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2020,33 +2020,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3">
-        <v>69498</v>
+        <v>9999</v>
       </c>
       <c r="F15" s="3">
-        <v>1189</v>
+        <v>357</v>
       </c>
       <c r="G15" s="3">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2055,33 +2055,33 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3">
-        <v>222595</v>
+        <v>2078</v>
       </c>
       <c r="F16" s="3">
-        <v>9022</v>
+        <v>44</v>
       </c>
       <c r="G16" s="3">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2090,27 +2090,27 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3">
-        <v>617</v>
+        <v>844</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2128,30 +2128,30 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3">
-        <v>27</v>
+        <v>566966</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>18782</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2160,33 +2160,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3">
-        <v>88</v>
+        <v>23164</v>
       </c>
       <c r="F19" s="3">
-        <v>3</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2195,33 +2195,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3">
-        <v>428</v>
+        <v>2883</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2230,30 +2230,30 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>41</v>
+        <v>4640</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2279,19 +2279,19 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="3">
-        <v>844</v>
+        <v>472979</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2314,19 +2314,19 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="3">
-        <v>566966</v>
+        <v>52652</v>
       </c>
       <c r="F23" s="3">
-        <v>18782</v>
+        <v>7833</v>
       </c>
       <c r="G23" s="3">
-        <v>416</v>
+        <v>85</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2349,19 +2349,19 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3">
-        <v>18665</v>
+        <v>41</v>
       </c>
       <c r="F24" s="3">
-        <v>659</v>
+        <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -2370,33 +2370,33 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3">
-        <v>8968</v>
+        <v>3080</v>
       </c>
       <c r="F25" s="3">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="G25" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2405,33 +2405,33 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
-        <v>3080</v>
+        <v>8644</v>
       </c>
       <c r="F26" s="3">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2440,33 +2440,33 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="3">
-        <v>1237</v>
+        <v>428</v>
       </c>
       <c r="F27" s="3">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2475,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2489,19 +2489,19 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>102</v>
       </c>
       <c r="E28" s="3">
-        <v>13867</v>
+        <v>24890</v>
       </c>
       <c r="F28" s="3">
-        <v>934</v>
+        <v>1321</v>
       </c>
       <c r="G28" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2524,19 +2524,19 @@
         <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="3">
-        <v>4759</v>
+        <v>8968</v>
       </c>
       <c r="F29" s="3">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G29" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2559,19 +2559,19 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="3">
-        <v>170</v>
+        <v>13867</v>
       </c>
       <c r="F30" s="3">
-        <v>4</v>
+        <v>934</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>111</v>
       </c>
       <c r="E31" s="3">
-        <v>46</v>
+        <v>23702</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>3315</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2629,19 +2629,19 @@
         <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="3">
-        <v>2883</v>
+        <v>62509</v>
       </c>
       <c r="F32" s="3">
-        <v>42</v>
+        <v>4841</v>
       </c>
       <c r="G32" s="3">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2664,19 +2664,19 @@
         <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>2053</v>
+        <v>18665</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2699,19 +2699,19 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>52652</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3">
-        <v>7833</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2720,33 +2720,33 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>9999</v>
+        <v>74953</v>
       </c>
       <c r="F35" s="3">
-        <v>357</v>
+        <v>1016</v>
       </c>
       <c r="G35" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2769,19 +2769,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>2078</v>
+        <v>1237</v>
       </c>
       <c r="F36" s="3">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G36" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2804,13 +2804,13 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2839,19 +2839,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>23164</v>
+        <v>511312</v>
       </c>
       <c r="F38" s="3">
-        <v>162</v>
+        <v>15167</v>
       </c>
       <c r="G38" s="3">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2874,19 +2874,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
       <c r="E39" s="3">
-        <v>21</v>
+        <v>1493</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2895,33 +2895,33 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>113046</v>
+        <v>21</v>
       </c>
       <c r="F40" s="3">
-        <v>8422</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2944,16 +2944,16 @@
         <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2968,30 +2968,30 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E42" s="3">
-        <v>9</v>
+        <v>7431</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3000,33 +3000,33 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E43" s="3">
-        <v>60</v>
+        <v>1254</v>
       </c>
       <c r="F43" s="3">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3035,33 +3035,33 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E44" s="3">
-        <v>641</v>
+        <v>5</v>
       </c>
       <c r="F44" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3070,33 +3070,33 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E45" s="3">
-        <v>94</v>
+        <v>1274</v>
       </c>
       <c r="F45" s="3">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3105,33 +3105,33 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="F46" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3140,33 +3140,33 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3178,30 +3178,30 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E48" s="3">
-        <v>8</v>
+        <v>656</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3210,33 +3210,33 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E49" s="3">
-        <v>226</v>
+        <v>578</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3245,33 +3245,33 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E50" s="3">
-        <v>578</v>
+        <v>42</v>
       </c>
       <c r="F50" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3280,33 +3280,33 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E51" s="3">
-        <v>1593</v>
+        <v>43</v>
       </c>
       <c r="F51" s="3">
-        <v>331</v>
+        <v>6</v>
       </c>
       <c r="G51" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3318,30 +3318,30 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3">
-        <v>346</v>
+        <v>11977</v>
       </c>
       <c r="F52" s="3">
-        <v>16</v>
+        <v>324</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3350,33 +3350,33 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E53" s="3">
-        <v>75707</v>
+        <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>4287</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3385,27 +3385,27 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3423,27 +3423,27 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E55" s="3">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="F55" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -3458,30 +3458,30 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E56" s="3">
-        <v>653</v>
+        <v>2165</v>
       </c>
       <c r="F56" s="3">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3490,30 +3490,30 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3525,33 +3525,33 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="F58" s="3">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3563,30 +3563,30 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E59" s="3">
-        <v>2848</v>
+        <v>175</v>
       </c>
       <c r="F59" s="3">
-        <v>523</v>
+        <v>25</v>
       </c>
       <c r="G59" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3595,33 +3595,33 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E60" s="3">
-        <v>2165</v>
+        <v>5880</v>
       </c>
       <c r="F60" s="3">
-        <v>278</v>
+        <v>594</v>
       </c>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3630,33 +3630,33 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E61" s="3">
-        <v>1493</v>
+        <v>2848</v>
       </c>
       <c r="F61" s="3">
-        <v>115</v>
+        <v>523</v>
       </c>
       <c r="G61" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3665,33 +3665,33 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E62" s="3">
-        <v>1517</v>
+        <v>32</v>
       </c>
       <c r="F62" s="3">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3700,27 +3700,27 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E63" s="3">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -3738,30 +3738,30 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E64" s="3">
-        <v>1663</v>
+        <v>641</v>
       </c>
       <c r="F64" s="3">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="G64" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3770,33 +3770,33 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E65" s="3">
-        <v>2959</v>
+        <v>9</v>
       </c>
       <c r="F65" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -3805,33 +3805,33 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E66" s="3">
-        <v>357</v>
+        <v>126844</v>
       </c>
       <c r="F66" s="3">
-        <v>13</v>
+        <v>8977</v>
       </c>
       <c r="G66" s="3">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -3840,33 +3840,33 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E67" s="3">
-        <v>4711</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -3875,33 +3875,33 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
         <v>233</v>
       </c>
       <c r="E68" s="3">
-        <v>2</v>
+        <v>106303</v>
       </c>
       <c r="F68" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1697</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3924,19 +3924,19 @@
         <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E69" s="3">
-        <v>7431</v>
+        <v>1386</v>
       </c>
       <c r="F69" s="3">
-        <v>661</v>
+        <v>47</v>
       </c>
       <c r="G69" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -3945,30 +3945,30 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E70" s="3">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3980,68 +3980,68 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E71" s="3">
-        <v>1386</v>
+        <v>2959</v>
       </c>
       <c r="F71" s="3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G71" s="3">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
         <v>3</v>
       </c>
-      <c r="H71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
       <c r="L71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B72" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E72" s="3">
-        <v>12342</v>
+        <v>1185</v>
       </c>
       <c r="F72" s="3">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="G72" s="3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4050,33 +4050,33 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>184</v>
+        <v>6</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
         <v>249</v>
       </c>
       <c r="E73" s="3">
-        <v>3</v>
+        <v>4508</v>
       </c>
       <c r="F73" s="3">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4099,19 +4099,19 @@
         <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="D74" t="s">
         <v>252</v>
       </c>
       <c r="E74" s="3">
-        <v>691</v>
+        <v>8</v>
       </c>
       <c r="F74" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4134,19 +4134,19 @@
         <v>254</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="D75" t="s">
         <v>255</v>
       </c>
       <c r="E75" s="3">
-        <v>5962</v>
+        <v>2352</v>
       </c>
       <c r="F75" s="3">
-        <v>765</v>
+        <v>89</v>
       </c>
       <c r="G75" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4169,19 +4169,19 @@
         <v>257</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
         <v>258</v>
       </c>
       <c r="E76" s="3">
-        <v>17</v>
+        <v>1084</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4204,19 +4204,19 @@
         <v>260</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="D77" t="s">
         <v>261</v>
       </c>
       <c r="E77" s="3">
-        <v>13154</v>
+        <v>3021</v>
       </c>
       <c r="F77" s="3">
-        <v>1256</v>
+        <v>580</v>
       </c>
       <c r="G77" s="3">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4239,19 +4239,19 @@
         <v>263</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
         <v>264</v>
       </c>
       <c r="E78" s="3">
-        <v>5880</v>
+        <v>644</v>
       </c>
       <c r="F78" s="3">
-        <v>594</v>
+        <v>136</v>
       </c>
       <c r="G78" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4260,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4274,19 +4274,19 @@
         <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
         <v>267</v>
       </c>
       <c r="E79" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="F79" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G79" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4309,7 +4309,7 @@
         <v>269</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
         <v>270</v>
@@ -4333,7 +4333,7 @@
         <v>3</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4344,19 +4344,19 @@
         <v>272</v>
       </c>
       <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
         <v>273</v>
       </c>
-      <c r="D81" t="s">
-        <v>274</v>
-      </c>
       <c r="E81" s="3">
-        <v>1921</v>
+        <v>5083</v>
       </c>
       <c r="F81" s="3">
-        <v>64</v>
+        <v>594</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4365,33 +4365,33 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
         <v>275</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" t="s">
         <v>276</v>
       </c>
-      <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" t="s">
-        <v>277</v>
-      </c>
       <c r="E82" s="3">
-        <v>30</v>
+        <v>1803</v>
       </c>
       <c r="F82" s="3">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G82" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4400,33 +4400,33 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
         <v>278</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
         <v>279</v>
       </c>
-      <c r="C83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" t="s">
-        <v>280</v>
-      </c>
       <c r="E83" s="3">
-        <v>1330</v>
+        <v>995</v>
       </c>
       <c r="F83" s="3">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="G83" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4435,33 +4435,33 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" t="s">
         <v>281</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" t="s">
         <v>282</v>
       </c>
-      <c r="C84" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" t="s">
-        <v>283</v>
-      </c>
       <c r="E84" s="3">
-        <v>995</v>
+        <v>1080</v>
       </c>
       <c r="F84" s="3">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G84" s="3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4470,33 +4470,33 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B85" t="s">
         <v>284</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D85" t="s">
         <v>285</v>
       </c>
-      <c r="C85" t="s">
-        <v>32</v>
-      </c>
-      <c r="D85" t="s">
-        <v>286</v>
-      </c>
       <c r="E85" s="3">
-        <v>4508</v>
+        <v>5962</v>
       </c>
       <c r="F85" s="3">
-        <v>446</v>
+        <v>765</v>
       </c>
       <c r="G85" s="3">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4505,33 +4505,33 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" t="s">
         <v>287</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" t="s">
         <v>288</v>
       </c>
-      <c r="C86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D86" t="s">
-        <v>289</v>
-      </c>
       <c r="E86" s="3">
-        <v>7772</v>
+        <v>94</v>
       </c>
       <c r="F86" s="3">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="G86" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4540,33 +4540,33 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B87" t="s">
         <v>290</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
         <v>291</v>
       </c>
-      <c r="C87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" t="s">
-        <v>292</v>
-      </c>
       <c r="E87" s="3">
-        <v>619</v>
+        <v>4711</v>
       </c>
       <c r="F87" s="3">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="G87" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4575,33 +4575,33 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" t="s">
         <v>293</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" t="s">
         <v>294</v>
       </c>
-      <c r="C88" t="s">
-        <v>174</v>
-      </c>
-      <c r="D88" t="s">
-        <v>295</v>
-      </c>
       <c r="E88" s="3">
-        <v>1254</v>
+        <v>1663</v>
       </c>
       <c r="F88" s="3">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="G88" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4610,30 +4610,30 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" t="s">
         <v>296</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
         <v>297</v>
       </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" t="s">
-        <v>298</v>
-      </c>
       <c r="E89" s="3">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4645,33 +4645,33 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B90" t="s">
         <v>299</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>300</v>
-      </c>
-      <c r="C90" t="s">
-        <v>152</v>
       </c>
       <c r="D90" t="s">
         <v>301</v>
       </c>
       <c r="E90" s="3">
-        <v>1274</v>
+        <v>5563</v>
       </c>
       <c r="F90" s="3">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4680,10 +4680,10 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4694,13 +4694,13 @@
         <v>303</v>
       </c>
       <c r="C91" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
         <v>304</v>
       </c>
       <c r="E91" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4718,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4729,19 +4729,19 @@
         <v>306</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D92" t="s">
         <v>307</v>
       </c>
       <c r="E92" s="3">
-        <v>126844</v>
+        <v>7772</v>
       </c>
       <c r="F92" s="3">
-        <v>8977</v>
+        <v>239</v>
       </c>
       <c r="G92" s="3">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="L92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4764,19 +4764,19 @@
         <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
         <v>310</v>
       </c>
       <c r="E93" s="3">
-        <v>2352</v>
+        <v>285</v>
       </c>
       <c r="F93" s="3">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4799,16 +4799,16 @@
         <v>312</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D94" t="s">
         <v>313</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4834,19 +4834,19 @@
         <v>315</v>
       </c>
       <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
         <v>316</v>
       </c>
-      <c r="D95" t="s">
-        <v>317</v>
-      </c>
       <c r="E95" s="3">
-        <v>110</v>
+        <v>12342</v>
       </c>
       <c r="F95" s="3">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -4855,33 +4855,33 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" t="s">
         <v>318</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
         <v>319</v>
       </c>
-      <c r="C96" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" t="s">
-        <v>320</v>
-      </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4890,33 +4890,33 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" t="s">
         <v>321</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" t="s">
         <v>322</v>
       </c>
-      <c r="C97" t="s">
-        <v>98</v>
-      </c>
-      <c r="D97" t="s">
-        <v>323</v>
-      </c>
       <c r="E97" s="3">
-        <v>1803</v>
+        <v>1517</v>
       </c>
       <c r="F97" s="3">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="G97" s="3">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -4925,33 +4925,33 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" t="s">
         <v>324</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>325</v>
-      </c>
-      <c r="C98" t="s">
-        <v>152</v>
       </c>
       <c r="D98" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="3">
-        <v>1080</v>
+        <v>110</v>
       </c>
       <c r="F98" s="3">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="G98" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4974,19 +4974,19 @@
         <v>328</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
         <v>329</v>
       </c>
       <c r="E99" s="3">
-        <v>3021</v>
+        <v>113046</v>
       </c>
       <c r="F99" s="3">
-        <v>580</v>
+        <v>8422</v>
       </c>
       <c r="G99" s="3">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="L99" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5009,19 +5009,19 @@
         <v>331</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E100" s="3">
-        <v>1185</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5030,30 +5030,30 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="D101" t="s">
         <v>336</v>
       </c>
       <c r="E101" s="3">
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5079,19 +5079,19 @@
         <v>338</v>
       </c>
       <c r="C102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D102" t="s">
         <v>339</v>
       </c>
-      <c r="D102" t="s">
-        <v>340</v>
-      </c>
       <c r="E102" s="3">
-        <v>656</v>
+        <v>1330</v>
       </c>
       <c r="F102" s="3">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="G102" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5100,33 +5100,33 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B103" t="s">
         <v>341</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" t="s">
         <v>342</v>
       </c>
-      <c r="C103" t="s">
-        <v>174</v>
-      </c>
-      <c r="D103" t="s">
-        <v>343</v>
-      </c>
       <c r="E103" s="3">
-        <v>1084</v>
+        <v>32</v>
       </c>
       <c r="F103" s="3">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G103" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5135,33 +5135,33 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B104" t="s">
         <v>344</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" t="s">
         <v>345</v>
       </c>
-      <c r="C104" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" t="s">
-        <v>346</v>
-      </c>
       <c r="E104" s="3">
-        <v>6</v>
+        <v>1556</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5170,33 +5170,33 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" t="s">
         <v>347</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" t="s">
         <v>348</v>
       </c>
-      <c r="C105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D105" t="s">
-        <v>349</v>
-      </c>
       <c r="E105" s="3">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F105" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5208,30 +5208,30 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B106" t="s">
         <v>350</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" t="s">
         <v>351</v>
       </c>
-      <c r="C106" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" t="s">
-        <v>352</v>
-      </c>
       <c r="E106" s="3">
-        <v>691</v>
+        <v>4358</v>
       </c>
       <c r="F106" s="3">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="G106" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5240,33 +5240,33 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L106" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B107" t="s">
         <v>353</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" t="s">
         <v>354</v>
       </c>
-      <c r="C107" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" t="s">
-        <v>355</v>
-      </c>
       <c r="E107" s="3">
-        <v>106303</v>
+        <v>13154</v>
       </c>
       <c r="F107" s="3">
-        <v>4496</v>
+        <v>1256</v>
       </c>
       <c r="G107" s="3">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5275,33 +5275,33 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>1697</v>
+        <v>143</v>
       </c>
       <c r="L107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B108" t="s">
         <v>356</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>357</v>
-      </c>
-      <c r="C108" t="s">
-        <v>32</v>
       </c>
       <c r="D108" t="s">
         <v>358</v>
       </c>
       <c r="E108" s="3">
-        <v>4358</v>
+        <v>1921</v>
       </c>
       <c r="F108" s="3">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="G108" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5324,19 +5324,19 @@
         <v>360</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D109" t="s">
         <v>361</v>
       </c>
       <c r="E109" s="3">
-        <v>5083</v>
+        <v>188</v>
       </c>
       <c r="F109" s="3">
-        <v>594</v>
+        <v>10</v>
       </c>
       <c r="G109" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5359,19 +5359,19 @@
         <v>363</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
         <v>364</v>
       </c>
       <c r="E110" s="3">
-        <v>11977</v>
+        <v>30</v>
       </c>
       <c r="F110" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G110" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5394,19 +5394,19 @@
         <v>366</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D111" t="s">
         <v>367</v>
       </c>
       <c r="E111" s="3">
-        <v>175</v>
+        <v>619</v>
       </c>
       <c r="F111" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G111" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5415,10 +5415,10 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5429,19 +5429,19 @@
         <v>369</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E112" s="3">
-        <v>644</v>
+        <v>269112</v>
       </c>
       <c r="F112" s="3">
-        <v>136</v>
+        <v>5243</v>
       </c>
       <c r="G112" s="3">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5450,33 +5450,33 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L112" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C113" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="D113" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E113" s="3">
-        <v>285</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5485,33 +5485,33 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B114" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E114" s="3">
-        <v>269112</v>
+        <v>322</v>
       </c>
       <c r="F114" s="3">
-        <v>5243</v>
+        <v>16</v>
       </c>
       <c r="G114" s="3">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5520,33 +5520,33 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="L114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C115" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D115" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="3">
-        <v>5563</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="G115" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5569,19 +5569,19 @@
         <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>32</v>
+        <v>653</v>
       </c>
       <c r="F116" s="3">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5590,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5604,19 +5604,19 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="3">
-        <v>1556</v>
+        <v>346</v>
       </c>
       <c r="F117" s="3">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="G117" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5625,10 +5625,10 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5639,19 +5639,19 @@
         <v>389</v>
       </c>
       <c r="C118" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
         <v>390</v>
       </c>
       <c r="E118" s="3">
-        <v>2</v>
+        <v>75707</v>
       </c>
       <c r="F118" s="3">
-        <v>0</v>
+        <v>4287</v>
       </c>
       <c r="G118" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="K118">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="L118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>133942</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B3">
         <v>36229</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>33069</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>29873</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>22477</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B7">
         <v>7782</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>5320</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>3753</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3437</v>
@@ -5883,7 +5883,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B11">
         <v>3336</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="B12">
         <v>3059</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>679</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>619</v>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B16">
         <v>148</v>
@@ -5931,7 +5931,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B17">
         <v>69</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>61</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="389">
   <si>
     <t>URL</t>
   </si>
@@ -68,6 +68,36 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
+  </si>
+  <si>
+    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
+  </si>
+  <si>
+    <t>Romain Colas</t>
+  </si>
+  <si>
+    <t>2017-04-05T13:28:29.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
   </si>
   <si>
@@ -80,7 +110,190 @@
     <t>2019-12-11T11:45:05.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
@@ -89,31 +302,25 @@
     <t>Un rabais sinon rien</t>
   </si>
   <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
     <t>2019-08-31T07:00:00.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
@@ -122,12 +329,60 @@
     <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
   </si>
   <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
     <t>2019-12-17T09:22:48.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
   </si>
   <si>
@@ -137,136 +392,22 @@
     <t>2019-10-11T13:40:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
@@ -278,145 +419,214 @@
     <t>2019-12-19T18:27:32.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
-  </si>
-  <si>
-    <t>Être engagé à vos côtés, c'est aussi vous rendre des comptes - Episode 2</t>
-  </si>
-  <si>
-    <t>Romain Colas</t>
-  </si>
-  <si>
-    <t>2017-04-05T13:28:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
@@ -428,31 +638,322 @@
     <t>2019-12-09T22:08:04.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
@@ -461,55 +962,73 @@
     <t>La détermination doit vaincre les craintes</t>
   </si>
   <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
     <t>2019-12-09T23:25:04.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
@@ -521,6 +1040,78 @@
     <t>2019-12-18T21:49:46.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
   </si>
   <si>
@@ -533,91 +1124,43 @@
     <t>2018-02-12T11:51:48.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
@@ -629,549 +1172,6 @@
     <t>2019-12-28T19:53:21.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8eguZ3ApXcw</t>
-  </si>
-  <si>
-    <t>CRYPTO-MONNAIE.. On En Parle ?</t>
-  </si>
-  <si>
-    <t>2019-12-13T20:13:53.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
   </si>
   <si>
@@ -1179,15 +1179,6 @@
   </si>
   <si>
     <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1548,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L118"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1655,10 +1646,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1690,13 +1681,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>25592</v>
+        <v>511312</v>
       </c>
       <c r="F5" s="3">
-        <v>221</v>
+        <v>15167</v>
       </c>
       <c r="G5" s="3">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1705,27 +1696,27 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
@@ -1748,25 +1739,25 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3">
-        <v>3484</v>
+        <v>87</v>
       </c>
       <c r="F7" s="3">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1775,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>21</v>
@@ -1783,25 +1774,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="3">
-        <v>27</v>
+        <v>9999</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1810,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -1818,25 +1809,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>4759</v>
+        <v>566966</v>
       </c>
       <c r="F9" s="3">
-        <v>129</v>
+        <v>18782</v>
       </c>
       <c r="G9" s="3">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1845,33 +1836,33 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3">
-        <v>2053</v>
+        <v>18665</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1880,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
@@ -1888,25 +1879,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
-        <v>4183126</v>
+        <v>170</v>
       </c>
       <c r="F11" s="3">
-        <v>49430</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3">
-        <v>5701</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1915,33 +1906,33 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1196</v>
+        <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3">
-        <v>170</v>
+        <v>2883</v>
       </c>
       <c r="F12" s="3">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1950,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
@@ -1958,25 +1949,25 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>222595</v>
+        <v>3080</v>
       </c>
       <c r="F13" s="3">
-        <v>9022</v>
+        <v>58</v>
       </c>
       <c r="G13" s="3">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1985,33 +1976,33 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3">
-        <v>69498</v>
+        <v>472979</v>
       </c>
       <c r="F14" s="3">
-        <v>1189</v>
+        <v>20185</v>
       </c>
       <c r="G14" s="3">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2020,33 +2011,33 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="3">
-        <v>9999</v>
+        <v>74953</v>
       </c>
       <c r="F15" s="3">
-        <v>357</v>
+        <v>1016</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -2069,19 +2060,19 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
       <c r="E16" s="3">
-        <v>2078</v>
+        <v>844</v>
       </c>
       <c r="F16" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2090,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
         <v>21</v>
@@ -2098,19 +2089,19 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="3">
-        <v>844</v>
+        <v>617</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2133,25 +2124,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="3">
-        <v>566966</v>
+        <v>23702</v>
       </c>
       <c r="F18" s="3">
-        <v>18782</v>
+        <v>3315</v>
       </c>
       <c r="G18" s="3">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2160,33 +2151,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="3">
-        <v>23164</v>
+        <v>13867</v>
       </c>
       <c r="F19" s="3">
-        <v>162</v>
+        <v>934</v>
       </c>
       <c r="G19" s="3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2195,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -2209,19 +2200,19 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="3">
-        <v>2883</v>
+        <v>428</v>
       </c>
       <c r="F20" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2230,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -2244,13 +2235,13 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>4640</v>
+        <v>2053</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -2279,19 +2270,19 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="3">
-        <v>472979</v>
+        <v>4640</v>
       </c>
       <c r="F22" s="3">
-        <v>20185</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>515</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2300,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2314,19 +2305,19 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="3">
-        <v>52652</v>
+        <v>3484</v>
       </c>
       <c r="F23" s="3">
-        <v>7833</v>
+        <v>224</v>
       </c>
       <c r="G23" s="3">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2335,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>346</v>
+        <v>10</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2349,16 +2340,16 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
       <c r="E24" s="3">
-        <v>41</v>
+        <v>8644</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -2378,25 +2369,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3">
-        <v>3080</v>
+        <v>4183126</v>
       </c>
       <c r="F25" s="3">
-        <v>58</v>
+        <v>49430</v>
       </c>
       <c r="G25" s="3">
-        <v>5</v>
+        <v>5701</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2405,33 +2396,33 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13</v>
+        <v>1196</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
         <v>94</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
       <c r="E26" s="3">
-        <v>8644</v>
+        <v>25592</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2440,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -2448,25 +2439,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="3">
-        <v>428</v>
+        <v>69498</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2475,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -2483,25 +2474,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
         <v>100</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>102</v>
-      </c>
       <c r="E28" s="3">
-        <v>24890</v>
+        <v>8968</v>
       </c>
       <c r="F28" s="3">
-        <v>1321</v>
+        <v>117</v>
       </c>
       <c r="G28" s="3">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2510,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -2518,25 +2509,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="3">
-        <v>8968</v>
+        <v>27</v>
       </c>
       <c r="F29" s="3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2545,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
@@ -2553,25 +2544,25 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
       <c r="E30" s="3">
-        <v>13867</v>
+        <v>23164</v>
       </c>
       <c r="F30" s="3">
-        <v>934</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2580,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="L30" t="s">
         <v>21</v>
@@ -2588,25 +2579,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
         <v>110</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="3">
-        <v>23702</v>
+        <v>24890</v>
       </c>
       <c r="F31" s="3">
-        <v>3315</v>
+        <v>1321</v>
       </c>
       <c r="G31" s="3">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2615,33 +2606,33 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
         <v>113</v>
       </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
       <c r="E32" s="3">
-        <v>62509</v>
+        <v>222595</v>
       </c>
       <c r="F32" s="3">
-        <v>4841</v>
+        <v>9022</v>
       </c>
       <c r="G32" s="3">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2650,33 +2641,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>526</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
         <v>115</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3">
-        <v>18665</v>
+        <v>41</v>
       </c>
       <c r="F33" s="3">
-        <v>659</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2685,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
         <v>21</v>
@@ -2705,13 +2696,13 @@
         <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>88</v>
+        <v>2078</v>
       </c>
       <c r="F34" s="3">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2720,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -2734,19 +2725,19 @@
         <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>74953</v>
+        <v>4759</v>
       </c>
       <c r="F35" s="3">
-        <v>1016</v>
+        <v>129</v>
       </c>
       <c r="G35" s="3">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2755,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
@@ -2769,19 +2760,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>1237</v>
+        <v>62509</v>
       </c>
       <c r="F36" s="3">
-        <v>51</v>
+        <v>4841</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2790,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>526</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -2804,19 +2795,19 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>617</v>
+        <v>1237</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -2825,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" t="s">
         <v>21</v>
@@ -2839,19 +2830,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>511312</v>
+        <v>52652</v>
       </c>
       <c r="F38" s="3">
-        <v>15167</v>
+        <v>7833</v>
       </c>
       <c r="G38" s="3">
-        <v>402</v>
+        <v>85</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -2860,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2874,19 +2865,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E39" s="3">
-        <v>1493</v>
+        <v>2</v>
       </c>
       <c r="F39" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G39" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2895,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>21</v>
@@ -2903,19 +2894,19 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E40" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -2938,25 +2929,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2973,25 +2964,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
         <v>149</v>
       </c>
       <c r="E42" s="3">
-        <v>7431</v>
+        <v>6</v>
       </c>
       <c r="F42" s="3">
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3000,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s">
         <v>21</v>
@@ -3014,19 +3005,19 @@
         <v>151</v>
       </c>
       <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
         <v>152</v>
       </c>
-      <c r="D43" t="s">
-        <v>153</v>
-      </c>
       <c r="E43" s="3">
-        <v>1254</v>
+        <v>32</v>
       </c>
       <c r="F43" s="3">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3035,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="s">
         <v>21</v>
@@ -3043,25 +3034,25 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" t="s">
         <v>154</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>155</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>156</v>
       </c>
-      <c r="D44" t="s">
-        <v>157</v>
-      </c>
       <c r="E44" s="3">
-        <v>5</v>
+        <v>1542</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3070,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -3078,25 +3069,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
         <v>158</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" t="s">
-        <v>161</v>
-      </c>
       <c r="E45" s="3">
-        <v>1274</v>
+        <v>94</v>
       </c>
       <c r="F45" s="3">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3105,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
         <v>21</v>
@@ -3113,19 +3104,19 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
         <v>162</v>
       </c>
-      <c r="B46" t="s">
-        <v>163</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
       <c r="E46" s="3">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3148,25 +3139,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
         <v>165</v>
       </c>
-      <c r="B47" t="s">
-        <v>166</v>
-      </c>
-      <c r="C47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" t="s">
-        <v>167</v>
-      </c>
       <c r="E47" s="3">
-        <v>691</v>
+        <v>11977</v>
       </c>
       <c r="F47" s="3">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="G47" s="3">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3175,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L47" t="s">
         <v>21</v>
@@ -3183,25 +3174,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>169</v>
       </c>
-      <c r="C48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" t="s">
-        <v>171</v>
-      </c>
       <c r="E48" s="3">
-        <v>656</v>
+        <v>188</v>
       </c>
       <c r="F48" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G48" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3210,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L48" t="s">
         <v>21</v>
@@ -3218,25 +3209,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" t="s">
         <v>172</v>
       </c>
-      <c r="B49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" t="s">
-        <v>152</v>
-      </c>
-      <c r="D49" t="s">
-        <v>174</v>
-      </c>
       <c r="E49" s="3">
-        <v>578</v>
+        <v>1803</v>
       </c>
       <c r="F49" s="3">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G49" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3245,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
@@ -3253,19 +3244,19 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
         <v>175</v>
       </c>
-      <c r="B50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" t="s">
-        <v>177</v>
-      </c>
       <c r="E50" s="3">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -3288,25 +3279,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
         <v>178</v>
       </c>
-      <c r="B51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" t="s">
-        <v>181</v>
-      </c>
       <c r="E51" s="3">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F51" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3323,25 +3314,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="B52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" t="s">
-        <v>184</v>
-      </c>
       <c r="E52" s="3">
-        <v>11977</v>
+        <v>653</v>
       </c>
       <c r="F52" s="3">
-        <v>324</v>
+        <v>102</v>
       </c>
       <c r="G52" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3350,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L52" t="s">
         <v>21</v>
@@ -3358,22 +3349,22 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" t="s">
         <v>185</v>
       </c>
-      <c r="B53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" t="s">
-        <v>143</v>
-      </c>
-      <c r="D53" t="s">
-        <v>187</v>
-      </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -3393,25 +3384,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>189</v>
       </c>
-      <c r="C54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D54" t="s">
-        <v>190</v>
-      </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>1517</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3420,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L54" t="s">
         <v>21</v>
@@ -3428,25 +3419,25 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" t="s">
         <v>191</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>192</v>
-      </c>
-      <c r="C55" t="s">
-        <v>156</v>
       </c>
       <c r="D55" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="3">
-        <v>2</v>
+        <v>5962</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="G55" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3455,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s">
         <v>21</v>
@@ -3475,13 +3466,13 @@
         <v>197</v>
       </c>
       <c r="E56" s="3">
-        <v>2165</v>
+        <v>21</v>
       </c>
       <c r="F56" s="3">
-        <v>278</v>
+        <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3490,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L56" t="s">
         <v>21</v>
@@ -3504,19 +3495,19 @@
         <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3525,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
         <v>21</v>
@@ -3539,19 +3530,19 @@
         <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="3">
-        <v>1593</v>
+        <v>578</v>
       </c>
       <c r="F58" s="3">
-        <v>331</v>
+        <v>41</v>
       </c>
       <c r="G58" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3560,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
@@ -3574,19 +3565,19 @@
         <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="D59" t="s">
         <v>206</v>
       </c>
       <c r="E59" s="3">
-        <v>175</v>
+        <v>1493</v>
       </c>
       <c r="F59" s="3">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3595,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L59" t="s">
         <v>21</v>
@@ -3609,28 +3600,28 @@
         <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E60" s="3">
-        <v>5880</v>
+        <v>1921</v>
       </c>
       <c r="F60" s="3">
-        <v>594</v>
+        <v>64</v>
       </c>
       <c r="G60" s="3">
+        <v>2</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
         <v>9</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>89</v>
       </c>
       <c r="L60" t="s">
         <v>21</v>
@@ -3638,25 +3629,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E61" s="3">
-        <v>2848</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>523</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3673,22 +3664,22 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E62" s="3">
-        <v>32</v>
+        <v>691</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3700,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L62" t="s">
         <v>21</v>
@@ -3708,25 +3699,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E63" s="3">
-        <v>17</v>
+        <v>12342</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3735,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -3743,25 +3734,25 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E64" s="3">
-        <v>641</v>
+        <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3770,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -3778,25 +3769,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E65" s="3">
-        <v>9</v>
+        <v>106303</v>
       </c>
       <c r="F65" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -3805,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1797</v>
       </c>
       <c r="L65" t="s">
         <v>21</v>
@@ -3813,25 +3804,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E66" s="3">
-        <v>126844</v>
+        <v>52</v>
       </c>
       <c r="F66" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -3840,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -3848,19 +3839,19 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E67" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -3883,25 +3874,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E68" s="3">
-        <v>106303</v>
+        <v>110</v>
       </c>
       <c r="F68" s="3">
-        <v>4496</v>
+        <v>2</v>
       </c>
       <c r="G68" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -3910,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>1697</v>
+        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>21</v>
@@ -3918,25 +3909,25 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E69" s="3">
-        <v>1386</v>
+        <v>1185</v>
       </c>
       <c r="F69" s="3">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="G69" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -3945,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L69" t="s">
         <v>21</v>
@@ -3953,25 +3944,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3980,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L70" t="s">
         <v>21</v>
@@ -3988,25 +3979,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E71" s="3">
-        <v>2959</v>
+        <v>226</v>
       </c>
       <c r="F71" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4015,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L71" t="s">
         <v>21</v>
@@ -4023,25 +4014,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E72" s="3">
-        <v>1185</v>
+        <v>1080</v>
       </c>
       <c r="F72" s="3">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G72" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4050,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L72" t="s">
         <v>21</v>
@@ -4058,25 +4049,25 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E73" s="3">
-        <v>4508</v>
+        <v>61</v>
       </c>
       <c r="F73" s="3">
-        <v>446</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4085,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L73" t="s">
         <v>21</v>
@@ -4093,25 +4084,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E74" s="3">
-        <v>8</v>
+        <v>126844</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>8977</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4120,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L74" t="s">
         <v>21</v>
@@ -4128,25 +4119,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B75" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E75" s="3">
-        <v>2352</v>
+        <v>1386</v>
       </c>
       <c r="F75" s="3">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G75" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4155,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="s">
         <v>21</v>
@@ -4163,25 +4154,25 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E76" s="3">
-        <v>1084</v>
+        <v>1274</v>
       </c>
       <c r="F76" s="3">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G76" s="3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4190,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L76" t="s">
         <v>21</v>
@@ -4198,25 +4189,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E77" s="3">
-        <v>3021</v>
+        <v>113046</v>
       </c>
       <c r="F77" s="3">
-        <v>580</v>
+        <v>8422</v>
       </c>
       <c r="G77" s="3">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4225,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -4233,25 +4224,25 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E78" s="3">
-        <v>644</v>
+        <v>1663</v>
       </c>
       <c r="F78" s="3">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="G78" s="3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4260,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -4268,25 +4259,25 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E79" s="3">
-        <v>357</v>
+        <v>2959</v>
       </c>
       <c r="F79" s="3">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4295,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L79" t="s">
         <v>21</v>
@@ -4303,25 +4294,25 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B80" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E80" s="3">
-        <v>1542</v>
+        <v>1254</v>
       </c>
       <c r="F80" s="3">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="G80" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4330,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L80" t="s">
         <v>21</v>
@@ -4338,25 +4329,25 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E81" s="3">
-        <v>5083</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4373,25 +4364,25 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B82" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E82" s="3">
-        <v>1803</v>
+        <v>995</v>
       </c>
       <c r="F82" s="3">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="G82" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4400,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="L82" t="s">
         <v>21</v>
@@ -4408,25 +4399,25 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E83" s="3">
-        <v>995</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4435,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L83" t="s">
         <v>21</v>
@@ -4443,25 +4434,25 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E84" s="3">
-        <v>1080</v>
+        <v>5</v>
       </c>
       <c r="F84" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G84" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4470,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
@@ -4478,25 +4469,25 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D85" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E85" s="3">
-        <v>5962</v>
+        <v>60</v>
       </c>
       <c r="F85" s="3">
-        <v>765</v>
+        <v>2</v>
       </c>
       <c r="G85" s="3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4505,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
@@ -4513,25 +4504,25 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C86" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E86" s="3">
-        <v>94</v>
+        <v>13154</v>
       </c>
       <c r="F86" s="3">
-        <v>6</v>
+        <v>1256</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4540,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
@@ -4548,25 +4539,25 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E87" s="3">
-        <v>4711</v>
+        <v>4358</v>
       </c>
       <c r="F87" s="3">
-        <v>387</v>
+        <v>230</v>
       </c>
       <c r="G87" s="3">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4575,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
@@ -4583,25 +4574,25 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B88" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E88" s="3">
-        <v>1663</v>
+        <v>1330</v>
       </c>
       <c r="F88" s="3">
-        <v>218</v>
+        <v>65</v>
       </c>
       <c r="G88" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4610,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
@@ -4618,25 +4609,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>226</v>
+        <v>619</v>
       </c>
       <c r="F89" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4645,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="s">
         <v>21</v>
@@ -4653,25 +4644,25 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C90" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E90" s="3">
-        <v>5563</v>
+        <v>30</v>
       </c>
       <c r="F90" s="3">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="G90" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4680,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L90" t="s">
         <v>21</v>
@@ -4688,25 +4679,25 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B91" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E91" s="3">
-        <v>6</v>
+        <v>3021</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4715,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
@@ -4723,25 +4714,25 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E92" s="3">
-        <v>7772</v>
+        <v>0</v>
       </c>
       <c r="F92" s="3">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="G92" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -4750,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
@@ -4758,25 +4749,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B93" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E93" s="3">
-        <v>285</v>
+        <v>641</v>
       </c>
       <c r="F93" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G93" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4785,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L93" t="s">
         <v>21</v>
@@ -4793,25 +4784,25 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E94" s="3">
-        <v>52</v>
+        <v>7431</v>
       </c>
       <c r="F94" s="3">
-        <v>1</v>
+        <v>661</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4820,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
@@ -4828,25 +4819,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B95" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="D95" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E95" s="3">
-        <v>12342</v>
+        <v>2165</v>
       </c>
       <c r="F95" s="3">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="G95" s="3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -4855,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
@@ -4863,25 +4854,25 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E96" s="3">
-        <v>60</v>
+        <v>4508</v>
       </c>
       <c r="F96" s="3">
-        <v>2</v>
+        <v>446</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4890,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
@@ -4898,25 +4889,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="D97" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E97" s="3">
-        <v>1517</v>
+        <v>5880</v>
       </c>
       <c r="F97" s="3">
-        <v>162</v>
+        <v>594</v>
       </c>
       <c r="G97" s="3">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -4925,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s">
         <v>21</v>
@@ -4933,34 +4924,34 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E98" s="3">
+        <v>1084</v>
+      </c>
+      <c r="F98" s="3">
         <v>110</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G98" s="3">
+        <v>47</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
         <v>2</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
       </c>
       <c r="L98" t="s">
         <v>21</v>
@@ -4968,25 +4959,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B99" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C99" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E99" s="3">
-        <v>113046</v>
+        <v>42</v>
       </c>
       <c r="F99" s="3">
-        <v>8422</v>
+        <v>0</v>
       </c>
       <c r="G99" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -4995,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="L99" t="s">
         <v>21</v>
@@ -5003,25 +4994,25 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E100" s="3">
-        <v>3</v>
+        <v>1556</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5030,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L100" t="s">
         <v>21</v>
@@ -5038,25 +5029,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B101" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E101" s="3">
-        <v>691</v>
+        <v>7772</v>
       </c>
       <c r="F101" s="3">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5065,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="L101" t="s">
         <v>21</v>
@@ -5073,25 +5064,25 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E102" s="3">
-        <v>1330</v>
+        <v>691</v>
       </c>
       <c r="F102" s="3">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="G102" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5100,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>21</v>
@@ -5108,25 +5099,25 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B103" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E103" s="3">
-        <v>32</v>
+        <v>75707</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>4287</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5135,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L103" t="s">
         <v>21</v>
@@ -5143,25 +5134,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="D104" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E104" s="3">
-        <v>1556</v>
+        <v>5083</v>
       </c>
       <c r="F104" s="3">
-        <v>100</v>
+        <v>594</v>
       </c>
       <c r="G104" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5170,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L104" t="s">
         <v>21</v>
@@ -5178,25 +5169,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C105" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E105" s="3">
-        <v>61</v>
+        <v>4711</v>
       </c>
       <c r="F105" s="3">
-        <v>1</v>
+        <v>387</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5205,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L105" t="s">
         <v>21</v>
@@ -5213,25 +5204,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E106" s="3">
-        <v>4358</v>
+        <v>322</v>
       </c>
       <c r="F106" s="3">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="G106" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5240,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L106" t="s">
         <v>21</v>
@@ -5248,25 +5239,25 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C107" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E107" s="3">
-        <v>13154</v>
+        <v>17</v>
       </c>
       <c r="F107" s="3">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5275,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
         <v>21</v>
@@ -5283,34 +5274,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B108" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>47</v>
       </c>
       <c r="D108" t="s">
         <v>358</v>
       </c>
       <c r="E108" s="3">
-        <v>1921</v>
+        <v>52</v>
       </c>
       <c r="F108" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
         <v>2</v>
-      </c>
-      <c r="H108" s="3">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>9</v>
       </c>
       <c r="L108" t="s">
         <v>21</v>
@@ -5324,19 +5315,19 @@
         <v>360</v>
       </c>
       <c r="C109" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="D109" t="s">
         <v>361</v>
       </c>
       <c r="E109" s="3">
-        <v>188</v>
+        <v>2352</v>
       </c>
       <c r="F109" s="3">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5345,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109" t="s">
         <v>21</v>
@@ -5359,19 +5350,19 @@
         <v>363</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="D110" t="s">
         <v>364</v>
       </c>
       <c r="E110" s="3">
-        <v>30</v>
+        <v>2848</v>
       </c>
       <c r="F110" s="3">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5394,19 +5385,19 @@
         <v>366</v>
       </c>
       <c r="C111" t="s">
-        <v>143</v>
+        <v>367</v>
       </c>
       <c r="D111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E111" s="3">
-        <v>619</v>
+        <v>656</v>
       </c>
       <c r="F111" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G111" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5415,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L111" t="s">
         <v>21</v>
@@ -5423,25 +5414,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B112" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="D112" t="s">
         <v>371</v>
       </c>
       <c r="E112" s="3">
-        <v>269112</v>
+        <v>175</v>
       </c>
       <c r="F112" s="3">
-        <v>5243</v>
+        <v>25</v>
       </c>
       <c r="G112" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5450,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="L112" t="s">
         <v>21</v>
@@ -5464,19 +5455,19 @@
         <v>373</v>
       </c>
       <c r="C113" t="s">
+        <v>155</v>
+      </c>
+      <c r="D113" t="s">
         <v>374</v>
       </c>
-      <c r="D113" t="s">
-        <v>375</v>
-      </c>
       <c r="E113" s="3">
-        <v>1</v>
+        <v>357</v>
       </c>
       <c r="F113" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G113" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5493,25 +5484,25 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" t="s">
         <v>376</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" t="s">
         <v>377</v>
       </c>
-      <c r="C114" t="s">
-        <v>64</v>
-      </c>
-      <c r="D114" t="s">
-        <v>378</v>
-      </c>
       <c r="E114" s="3">
-        <v>322</v>
+        <v>32</v>
       </c>
       <c r="F114" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5520,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114" t="s">
         <v>21</v>
@@ -5528,25 +5519,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" t="s">
         <v>379</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>380</v>
-      </c>
-      <c r="C115" t="s">
-        <v>374</v>
       </c>
       <c r="D115" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="3">
-        <v>2</v>
+        <v>269112</v>
       </c>
       <c r="F115" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G115" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5555,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L115" t="s">
         <v>21</v>
@@ -5569,19 +5560,19 @@
         <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>653</v>
+        <v>1593</v>
       </c>
       <c r="F116" s="3">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="G116" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5590,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>21</v>
@@ -5604,7 +5595,7 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
@@ -5628,41 +5619,6 @@
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B118" t="s">
-        <v>389</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>390</v>
-      </c>
-      <c r="E118" s="3">
-        <v>75707</v>
-      </c>
-      <c r="F118" s="3">
-        <v>4287</v>
-      </c>
-      <c r="G118" s="3">
-        <v>108</v>
-      </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>628</v>
-      </c>
-      <c r="L118" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5783,7 +5739,6 @@
     <hyperlink ref="A115" r:id="rId113"/>
     <hyperlink ref="A116" r:id="rId114"/>
     <hyperlink ref="A117" r:id="rId115"/>
-    <hyperlink ref="A118" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5806,68 +5761,68 @@
         <v>14</v>
       </c>
       <c r="B1">
-        <v>320060</v>
+        <v>312807</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>133942</v>
+        <v>132120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B3">
-        <v>36229</v>
+        <v>34344</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="B4">
-        <v>33069</v>
+        <v>32669</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>29873</v>
+        <v>29560</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>22477</v>
+        <v>22006</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B7">
-        <v>7782</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="B8">
-        <v>5320</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>3753</v>
@@ -5875,39 +5830,39 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>3437</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B11">
-        <v>3336</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="B12">
-        <v>3059</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="B14">
         <v>619</v>
@@ -5915,7 +5870,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -5923,31 +5878,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>318</v>
       </c>
       <c r="B16">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="B17">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5955,23 +5910,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5979,7 +5934,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5987,7 +5942,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5995,7 +5950,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6003,15 +5958,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>325</v>
+        <v>116</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>231</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,6 +68,33 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
+  </si>
+  <si>
+    <t>Natixis – Interview Mobilité – Xavier</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2017-02-20T13:34:13.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
   </si>
   <si>
@@ -80,7 +107,298 @@
     <t>2017-04-05T13:28:29.000Z</t>
   </si>
   <si>
-    <t>[]</t>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
+  </si>
+  <si>
+    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
@@ -89,318 +407,9 @@
     <t>Le crevard #5</t>
   </si>
   <si>
-    <t>Franjo</t>
-  </si>
-  <si>
     <t>2019-06-24T16:00:05.000Z</t>
   </si>
   <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
-  </si>
-  <si>
-    <t>Natixis – Interview Mobilité – Xavier</t>
-  </si>
-  <si>
-    <t>2017-02-20T13:34:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
-  </si>
-  <si>
-    <t>Macron, président des riches : 43 milliards € de cadeaux pour les plus fortunés !</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:02.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
   </si>
   <si>
@@ -410,13 +419,640 @@
     <t>2019-12-01T04:09:12.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
+    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
+  </si>
+  <si>
+    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-21T03:07:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
+  </si>
+  <si>
+    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:57:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël (Partie 2)</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-26T11:09:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
+  </si>
+  <si>
+    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
+  </si>
+  <si>
+    <t>2019-12-24T11:48:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
+  </si>
+  <si>
+    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
+  </si>
+  <si>
+    <t>Élise Fajgeles</t>
+  </si>
+  <si>
+    <t>2019-04-25T10:47:19.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
+  </si>
+  <si>
+    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:50:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
@@ -425,46 +1061,88 @@
     <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
   </si>
   <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
     <t>2019-12-17T15:51:57.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
@@ -476,196 +1154,22 @@
     <t>2019-12-18T18:50:33.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
@@ -675,510 +1179,6 @@
   </si>
   <si>
     <t>2019-12-05T08:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
-  </si>
-  <si>
-    <t>Intervention en commission des lois - proposition de résolution européenne 24/10/18</t>
-  </si>
-  <si>
-    <t>Élise Fajgeles</t>
-  </si>
-  <si>
-    <t>2019-04-25T10:47:19.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël (Partie 2)</t>
-  </si>
-  <si>
-    <t>2019-12-26T11:09:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
-  </si>
-  <si>
-    <t>Retraites: une réforme de droite ou «plutôt de gauche» ?</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:48:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
-  </si>
-  <si>
-    <t>“Star Wars” : qui a tiré le premier dans la cantina ? (et pourquoi c'est pas anodin)</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
-  </si>
-  <si>
-    <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
-  </si>
-  <si>
-    <t>2019-12-24T11:57:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
-  </si>
-  <si>
-    <t>Hommage aux femmes autochtones assassinées des Amériques / Paris - France 11 octobre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-21T03:07:27.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1646,10 +1646,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>88</v>
+        <v>844</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>511312</v>
+        <v>23164</v>
       </c>
       <c r="F5" s="3">
-        <v>15167</v>
+        <v>162</v>
       </c>
       <c r="G5" s="3">
-        <v>402</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1696,30 +1696,30 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="3">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1739,19 +1739,19 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="3">
-        <v>87</v>
+        <v>617</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -1774,25 +1774,25 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
       <c r="E8" s="3">
-        <v>9999</v>
+        <v>13867</v>
       </c>
       <c r="F8" s="3">
-        <v>357</v>
+        <v>934</v>
       </c>
       <c r="G8" s="3">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -1809,25 +1809,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="3">
-        <v>566966</v>
+        <v>8644</v>
       </c>
       <c r="F9" s="3">
-        <v>18782</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1836,24 +1836,24 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="3">
         <v>18665</v>
@@ -1879,25 +1879,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" s="3">
-        <v>170</v>
+        <v>8968</v>
       </c>
       <c r="F11" s="3">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>21</v>
@@ -1914,37 +1914,37 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="3">
+        <v>566966</v>
+      </c>
+      <c r="F12" s="3">
+        <v>18782</v>
+      </c>
+      <c r="G12" s="3">
+        <v>416</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>298</v>
+      </c>
+      <c r="L12" t="s">
         <v>52</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2883</v>
-      </c>
-      <c r="F12" s="3">
-        <v>42</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1955,19 +1955,19 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>3080</v>
+        <v>3484</v>
       </c>
       <c r="F13" s="3">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1990,19 +1990,19 @@
         <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>58</v>
       </c>
       <c r="E14" s="3">
-        <v>472979</v>
+        <v>62509</v>
       </c>
       <c r="F14" s="3">
-        <v>20185</v>
+        <v>4841</v>
       </c>
       <c r="G14" s="3">
-        <v>515</v>
+        <v>96</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>260</v>
+        <v>526</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2025,19 +2025,19 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="3">
-        <v>74953</v>
+        <v>3080</v>
       </c>
       <c r="F15" s="3">
-        <v>1016</v>
+        <v>58</v>
       </c>
       <c r="G15" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -2060,19 +2060,19 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="3">
-        <v>844</v>
+        <v>52652</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>7833</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2095,13 +2095,13 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="3">
-        <v>617</v>
+        <v>2053</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2130,19 +2130,19 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E18" s="3">
-        <v>23702</v>
+        <v>170</v>
       </c>
       <c r="F18" s="3">
-        <v>3315</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2151,33 +2151,33 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>74</v>
       </c>
       <c r="E19" s="3">
-        <v>13867</v>
+        <v>87</v>
       </c>
       <c r="F19" s="3">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -2200,19 +2200,19 @@
         <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>77</v>
       </c>
       <c r="E20" s="3">
-        <v>428</v>
+        <v>4183126</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>49430</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>5701</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2221,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="L20" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2235,19 +2235,19 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
       </c>
       <c r="E21" s="3">
-        <v>2053</v>
+        <v>472979</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>20185</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L21" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2270,13 +2270,13 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="3">
-        <v>4640</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2305,19 +2305,19 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="3">
-        <v>3484</v>
+        <v>27</v>
       </c>
       <c r="F23" s="3">
-        <v>224</v>
+        <v>1</v>
       </c>
       <c r="G23" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -2340,13 +2340,13 @@
         <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>89</v>
       </c>
       <c r="E24" s="3">
-        <v>8644</v>
+        <v>4640</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2381,13 +2381,13 @@
         <v>92</v>
       </c>
       <c r="E25" s="3">
-        <v>4183126</v>
+        <v>9999</v>
       </c>
       <c r="F25" s="3">
-        <v>49430</v>
+        <v>357</v>
       </c>
       <c r="G25" s="3">
-        <v>5701</v>
+        <v>3</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2396,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1196</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2410,19 +2410,19 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
-        <v>25592</v>
+        <v>2078</v>
       </c>
       <c r="F26" s="3">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="G26" s="3">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -2439,25 +2439,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3">
-        <v>69498</v>
+        <v>2883</v>
       </c>
       <c r="F27" s="3">
-        <v>1189</v>
+        <v>42</v>
       </c>
       <c r="G27" s="3">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -2474,25 +2474,25 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3">
-        <v>8968</v>
+        <v>25592</v>
       </c>
       <c r="F28" s="3">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="G28" s="3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -2509,25 +2509,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E29" s="3">
-        <v>27</v>
+        <v>222595</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>9022</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2536,33 +2536,33 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3">
-        <v>23164</v>
+        <v>69498</v>
       </c>
       <c r="F30" s="3">
-        <v>162</v>
+        <v>1189</v>
       </c>
       <c r="G30" s="3">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
         <v>21</v>
@@ -2579,25 +2579,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" s="3">
-        <v>24890</v>
+        <v>23702</v>
       </c>
       <c r="F31" s="3">
-        <v>1321</v>
+        <v>3315</v>
       </c>
       <c r="G31" s="3">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2606,33 +2606,33 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E32" s="3">
-        <v>222595</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3">
-        <v>9022</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -2641,33 +2641,33 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3">
-        <v>41</v>
+        <v>74953</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>1016</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s">
         <v>21</v>
@@ -2684,25 +2684,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>2078</v>
+        <v>4759</v>
       </c>
       <c r="F34" s="3">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="G34" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -2725,19 +2725,19 @@
         <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>4759</v>
+        <v>428</v>
       </c>
       <c r="F35" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
@@ -2760,19 +2760,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>62509</v>
+        <v>24890</v>
       </c>
       <c r="F36" s="3">
-        <v>4841</v>
+        <v>1321</v>
       </c>
       <c r="G36" s="3">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>526</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -2795,19 +2795,19 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>1237</v>
+        <v>511312</v>
       </c>
       <c r="F37" s="3">
-        <v>51</v>
+        <v>15167</v>
       </c>
       <c r="G37" s="3">
-        <v>3</v>
+        <v>402</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2830,19 +2830,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>52652</v>
+        <v>1237</v>
       </c>
       <c r="F38" s="3">
-        <v>7833</v>
+        <v>51</v>
       </c>
       <c r="G38" s="3">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>346</v>
+        <v>3</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2865,28 +2865,28 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
         <v>136</v>
       </c>
-      <c r="D39" t="s">
-        <v>137</v>
-      </c>
       <c r="E39" s="3">
+        <v>322</v>
+      </c>
+      <c r="F39" s="3">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3">
+        <v>11</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>2</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
       </c>
       <c r="L39" t="s">
         <v>21</v>
@@ -2894,25 +2894,25 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s">
         <v>139</v>
       </c>
-      <c r="C40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" t="s">
-        <v>141</v>
-      </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>1803</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G40" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" t="s">
         <v>21</v>
@@ -2929,25 +2929,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="C41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
       <c r="E41" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2964,25 +2964,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
       <c r="E42" s="3">
-        <v>6</v>
+        <v>3021</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L42" t="s">
         <v>21</v>
@@ -2999,25 +2999,25 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
         <v>150</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
       </c>
       <c r="D43" t="s">
         <v>152</v>
       </c>
       <c r="E43" s="3">
-        <v>32</v>
+        <v>1185</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L43" t="s">
         <v>21</v>
@@ -3046,13 +3046,13 @@
         <v>156</v>
       </c>
       <c r="E44" s="3">
-        <v>1542</v>
+        <v>1921</v>
       </c>
       <c r="F44" s="3">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -3075,19 +3075,19 @@
         <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
         <v>159</v>
       </c>
       <c r="E45" s="3">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="F45" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3110,16 +3110,16 @@
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3">
-        <v>9</v>
+        <v>346</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>21</v>
@@ -3139,25 +3139,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3">
-        <v>11977</v>
+        <v>21</v>
       </c>
       <c r="F47" s="3">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L47" t="s">
         <v>21</v>
@@ -3174,22 +3174,22 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3209,25 +3209,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E49" s="3">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
@@ -3244,25 +3244,25 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E50" s="3">
-        <v>2</v>
+        <v>11977</v>
       </c>
       <c r="F50" s="3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="G50" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L50" t="s">
         <v>21</v>
@@ -3279,25 +3279,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E51" s="3">
-        <v>8</v>
+        <v>5083</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3314,25 +3314,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
         <v>182</v>
       </c>
       <c r="E52" s="3">
-        <v>653</v>
+        <v>4508</v>
       </c>
       <c r="F52" s="3">
-        <v>102</v>
+        <v>446</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L52" t="s">
         <v>21</v>
@@ -3355,19 +3355,19 @@
         <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3384,25 +3384,25 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3">
-        <v>1517</v>
+        <v>5563</v>
       </c>
       <c r="F54" s="3">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="G54" s="3">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="L54" t="s">
         <v>21</v>
@@ -3419,25 +3419,25 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="3">
-        <v>5962</v>
+        <v>2848</v>
       </c>
       <c r="F55" s="3">
-        <v>765</v>
+        <v>523</v>
       </c>
       <c r="G55" s="3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L55" t="s">
         <v>21</v>
@@ -3460,19 +3460,19 @@
         <v>195</v>
       </c>
       <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
         <v>196</v>
       </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
       <c r="E56" s="3">
-        <v>21</v>
+        <v>2959</v>
       </c>
       <c r="F56" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L56" t="s">
         <v>21</v>
@@ -3489,25 +3489,25 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" t="s">
         <v>198</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>199</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>285</v>
+        <v>656</v>
       </c>
       <c r="F57" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G57" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L57" t="s">
         <v>21</v>
@@ -3530,19 +3530,19 @@
         <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="3">
-        <v>578</v>
+        <v>30</v>
       </c>
       <c r="F58" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
@@ -3565,19 +3565,19 @@
         <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>206</v>
       </c>
       <c r="E59" s="3">
-        <v>1493</v>
+        <v>113046</v>
       </c>
       <c r="F59" s="3">
-        <v>115</v>
+        <v>8422</v>
       </c>
       <c r="G59" s="3">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="L59" t="s">
         <v>21</v>
@@ -3600,19 +3600,19 @@
         <v>208</v>
       </c>
       <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" t="s">
         <v>209</v>
       </c>
-      <c r="D60" t="s">
-        <v>210</v>
-      </c>
       <c r="E60" s="3">
-        <v>1921</v>
+        <v>1593</v>
       </c>
       <c r="F60" s="3">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="G60" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L60" t="s">
         <v>21</v>
@@ -3629,25 +3629,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
         <v>211</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>212</v>
-      </c>
-      <c r="C61" t="s">
-        <v>168</v>
       </c>
       <c r="D61" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
         <v>216</v>
       </c>
       <c r="E62" s="3">
-        <v>691</v>
+        <v>17</v>
       </c>
       <c r="F62" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" t="s">
         <v>21</v>
@@ -3705,19 +3705,19 @@
         <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
         <v>219</v>
       </c>
       <c r="E63" s="3">
-        <v>12342</v>
+        <v>226</v>
       </c>
       <c r="F63" s="3">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -3740,19 +3740,19 @@
         <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
         <v>222</v>
       </c>
       <c r="E64" s="3">
-        <v>17</v>
+        <v>4711</v>
       </c>
       <c r="F64" s="3">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -3775,19 +3775,19 @@
         <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
         <v>225</v>
       </c>
       <c r="E65" s="3">
-        <v>106303</v>
+        <v>175</v>
       </c>
       <c r="F65" s="3">
-        <v>4496</v>
+        <v>25</v>
       </c>
       <c r="G65" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1797</v>
+        <v>4</v>
       </c>
       <c r="L65" t="s">
         <v>21</v>
@@ -3810,7 +3810,7 @@
         <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
         <v>228</v>
@@ -3819,7 +3819,7 @@
         <v>52</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -3845,19 +3845,19 @@
         <v>230</v>
       </c>
       <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
         <v>231</v>
       </c>
-      <c r="D67" t="s">
-        <v>232</v>
-      </c>
       <c r="E67" s="3">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="s">
         <v>21</v>
@@ -3874,34 +3874,34 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s">
         <v>233</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>212</v>
+      </c>
+      <c r="D68" t="s">
         <v>234</v>
       </c>
-      <c r="C68" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" t="s">
-        <v>236</v>
-      </c>
       <c r="E68" s="3">
+        <v>1084</v>
+      </c>
+      <c r="F68" s="3">
         <v>110</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G68" s="3">
+        <v>47</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>2</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
       </c>
       <c r="L68" t="s">
         <v>21</v>
@@ -3909,25 +3909,25 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
         <v>237</v>
       </c>
-      <c r="B69" t="s">
-        <v>238</v>
-      </c>
-      <c r="C69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D69" t="s">
-        <v>239</v>
-      </c>
       <c r="E69" s="3">
-        <v>1185</v>
+        <v>641</v>
       </c>
       <c r="F69" s="3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G69" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L69" t="s">
         <v>21</v>
@@ -3944,25 +3944,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
         <v>240</v>
       </c>
-      <c r="B70" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>243</v>
-      </c>
       <c r="E70" s="3">
-        <v>5563</v>
+        <v>7772</v>
       </c>
       <c r="F70" s="3">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="G70" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="L70" t="s">
         <v>21</v>
@@ -3979,25 +3979,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E71" s="3">
-        <v>226</v>
+        <v>126844</v>
       </c>
       <c r="F71" s="3">
-        <v>1</v>
+        <v>8977</v>
       </c>
       <c r="G71" s="3">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L71" t="s">
         <v>21</v>
@@ -4014,25 +4014,25 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E72" s="3">
-        <v>1080</v>
+        <v>6</v>
       </c>
       <c r="F72" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L72" t="s">
         <v>21</v>
@@ -4049,16 +4049,16 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E73" s="3">
         <v>61</v>
@@ -4084,25 +4084,25 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" t="s">
         <v>253</v>
       </c>
-      <c r="B74" t="s">
-        <v>254</v>
-      </c>
-      <c r="C74" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" t="s">
-        <v>255</v>
-      </c>
       <c r="E74" s="3">
-        <v>126844</v>
+        <v>5</v>
       </c>
       <c r="F74" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G74" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="L74" t="s">
         <v>21</v>
@@ -4119,34 +4119,34 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" t="s">
         <v>256</v>
       </c>
-      <c r="B75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>258</v>
-      </c>
       <c r="E75" s="3">
-        <v>1386</v>
+        <v>1663</v>
       </c>
       <c r="F75" s="3">
-        <v>47</v>
+        <v>218</v>
       </c>
       <c r="G75" s="3">
+        <v>32</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
         <v>3</v>
-      </c>
-      <c r="H75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>2</v>
       </c>
       <c r="L75" t="s">
         <v>21</v>
@@ -4154,25 +4154,25 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" t="s">
         <v>259</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
         <v>260</v>
       </c>
-      <c r="C76" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" t="s">
-        <v>261</v>
-      </c>
       <c r="E76" s="3">
-        <v>1274</v>
+        <v>3</v>
       </c>
       <c r="F76" s="3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>21</v>
@@ -4189,25 +4189,25 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B77" t="s">
         <v>262</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>263</v>
-      </c>
-      <c r="C77" t="s">
-        <v>24</v>
       </c>
       <c r="D77" t="s">
         <v>264</v>
       </c>
       <c r="E77" s="3">
-        <v>113046</v>
+        <v>269112</v>
       </c>
       <c r="F77" s="3">
-        <v>8422</v>
+        <v>5243</v>
       </c>
       <c r="G77" s="3">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -4230,19 +4230,19 @@
         <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
         <v>267</v>
       </c>
       <c r="E78" s="3">
-        <v>1663</v>
+        <v>17</v>
       </c>
       <c r="F78" s="3">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="G78" s="3">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
         <v>21</v>
@@ -4265,19 +4265,19 @@
         <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="D79" t="s">
         <v>270</v>
       </c>
       <c r="E79" s="3">
-        <v>2959</v>
+        <v>1254</v>
       </c>
       <c r="F79" s="3">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="G79" s="3">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L79" t="s">
         <v>21</v>
@@ -4300,19 +4300,19 @@
         <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
         <v>273</v>
       </c>
       <c r="E80" s="3">
-        <v>1254</v>
+        <v>75707</v>
       </c>
       <c r="F80" s="3">
-        <v>138</v>
+        <v>4287</v>
       </c>
       <c r="G80" s="3">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>12</v>
+        <v>628</v>
       </c>
       <c r="L80" t="s">
         <v>21</v>
@@ -4335,19 +4335,19 @@
         <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>276</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="D82" t="s">
         <v>279</v>
       </c>
       <c r="E82" s="3">
-        <v>995</v>
+        <v>5880</v>
       </c>
       <c r="F82" s="3">
-        <v>120</v>
+        <v>594</v>
       </c>
       <c r="G82" s="3">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="L82" t="s">
         <v>21</v>
@@ -4405,13 +4405,13 @@
         <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
         <v>282</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4440,13 +4440,13 @@
         <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
         <v>285</v>
       </c>
       <c r="E84" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -4475,19 +4475,19 @@
         <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>47</v>
+        <v>288</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E85" s="3">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F85" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
@@ -4504,25 +4504,25 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E86" s="3">
-        <v>13154</v>
+        <v>285</v>
       </c>
       <c r="F86" s="3">
-        <v>1256</v>
+        <v>1</v>
       </c>
       <c r="G86" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
@@ -4539,25 +4539,25 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E87" s="3">
-        <v>4358</v>
+        <v>1386</v>
       </c>
       <c r="F87" s="3">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="G87" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
@@ -4574,25 +4574,25 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E88" s="3">
-        <v>1330</v>
+        <v>1080</v>
       </c>
       <c r="F88" s="3">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
@@ -4609,25 +4609,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E89" s="3">
-        <v>619</v>
+        <v>42</v>
       </c>
       <c r="F89" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" t="s">
         <v>21</v>
@@ -4644,19 +4644,19 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E90" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90" t="s">
         <v>21</v>
@@ -4679,25 +4679,25 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E91" s="3">
-        <v>3021</v>
+        <v>691</v>
       </c>
       <c r="F91" s="3">
-        <v>580</v>
+        <v>13</v>
       </c>
       <c r="G91" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
@@ -4714,25 +4714,25 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B92" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E92" s="3">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="F92" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G92" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
@@ -4749,25 +4749,25 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B93" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E93" s="3">
-        <v>641</v>
+        <v>1</v>
       </c>
       <c r="F93" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G93" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L93" t="s">
         <v>21</v>
@@ -4784,25 +4784,25 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="D94" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E94" s="3">
-        <v>7431</v>
+        <v>2165</v>
       </c>
       <c r="F94" s="3">
-        <v>661</v>
+        <v>278</v>
       </c>
       <c r="G94" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
@@ -4819,22 +4819,22 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E95" s="3">
-        <v>2165</v>
+        <v>1542</v>
       </c>
       <c r="F95" s="3">
-        <v>278</v>
+        <v>48</v>
       </c>
       <c r="G95" s="3">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
@@ -4854,25 +4854,25 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E96" s="3">
-        <v>4508</v>
+        <v>2352</v>
       </c>
       <c r="F96" s="3">
-        <v>446</v>
+        <v>89</v>
       </c>
       <c r="G96" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
@@ -4889,25 +4889,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C97" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E97" s="3">
-        <v>5880</v>
+        <v>1517</v>
       </c>
       <c r="F97" s="3">
-        <v>594</v>
+        <v>162</v>
       </c>
       <c r="G97" s="3">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="L97" t="s">
         <v>21</v>
@@ -4924,25 +4924,25 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E98" s="3">
-        <v>1084</v>
+        <v>1493</v>
       </c>
       <c r="F98" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G98" s="3">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L98" t="s">
         <v>21</v>
@@ -4959,25 +4959,25 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E99" s="3">
-        <v>42</v>
+        <v>1330</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L99" t="s">
         <v>21</v>
@@ -4994,25 +4994,25 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D100" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E100" s="3">
-        <v>1556</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L100" t="s">
         <v>21</v>
@@ -5029,25 +5029,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="D101" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E101" s="3">
-        <v>7772</v>
+        <v>110</v>
       </c>
       <c r="F101" s="3">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="G101" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L101" t="s">
         <v>21</v>
@@ -5064,25 +5064,25 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="D102" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E102" s="3">
-        <v>691</v>
+        <v>7431</v>
       </c>
       <c r="F102" s="3">
-        <v>130</v>
+        <v>661</v>
       </c>
       <c r="G102" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="L102" t="s">
         <v>21</v>
@@ -5099,25 +5099,25 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E103" s="3">
-        <v>75707</v>
+        <v>1556</v>
       </c>
       <c r="F103" s="3">
-        <v>4287</v>
+        <v>100</v>
       </c>
       <c r="G103" s="3">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>628</v>
+        <v>20</v>
       </c>
       <c r="L103" t="s">
         <v>21</v>
@@ -5134,25 +5134,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E104" s="3">
-        <v>5083</v>
+        <v>2</v>
       </c>
       <c r="F104" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G104" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5169,25 +5169,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E105" s="3">
-        <v>4711</v>
+        <v>188</v>
       </c>
       <c r="F105" s="3">
-        <v>387</v>
+        <v>10</v>
       </c>
       <c r="G105" s="3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="L105" t="s">
         <v>21</v>
@@ -5204,25 +5204,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E106" s="3">
-        <v>322</v>
+        <v>106303</v>
       </c>
       <c r="F106" s="3">
-        <v>16</v>
+        <v>4496</v>
       </c>
       <c r="G106" s="3">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1797</v>
       </c>
       <c r="L106" t="s">
         <v>21</v>
@@ -5239,25 +5239,25 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E107" s="3">
-        <v>17</v>
+        <v>5962</v>
       </c>
       <c r="F107" s="3">
-        <v>0</v>
+        <v>765</v>
       </c>
       <c r="G107" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L107" t="s">
         <v>21</v>
@@ -5274,25 +5274,25 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C108" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="D108" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E108" s="3">
-        <v>52</v>
+        <v>1274</v>
       </c>
       <c r="F108" s="3">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="L108" t="s">
         <v>21</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E109" s="3">
-        <v>2352</v>
+        <v>4358</v>
       </c>
       <c r="F109" s="3">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="L109" t="s">
         <v>21</v>
@@ -5344,25 +5344,25 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B110" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E110" s="3">
-        <v>2848</v>
+        <v>653</v>
       </c>
       <c r="F110" s="3">
-        <v>523</v>
+        <v>102</v>
       </c>
       <c r="G110" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L110" t="s">
         <v>21</v>
@@ -5379,25 +5379,25 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B111" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E111" s="3">
-        <v>656</v>
+        <v>52</v>
       </c>
       <c r="F111" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G111" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L111" t="s">
         <v>21</v>
@@ -5414,25 +5414,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C112" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="D112" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E112" s="3">
-        <v>175</v>
+        <v>578</v>
       </c>
       <c r="F112" s="3">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G112" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L112" t="s">
         <v>21</v>
@@ -5449,16 +5449,16 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B113" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E113" s="3">
         <v>357</v>
@@ -5484,16 +5484,16 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B114" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="D114" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E114" s="3">
         <v>32</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="s">
         <v>21</v>
@@ -5519,25 +5519,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B115" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C115" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
       <c r="D115" t="s">
         <v>381</v>
       </c>
       <c r="E115" s="3">
-        <v>269112</v>
+        <v>13154</v>
       </c>
       <c r="F115" s="3">
-        <v>5243</v>
+        <v>1256</v>
       </c>
       <c r="G115" s="3">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="L115" t="s">
         <v>21</v>
@@ -5560,19 +5560,19 @@
         <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>1593</v>
+        <v>995</v>
       </c>
       <c r="F116" s="3">
-        <v>331</v>
+        <v>120</v>
       </c>
       <c r="G116" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L116" t="s">
         <v>21</v>
@@ -5595,19 +5595,19 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="3">
-        <v>346</v>
+        <v>12342</v>
       </c>
       <c r="F117" s="3">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="G117" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s">
         <v>21</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>132120</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>34344</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>32669</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>29560</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>22006</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B7">
         <v>6528</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>5266</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>3753</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>3353</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>3177</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>1500</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>674</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>619</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B16">
         <v>127</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>66</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>55</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>367</v>
+        <v>288</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="B27">
         <v>0</v>

--- a/app/assets/data/info/evo-france-info-month-r.xlsx
+++ b/app/assets/data/info/evo-france-info-month-r.xlsx
@@ -68,31 +68,307 @@
     <t>['JEAN-LUC MÉLENCHON']</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
+  </si>
+  <si>
+    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>Karambolage en français - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-16T09:15:01.000Z</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
+  </si>
+  <si>
+    <t>L'homme qui a fait plier Mc Do</t>
+  </si>
+  <si>
+    <t>Citoyen, citoyenne !</t>
+  </si>
+  <si>
+    <t>2019-10-11T13:40:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
+  </si>
+  <si>
+    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
+  </si>
+  <si>
+    <t>wat ari</t>
+  </si>
+  <si>
+    <t>2017-07-09T23:51:59.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
+  </si>
+  <si>
+    <t>Mon voisin m'offre une maison</t>
+  </si>
+  <si>
+    <t>2019-12-01T08:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
+  </si>
+  <si>
+    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
+  </si>
+  <si>
+    <t>2016-01-30T15:42:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
+  </si>
+  <si>
+    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2014-12-01T23:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
+  </si>
+  <si>
+    <t>Les Dessous de L'Hyper-Commerce</t>
+  </si>
+  <si>
+    <t>2019-11-02T08:00:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
+  </si>
+  <si>
+    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
+  </si>
+  <si>
+    <t>2019-12-19T18:27:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
+  </si>
+  <si>
+    <t>Le crevard #5</t>
+  </si>
+  <si>
+    <t>Franjo</t>
+  </si>
+  <si>
+    <t>2019-06-24T16:00:05.000Z</t>
+  </si>
+  <si>
+    <t>['Franjo']</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
+  </si>
+  <si>
+    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
+  </si>
+  <si>
+    <t>Line Press</t>
+  </si>
+  <si>
+    <t>2019-12-05T01:38:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
+  </si>
+  <si>
+    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
+  </si>
+  <si>
+    <t>Natixisvideos</t>
+  </si>
+  <si>
+    <t>2018-07-13T15:56:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
+  </si>
+  <si>
+    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
+  </si>
+  <si>
+    <t>2018-01-03T19:07:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
+  </si>
+  <si>
+    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:54:39.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
+  </si>
+  <si>
+    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-01T04:09:12.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=tLOBCdUAVBI</t>
   </si>
   <si>
     <t>Natixis – Interview Mobilité – Xavier</t>
   </si>
   <si>
-    <t>Natixisvideos</t>
-  </si>
-  <si>
     <t>2017-02-20T13:34:13.000Z</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k6pZDobb0kY</t>
-  </si>
-  <si>
-    <t>Le Bon Marché - le calendrier de l'Avent de Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>Karambolage en français - ARTE</t>
-  </si>
-  <si>
-    <t>2014-12-01T23:30:02.000Z</t>
+    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
+  </si>
+  <si>
+    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
+  </si>
+  <si>
+    <t>2019-04-15T15:30:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
+  </si>
+  <si>
+    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
+  </si>
+  <si>
+    <t>2018-12-03T17:52:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
+  </si>
+  <si>
+    <t>Franjo - Un raciste au Jamel Comedy Club</t>
+  </si>
+  <si>
+    <t>2017-02-21T16:23:47.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
+  </si>
+  <si>
+    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
+  </si>
+  <si>
+    <t>2017-05-02T14:57:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
+  </si>
+  <si>
+    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
+  </si>
+  <si>
+    <t>2019-11-08T13:50:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
+  </si>
+  <si>
+    <t>Natixis in Portugal Corporate Video</t>
+  </si>
+  <si>
+    <t>2018-03-19T10:17:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:45:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
+  </si>
+  <si>
+    <t>Le meilleur prix à portée de clic</t>
+  </si>
+  <si>
+    <t>2019-10-12T07:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
+  </si>
+  <si>
+    <t>Arnaqué sur Leboncoin</t>
+  </si>
+  <si>
+    <t>2019-07-15T15:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
+  </si>
+  <si>
+    <t>Assurances, bonjour les dégats</t>
+  </si>
+  <si>
+    <t>2019-11-08T16:30:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
+  </si>
+  <si>
+    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
+  </si>
+  <si>
+    <t>Stratpol</t>
+  </si>
+  <si>
+    <t>2019-12-20T18:05:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
+  </si>
+  <si>
+    <t>Nord Stream II, le blocage ?</t>
+  </si>
+  <si>
+    <t>2019-12-23T17:23:54.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
+  </si>
+  <si>
+    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-10-14T15:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
+  </si>
+  <si>
+    <t>Questions/réflexions en Commission des Finances</t>
+  </si>
+  <si>
+    <t>Eric ALAUZET</t>
+  </si>
+  <si>
+    <t>2019-09-18T14:45:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
+  </si>
+  <si>
+    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
+  </si>
+  <si>
+    <t>L'Opinion</t>
+  </si>
+  <si>
+    <t>2019-12-17T09:22:48.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=-IEXZDXEZOE</t>
@@ -107,82 +383,31 @@
     <t>2017-04-05T13:28:29.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eow2nuU_FTE</t>
-  </si>
-  <si>
-    <t>Portraying Natixis'Talented Women   EP28   Vivian YEUNG</t>
-  </si>
-  <si>
-    <t>2018-12-03T17:52:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=skKdglI0KI0</t>
-  </si>
-  <si>
-    <t>Nord Stream II, le blocage ?</t>
-  </si>
-  <si>
-    <t>Stratpol</t>
-  </si>
-  <si>
-    <t>2019-12-23T17:23:54.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LgyhDKGidro</t>
-  </si>
-  <si>
-    <t>Natixis in Portugal Corporate Video</t>
-  </si>
-  <si>
-    <t>2018-03-19T10:17:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s4Le9_pF1MI</t>
-  </si>
-  <si>
-    <t>COLLISION: Interview d'un journaliste intègre face à un complotiste(s)...</t>
-  </si>
-  <si>
-    <t>wat ari</t>
-  </si>
-  <si>
-    <t>2017-07-09T23:51:59.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wHXedePTu-4</t>
-  </si>
-  <si>
-    <t>Les Dessous de L'Hyper-Commerce</t>
-  </si>
-  <si>
-    <t>Citoyen, citoyenne !</t>
-  </si>
-  <si>
-    <t>2019-11-02T08:00:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rlwBPTWwEa0</t>
-  </si>
-  <si>
-    <t>Arnaqué sur Leboncoin</t>
-  </si>
-  <si>
-    <t>Franjo</t>
-  </si>
-  <si>
-    <t>2019-07-15T15:45:00.000Z</t>
-  </si>
-  <si>
-    <t>['Franjo']</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=A1PwTP7d3QU</t>
-  </si>
-  <si>
-    <t>La Colombie, richesse historique, ultra-violence et narco-marxisme. 01.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-20T18:05:05.000Z</t>
+    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
+  </si>
+  <si>
+    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
+  </si>
+  <si>
+    <t>2019-12-20T08:16:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
+  </si>
+  <si>
+    <t>Un rabais sinon rien</t>
+  </si>
+  <si>
+    <t>2019-08-31T07:00:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
+  </si>
+  <si>
+    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
+  </si>
+  <si>
+    <t>2018-11-26T14:31:11.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HtsywV_3Ybs</t>
@@ -194,229 +419,451 @@
     <t>2019-12-16T17:17:02.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=sSqHTaUpvsg</t>
-  </si>
-  <si>
-    <t>Assurances, bonjour les dégats</t>
-  </si>
-  <si>
-    <t>2019-11-08T16:30:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wu6OdrgQQ5U</t>
-  </si>
-  <si>
-    <t>#RDLS102 : Cellule Demeter, souffrance animale, COP 25, pesticides dans l'air, retraites</t>
-  </si>
-  <si>
-    <t>2019-12-19T18:27:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WQzeOlUS9_k</t>
-  </si>
-  <si>
-    <t>Natixis // Women in Finance - 2e Job Shadowing Day</t>
-  </si>
-  <si>
-    <t>2018-11-26T14:31:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wa_RVyWj5JQ</t>
-  </si>
-  <si>
-    <t>Gilbert Collard (RN): «Il faut suspendre la grève pendant Noël !»</t>
-  </si>
-  <si>
-    <t>L'Opinion</t>
-  </si>
-  <si>
-    <t>2019-12-20T08:16:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZkByPn5GLjA</t>
-  </si>
-  <si>
-    <t>Promising Natixis CIB Young Talents - EP07 - Filippo Aldo FRASCHINI</t>
-  </si>
-  <si>
-    <t>2019-11-08T13:50:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a--JDD4Z-NA</t>
-  </si>
-  <si>
-    <t>Franjo - Un raciste au Jamel Comedy Club</t>
-  </si>
-  <si>
-    <t>2017-02-21T16:23:47.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9v2TNcJCQaM</t>
-  </si>
-  <si>
-    <t>Parisiens Vs Provinciaux #2 - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-10-14T15:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=evtCadYlR4A</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Guiraude Lame</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:45:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i1XiPPI6n44</t>
-  </si>
-  <si>
-    <t>Delevoye: «C’est un homme honnête mais sa situation rendait son maintien difficile», juge Bourlanges</t>
-  </si>
-  <si>
-    <t>2019-12-17T09:22:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZO0dsnMZhzQ</t>
-  </si>
-  <si>
-    <t>Inspection Générale de Natixis - Témoignage de Guillaume, Inspecteur</t>
-  </si>
-  <si>
-    <t>2017-05-02T14:57:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iyv8q6reeA0</t>
-  </si>
-  <si>
-    <t>les marrons glacés / les sapins de noël / marron - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-16T09:15:01.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mBz1WE7FuxU</t>
-  </si>
-  <si>
-    <t>Policiers brûlés à Viry-Châtillon. Verdict du procès / Evry (91) - France 04 décembre 2019</t>
-  </si>
-  <si>
-    <t>Line Press</t>
-  </si>
-  <si>
-    <t>2019-12-05T01:38:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y8vOw5D7TNM</t>
-  </si>
-  <si>
-    <t>Le meilleur prix à portée de clic</t>
-  </si>
-  <si>
-    <t>2019-10-12T07:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7dhIylZhKrI</t>
-  </si>
-  <si>
-    <t>Un rabais sinon rien</t>
-  </si>
-  <si>
-    <t>2019-08-31T07:00:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yuXNt7fjoxY</t>
-  </si>
-  <si>
-    <t>Les joueurs - Avec Observateur et Moorad Kateb</t>
-  </si>
-  <si>
-    <t>2019-04-15T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MsVwWO6F8X0</t>
-  </si>
-  <si>
-    <t>Le Débrancheur Vs France 2: Le Flagrant délit de Manipulation</t>
-  </si>
-  <si>
-    <t>2016-01-30T15:42:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EE1qMZ0D3ts</t>
-  </si>
-  <si>
-    <t>Meeting de Jean-Luc Mélenchon sur les retraites - #MeetingRetraites</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:54:39.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=C4quhLFUf4o</t>
-  </si>
-  <si>
-    <t>Questions/réflexions en Commission des Finances</t>
-  </si>
-  <si>
-    <t>Eric ALAUZET</t>
-  </si>
-  <si>
-    <t>2019-09-18T14:45:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0-0jCabmXKI</t>
-  </si>
-  <si>
-    <t>Mon voisin m'offre une maison</t>
-  </si>
-  <si>
-    <t>2019-12-01T08:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rVdg7IDRFLk</t>
-  </si>
-  <si>
-    <t>L'homme qui a fait plier Mc Do</t>
-  </si>
-  <si>
-    <t>2019-10-11T13:40:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BqPsdu6cFaw</t>
-  </si>
-  <si>
-    <t>Les talents sont au coeur du plan stratégique de Natixis</t>
-  </si>
-  <si>
-    <t>2018-07-13T15:56:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Y12alcdZ61g</t>
-  </si>
-  <si>
-    <t>Restez débranchés ! - S03E03 - La loi du 3 janvier 1973 [FIN DE LA SÉRIE]</t>
-  </si>
-  <si>
-    <t>2018-01-03T19:07:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f-TW6ZWlpg8</t>
-  </si>
-  <si>
-    <t>Le crevard #5</t>
-  </si>
-  <si>
-    <t>2019-06-24T16:00:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQAIcSJk3LM</t>
-  </si>
-  <si>
-    <t>Un hôpital public sacrifié sur l'autel du privé / Rambouillet (78) - France 30 novembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-01T04:09:12.000Z</t>
+    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
+  </si>
+  <si>
+    <t>Macron veut la retraite à 64 ans !</t>
+  </si>
+  <si>
+    <t>2019-12-11T20:00:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
+  </si>
+  <si>
+    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
+  </si>
+  <si>
+    <t>Telerama</t>
+  </si>
+  <si>
+    <t>2019-12-20T17:11:11.000Z</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
+  </si>
+  <si>
+    <t>Macron oublie Noël</t>
+  </si>
+  <si>
+    <t>Ridicule TV</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:28:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
+  </si>
+  <si>
+    <t>Work &amp; Life Week at Natixis in Portugal</t>
+  </si>
+  <si>
+    <t>2019-12-16T08:21:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
+  </si>
+  <si>
+    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
+  </si>
+  <si>
+    <t>KrisSdeNerf</t>
+  </si>
+  <si>
+    <t>2019-11-30T05:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
+  </si>
+  <si>
+    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-09T11:12:12.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
+  </si>
+  <si>
+    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-17T17:19:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
+  </si>
+  <si>
+    <t>La détermination doit vaincre les craintes</t>
+  </si>
+  <si>
+    <t>Demo Sophie</t>
+  </si>
+  <si>
+    <t>2019-12-09T23:25:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
+  </si>
+  <si>
+    <t>Les baisés comptez-vous !</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:14:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
+  </si>
+  <si>
+    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
+  </si>
+  <si>
+    <t>Alix a Toujours Raison VS Alixator Officiel</t>
+  </si>
+  <si>
+    <t>2019-12-19T20:01:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
+  </si>
+  <si>
+    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
+  </si>
+  <si>
+    <t>Pierre-Emmanuel Barré</t>
+  </si>
+  <si>
+    <t>2019-04-06T13:45:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
+  </si>
+  <si>
+    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
+  </si>
+  <si>
+    <t>Michel Taupin, résistant</t>
+  </si>
+  <si>
+    <t>2019-04-23T22:53:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
+  </si>
+  <si>
+    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
+  </si>
+  <si>
+    <t>2019-12-20T11:59:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
+  </si>
+  <si>
+    <t>2019-12-15T17:47:26.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que le vrai esprit de Noël !</t>
+  </si>
+  <si>
+    <t>2019-12-21T21:46:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
+  </si>
+  <si>
+    <t>Va-t-on vers une dédollarisation des échanges?</t>
+  </si>
+  <si>
+    <t>Anne Genetet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:14:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
+  </si>
+  <si>
+    <t>Les pires cadeaux de Noël</t>
+  </si>
+  <si>
+    <t>2019-12-24T17:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
+  </si>
+  <si>
+    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:58:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
+  </si>
+  <si>
+    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>ARTE Radio</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:30:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
+  </si>
+  <si>
+    <t>Besançon subventionne le sport automobile</t>
+  </si>
+  <si>
+    <t>Le Compost</t>
+  </si>
+  <si>
+    <t>2019-12-18T18:50:33.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
+  </si>
+  <si>
+    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
+  </si>
+  <si>
+    <t>2019-06-12T18:00:03.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
+  </si>
+  <si>
+    <t>2019-12-24T09:20:25.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
+  </si>
+  <si>
+    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:24:22.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
+  </si>
+  <si>
+    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
+  </si>
+  <si>
+    <t>Secretariat Elisabeth Toutut-Picard</t>
+  </si>
+  <si>
+    <t>2019-12-17T15:51:57.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
+  </si>
+  <si>
+    <t>Comprendre la future crise économique mondiale</t>
+  </si>
+  <si>
+    <t>2019-12-22T16:54:17.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
+  </si>
+  <si>
+    <t>Les voyageurs relous - Avec Nino Arial</t>
+  </si>
+  <si>
+    <t>2019-12-09T17:00:07.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
+  </si>
+  <si>
+    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
+  </si>
+  <si>
+    <t>hommes libres</t>
+  </si>
+  <si>
+    <t>2019-12-10T12:12:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
+  </si>
+  <si>
+    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
+  </si>
+  <si>
+    <t>2019-12-15T21:55:15.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
+  </si>
+  <si>
+    <t>2019-12-19T13:10:42.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
+  </si>
+  <si>
+    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
+  </si>
+  <si>
+    <t>2019-12-15T13:04:41.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
+  </si>
+  <si>
+    <t>Proces Milan teaser</t>
+  </si>
+  <si>
+    <t>2019-12-21T22:07:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
+  </si>
+  <si>
+    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-19T09:00:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
+  </si>
+  <si>
+    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
+  </si>
+  <si>
+    <t>2019-12-18T17:08:49.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
+  </si>
+  <si>
+    <t>Commission Développement durable du 27 novembre</t>
+  </si>
+  <si>
+    <t>2019-11-28T14:00:58.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
+  </si>
+  <si>
+    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:11:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
+  </si>
+  <si>
+    <t>Stationnement sauvage à Besançon</t>
+  </si>
+  <si>
+    <t>2019-12-15T20:25:02.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
+  </si>
+  <si>
+    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-09T22:08:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
+  </si>
+  <si>
+    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-19T03:07:38.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
+  </si>
+  <si>
+    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
+  </si>
+  <si>
+    <t>Nicole Dubré Chirat</t>
+  </si>
+  <si>
+    <t>2019-12-17T16:27:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
+  </si>
+  <si>
+    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
+  </si>
+  <si>
+    <t>2019-12-23T11:56:32.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
+  </si>
+  <si>
+    <t>Le cadeau de la France à tous les peuples du monde</t>
+  </si>
+  <si>
+    <t>2019-12-25T15:53:44.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
+  </si>
+  <si>
+    <t>Les prophéties de Christophe Barbier</t>
+  </si>
+  <si>
+    <t>2019-12-16T17:17:16.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
+  </si>
+  <si>
+    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
+  </si>
+  <si>
+    <t>2019-12-13T16:42:52.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
+  </si>
+  <si>
+    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
+  </si>
+  <si>
+    <t>2019-12-16T13:15:11.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
+  </si>
+  <si>
+    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:30:02.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=hunC0XqAc98</t>
@@ -428,28 +875,187 @@
     <t>2019-12-21T03:07:27.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9q1XiwoBzx4</t>
-  </si>
-  <si>
-    <t>Manifestation d'hommage à Alexandros Grigoropoulos / Athènes - Grèce 06 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-19T03:07:38.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mJcQQO-hYOc</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de littérature vue par Adrien Bosc</t>
-  </si>
-  <si>
-    <t>Telerama</t>
-  </si>
-  <si>
-    <t>2019-12-16T13:15:11.000Z</t>
-  </si>
-  <si>
-    <t>unknown</t>
+    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-26T22:08:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
+  </si>
+  <si>
+    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
+  </si>
+  <si>
+    <t>2019-12-19T17:59:43.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
+  </si>
+  <si>
+    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T06:32:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
+  </si>
+  <si>
+    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
+  </si>
+  <si>
+    <t>2019-12-28T19:53:21.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
+  </si>
+  <si>
+    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-21T15:00:09.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
+  </si>
+  <si>
+    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
+  </si>
+  <si>
+    <t>2019-12-25T19:59:37.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
+  </si>
+  <si>
+    <t>D Trump discours révolutionnaire</t>
+  </si>
+  <si>
+    <t>Moi HENOC</t>
+  </si>
+  <si>
+    <t>2018-02-12T11:51:48.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
+  </si>
+  <si>
+    <t>Bonne année 2020!</t>
+  </si>
+  <si>
+    <t>2019-12-25T11:12:29.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
+  </si>
+  <si>
+    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
+  </si>
+  <si>
+    <t>2019-12-27T11:29:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
+  </si>
+  <si>
+    <t>Impact du Procès de Milan sur la France et le monde</t>
+  </si>
+  <si>
+    <t>2019-12-27T15:54:18.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
+  </si>
+  <si>
+    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-26T16:00:04.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
+  </si>
+  <si>
+    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
+  </si>
+  <si>
+    <t>2019-12-24T10:10:35.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
+  </si>
+  <si>
+    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
+  </si>
+  <si>
+    <t>2019-12-05T08:00:05.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
+  </si>
+  <si>
+    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-12T17:11:10.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
+  </si>
+  <si>
+    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
+  </si>
+  <si>
+    <t>2019-12-28T04:01:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
+  </si>
+  <si>
+    <t>Le Nouvel Ordre Local est né !</t>
+  </si>
+  <si>
+    <t>2019-12-14T01:33:50.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
+  </si>
+  <si>
+    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
+  </si>
+  <si>
+    <t>2019-12-18T21:49:46.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
+  </si>
+  <si>
+    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
+  </si>
+  <si>
+    <t>2019-12-12T15:15:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
+  </si>
+  <si>
+    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
+  </si>
+  <si>
+    <t>2019-12-23T09:00:06.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
+  </si>
+  <si>
+    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
+  </si>
+  <si>
+    <t>2019-11-04T20:42:13.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=MSNZgx5KlLU</t>
@@ -458,250 +1064,91 @@
     <t>Exclusif ! Procès de Milan   Premiers extraits, information censurée dans tous les médias français</t>
   </si>
   <si>
-    <t>Demo Sophie</t>
-  </si>
-  <si>
     <t>2019-12-24T11:57:18.000Z</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
+  </si>
+  <si>
+    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
+  </si>
+  <si>
+    <t>2019-12-12T13:19:08.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
+  </si>
+  <si>
+    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
+  </si>
+  <si>
+    <t>2019-12-11T11:48:28.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
+  </si>
+  <si>
+    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
+  </si>
+  <si>
+    <t>2019-12-27T16:30:00.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
+  </si>
+  <si>
+    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
+  </si>
+  <si>
+    <t>bilbu bilou</t>
+  </si>
+  <si>
+    <t>2019-01-28T18:58:55.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
+  </si>
+  <si>
+    <t>Protéger notre patrimoine forestier</t>
+  </si>
+  <si>
+    <t>2017-05-12T12:03:56.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
+  </si>
+  <si>
+    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
+  </si>
+  <si>
+    <t>2019-12-19T16:45:27.000Z</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=w1V5g32xaFQ</t>
   </si>
   <si>
     <t>Macron oublie Noël (Partie 2)</t>
   </si>
   <si>
-    <t>Ridicule TV</t>
-  </si>
-  <si>
     <t>2019-12-26T11:09:42.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rGXF5DXUUy4</t>
-  </si>
-  <si>
-    <t>Déclaration choc ⚡️ sur Nathalie Loiseau: Elle est toujours d'extrême droite !</t>
-  </si>
-  <si>
-    <t>Michel Taupin, résistant</t>
-  </si>
-  <si>
-    <t>2019-04-23T22:53:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TkOn6PE3UcY</t>
-  </si>
-  <si>
-    <t>Commission Développement durable du 27 novembre</t>
-  </si>
-  <si>
-    <t>2019-11-28T14:00:58.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=duRinYScv9Y</t>
-  </si>
-  <si>
-    <t>C'est Noël 🎄 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>ARTE Radio</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:30:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7CvNuVZclCI</t>
-  </si>
-  <si>
-    <t>Va-t-on vers une dédollarisation des échanges?</t>
-  </si>
-  <si>
-    <t>Anne Genetet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:14:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RzC-K8lpCuQ</t>
-  </si>
-  <si>
-    <t>De Blanche-Neige à Calamity Jane, les muses de François Roca</t>
-  </si>
-  <si>
-    <t>2019-12-20T17:11:11.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=RUp7IekmZ1I</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de théâtre vue par Stanislas Nordey</t>
-  </si>
-  <si>
-    <t>2019-12-24T09:20:25.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cFOegAH3esI</t>
-  </si>
-  <si>
-    <t>la marie-louise / la Prusse - Replay Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-09T11:12:12.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tJCMOtfyTqU</t>
-  </si>
-  <si>
-    <t>Proces Milan teaser</t>
-  </si>
-  <si>
-    <t>2019-12-21T22:07:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vcelu7tp3y0</t>
-  </si>
-  <si>
-    <t>Le sommet des BRICS à Brasilia. 17.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-17T17:19:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PJvERnA4thU</t>
-  </si>
-  <si>
-    <t>Extinction Rébellion s'enchaîne aux distributeurs de tickets du tram</t>
-  </si>
-  <si>
-    <t>Le Compost</t>
-  </si>
-  <si>
-    <t>2019-11-04T20:42:13.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NZQb6MovOTQ</t>
-  </si>
-  <si>
-    <t>besancenot :" qui peut croire que ce gouvernement est pour l'egalité sociale "</t>
-  </si>
-  <si>
-    <t>hommes libres</t>
-  </si>
-  <si>
-    <t>2019-12-10T12:12:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KYFQehyRVuY</t>
-  </si>
-  <si>
-    <t>Procès de Milan J-2. Rendez-vous le 25 décembre à 17h</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:11:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9F_eY6vJA</t>
-  </si>
-  <si>
-    <t>Nouvelle-Calédonie : Sous le vent de l'usine</t>
-  </si>
-  <si>
-    <t>2019-12-27T16:30:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w00rMt8ounw</t>
-  </si>
-  <si>
-    <t>D Trump discours révolutionnaire</t>
-  </si>
-  <si>
-    <t>Moi HENOC</t>
-  </si>
-  <si>
-    <t>2018-02-12T11:51:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1u_GA7CqHx4</t>
-  </si>
-  <si>
-    <t>Retraites: Emmanuel Macron sort du silence et défend une réforme «historique»</t>
-  </si>
-  <si>
-    <t>2019-12-13T16:42:52.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NH_QkzARjLI</t>
-  </si>
-  <si>
-    <t>Les voyageurs relous - Avec Nino Arial</t>
-  </si>
-  <si>
-    <t>2019-12-09T17:00:07.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kVIUAIecmpw</t>
-  </si>
-  <si>
-    <t>PEUPLE SOUVERAIN, SOIT-LE !!!</t>
-  </si>
-  <si>
-    <t>2019-12-28T19:53:21.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=a2-hlDCdsoY</t>
-  </si>
-  <si>
-    <t>MERCI À TOUS CEUX QUI FONT GRÈVE, SURTOUT CEUX DE LA SNCF !</t>
-  </si>
-  <si>
-    <t>Alix a Toujours Raison VS Alixator Officiel</t>
-  </si>
-  <si>
-    <t>2019-12-18T21:49:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3GOvxntPk9w</t>
-  </si>
-  <si>
-    <t>En Inde, les manifestations continuent contre une loi jugée anti-musulmans</t>
-  </si>
-  <si>
-    <t>2019-12-18T17:08:49.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w8ump5eWlTI</t>
-  </si>
-  <si>
-    <t>Stationnement sauvage à Besançon</t>
-  </si>
-  <si>
-    <t>2019-12-15T20:25:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VEhCdI3oUEo</t>
-  </si>
-  <si>
-    <t>Certifié Restez Débranchés #1 SHOAH VS ESCLAVAGE??</t>
-  </si>
-  <si>
-    <t>2019-06-12T18:00:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEGiLq2U8Iw</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites / Paris - France 12 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-26T22:08:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=uhkCuFtjYX8</t>
-  </si>
-  <si>
-    <t>Retraites: Edouard Philippe réaffirme «la détermination totale du gouvernement»</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:58:46.000Z</t>
+    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
+  </si>
+  <si>
+    <t>Médecine russe, cas concret. 23.12.2019</t>
+  </si>
+  <si>
+    <t>2019-12-27T13:43:31.000Z</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
+  </si>
+  <si>
+    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
+  </si>
+  <si>
+    <t>2019-11-06T16:06:03.000Z</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=bQm7sFGFDsg</t>
@@ -713,81 +1160,6 @@
     <t>2019-12-24T11:48:38.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JXhDRIqGc0s</t>
-  </si>
-  <si>
-    <t>Qu'est-ce que le vrai esprit de Noël !</t>
-  </si>
-  <si>
-    <t>2019-12-21T21:46:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t-CGdSUxOjM</t>
-  </si>
-  <si>
-    <t>Macron oublie Noël</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:28:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fODqsy1s6ts</t>
-  </si>
-  <si>
-    <t>un plaisir à déguster les mois en "R"- Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-23T09:00:06.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=73rRCcRFvqg</t>
-  </si>
-  <si>
-    <t>Les pires cadeaux de Noël</t>
-  </si>
-  <si>
-    <t>2019-12-24T17:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=NS65E4Skx0I</t>
-  </si>
-  <si>
-    <t>Liban: nouveau report de la désignation d’un Premier ministre après un week-end de manifestation</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:24:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oxiDv8xpKTI</t>
-  </si>
-  <si>
-    <t>Bonne année 2020!</t>
-  </si>
-  <si>
-    <t>2019-12-25T11:12:29.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=t97EP1X2ehg</t>
-  </si>
-  <si>
-    <t>Projet de loi Anti Gaspillage et Economie Circulaire : Perturbateurs endocriniens dans les produits.</t>
-  </si>
-  <si>
-    <t>Secretariat Elisabeth Toutut-Picard</t>
-  </si>
-  <si>
-    <t>2019-12-12T13:19:08.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ieJpe0x3Mkg</t>
-  </si>
-  <si>
-    <t>RETRAITES, DETTE FRANÇAISE, RADARS, JUSTICE..etc.. UNE ESCROQUERIE SCANDALEUSE !</t>
-  </si>
-  <si>
-    <t>2019-12-15T21:55:15.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=5chV-n6zEMs</t>
   </si>
   <si>
@@ -800,147 +1172,6 @@
     <t>2019-04-25T10:47:19.000Z</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s7C-4U1SFic</t>
-  </si>
-  <si>
-    <t>Semaine Barré #11 "Le Brexit pour les nuls"</t>
-  </si>
-  <si>
-    <t>Pierre-Emmanuel Barré</t>
-  </si>
-  <si>
-    <t>2019-04-06T13:45:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YN4Ylu0XF6w</t>
-  </si>
-  <si>
-    <t>Vitalité artistique: «Kinshasa est une ville qui ne dort pas», soutient l’artiste congolais Fre</t>
-  </si>
-  <si>
-    <t>2019-12-23T11:56:32.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PvyaxpmmF54</t>
-  </si>
-  <si>
-    <t>Le Nouvel Ordre Local est né !</t>
-  </si>
-  <si>
-    <t>2019-12-14T01:33:50.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=P5U1NJZKq7o</t>
-  </si>
-  <si>
-    <t>Retraites : «Nous sommes au service de la lutte» - Mélenchon</t>
-  </si>
-  <si>
-    <t>2019-12-24T10:10:35.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hbA9UVfr98</t>
-  </si>
-  <si>
-    <t>Protéger notre patrimoine forestier</t>
-  </si>
-  <si>
-    <t>2017-05-12T12:03:56.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DkqO68x9rgk</t>
-  </si>
-  <si>
-    <t>Médecine russe, cas concret. 23.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T13:43:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MmPIJMtno8w</t>
-  </si>
-  <si>
-    <t>Disney+ : déjà 24 millions d’abonnés aux Etats-Unis !</t>
-  </si>
-  <si>
-    <t>2019-12-19T17:59:43.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN0WOe0oFCk</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie d'art vue par Jean-Michel Othoniel</t>
-  </si>
-  <si>
-    <t>2019-12-19T13:10:42.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JzxUfViagS8</t>
-  </si>
-  <si>
-    <t>Mon amendement sur l'obsolescence programmée-commois - 12 12 19</t>
-  </si>
-  <si>
-    <t>Nicole Dubré Chirat</t>
-  </si>
-  <si>
-    <t>2019-12-17T16:27:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-fHVY-G05Z0</t>
-  </si>
-  <si>
-    <t>Convoquée à propos de sa mission d'ambassadrice des Pôles, Ségolène Royal contre-attaque</t>
-  </si>
-  <si>
-    <t>2019-12-27T11:29:46.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=TpJNR5PmHeY</t>
-  </si>
-  <si>
-    <t>Stress à tous les étages | Fenêtre sur cour 18 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-26T16:00:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=62Xp5xKEADc</t>
-  </si>
-  <si>
-    <t>Les baisés comptez-vous !</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:14:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=MQS3oFnP0yo</t>
-  </si>
-  <si>
-    <t>Women in Finance // Le Top Job de Soliane Varlet</t>
-  </si>
-  <si>
-    <t>2019-12-11T11:48:28.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U474pX2L0jI</t>
-  </si>
-  <si>
-    <t>100% du PIB de dette: l’échec d’Emmanuel Macron</t>
-  </si>
-  <si>
-    <t>2019-12-20T11:59:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wvUcMmdbB1A</t>
-  </si>
-  <si>
-    <t>The Village | Crackopolis - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-19T16:45:27.000Z</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gR6OiAwqHRs</t>
   </si>
   <si>
@@ -948,237 +1179,6 @@
   </si>
   <si>
     <t>2019-12-17T16:50:05.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7lWb9-bfObQ</t>
-  </si>
-  <si>
-    <t>5 novembre 2019- Ma question à J. GOURAULT et S. LECORNU</t>
-  </si>
-  <si>
-    <t>2019-11-06T16:06:03.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lc6w03KC7OI</t>
-  </si>
-  <si>
-    <t>La Servitude Volontaire - Partie 6 - La Boétie</t>
-  </si>
-  <si>
-    <t>KrisSdeNerf</t>
-  </si>
-  <si>
-    <t>2019-11-30T05:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oGnJ3bwD6J8</t>
-  </si>
-  <si>
-    <t>Un crime d'amour-propre | Fenêtre sur cour 16 - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-12T17:11:10.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EuMo3O7j1qk</t>
-  </si>
-  <si>
-    <t>Ceci n'est pas un marronnier... - Karambolage - ARTE</t>
-  </si>
-  <si>
-    <t>2019-12-19T09:00:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WUMMY48iqEU</t>
-  </si>
-  <si>
-    <t>Comprendre la future crise économique mondiale</t>
-  </si>
-  <si>
-    <t>2019-12-22T16:54:17.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8s18kuHitDo</t>
-  </si>
-  <si>
-    <t>Témoignage d'un étudiant en journalisme interpellé le 5 décembre / Paris - France 09 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-09T22:08:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=k90gtSyQrG0</t>
-  </si>
-  <si>
-    <t>Blocage d'un dépôt de bus de la RATP / Vitry-sur-Seine (94) - France 27 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-28T04:01:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VvcgFQErpiU</t>
-  </si>
-  <si>
-    <t>2010-2020 : une décennie de télé vue par Élise Lucet</t>
-  </si>
-  <si>
-    <t>2019-12-15T17:47:26.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YQp5smGdKgE</t>
-  </si>
-  <si>
-    <t>Gilet Jaune 26/01: Un CRS pas très doué avec ses grenades.</t>
-  </si>
-  <si>
-    <t>bilbu bilou</t>
-  </si>
-  <si>
-    <t>2019-01-28T18:58:55.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gOR7wzMUf7M</t>
-  </si>
-  <si>
-    <t>La détermination doit vaincre les craintes</t>
-  </si>
-  <si>
-    <t>2019-12-09T23:25:04.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UEZwXac47o4</t>
-  </si>
-  <si>
-    <t>Manifestation contre la réforme des retraites. Quelques incidents / Paris - France 17 décembre 2019</t>
-  </si>
-  <si>
-    <t>2019-12-27T06:32:48.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F2OFBkTURwo</t>
-  </si>
-  <si>
-    <t>Réponse de Mr Dubreuil proposé aux fonctions de DG de l’Office français de la biodiversité".</t>
-  </si>
-  <si>
-    <t>2019-12-17T15:51:57.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PlYf06tcskw</t>
-  </si>
-  <si>
-    <t>Festival cinéma Télérama 2020 - bande-annonce</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:15:00.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KkfHMwRDsNI</t>
-  </si>
-  <si>
-    <t>Macron veut la retraite à 64 ans !</t>
-  </si>
-  <si>
-    <t>2019-12-11T20:00:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=x1wfAy9rncg</t>
-  </si>
-  <si>
-    <t>Impact du Procès de Milan sur la France et le monde</t>
-  </si>
-  <si>
-    <t>2019-12-27T15:54:18.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AFRdRXv9is8</t>
-  </si>
-  <si>
-    <t>Les prophéties de Christophe Barbier</t>
-  </si>
-  <si>
-    <t>2019-12-16T17:17:16.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rAAKx6v4NWA</t>
-  </si>
-  <si>
-    <t>Les élections municipales russes, suite et fin. 8.12.2019</t>
-  </si>
-  <si>
-    <t>2019-12-12T15:30:02.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=i5tuOFKDfEU</t>
-  </si>
-  <si>
-    <t>Jean Paul Delevoye, cumulard de l’extrême !</t>
-  </si>
-  <si>
-    <t>2019-12-15T13:04:41.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=mwUV-vI2E_4</t>
-  </si>
-  <si>
-    <t>Work &amp; Life Week at Natixis in Portugal</t>
-  </si>
-  <si>
-    <t>2019-12-16T08:21:31.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IMj7S-UfARs</t>
-  </si>
-  <si>
-    <t>#NOL - Ce Soir On En Parle : Lien du Live dans la description</t>
-  </si>
-  <si>
-    <t>2019-12-19T20:01:22.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=iGaKhrEtrco</t>
-  </si>
-  <si>
-    <t>Il vole au secours des migrants | Les histoires de 28' - ARTE Radio Podcast</t>
-  </si>
-  <si>
-    <t>2019-12-21T15:00:09.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=d3F_UaE7RjA</t>
-  </si>
-  <si>
-    <t>Besançon subventionne le sport automobile</t>
-  </si>
-  <si>
-    <t>2019-12-18T18:50:33.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5yVSGj0UEA8</t>
-  </si>
-  <si>
-    <t>Le cadeau de la France à tous les peuples du monde</t>
-  </si>
-  <si>
-    <t>2019-12-25T15:53:44.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ov84Ncq7jXY</t>
-  </si>
-  <si>
-    <t>JOYEUX NOËL À TOUS ET TOUS MES VŒUX POUR LA NOUVELLE ANNÉE !</t>
-  </si>
-  <si>
-    <t>2019-12-25T19:59:37.000Z</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IQvZm9V8sAs</t>
-  </si>
-  <si>
-    <t>Quand les Gilets Jaunes bloquent les entrepôts d'Amazon</t>
-  </si>
-  <si>
-    <t>2019-12-05T08:00:05.000Z</t>
   </si>
   <si>
     <t>Views on this channel for 30 days</t>
@@ -1646,13 +1646,13 @@
         <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>844</v>
+        <v>9999</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
@@ -1681,13 +1681,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="3">
-        <v>23164</v>
+        <v>4759</v>
       </c>
       <c r="F5" s="3">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="G5" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
@@ -1716,13 +1716,13 @@
         <v>29</v>
       </c>
       <c r="E6" s="3">
-        <v>88</v>
+        <v>18665</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>659</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
@@ -1745,19 +1745,19 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>617</v>
+        <v>74953</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
         <v>21</v>
@@ -1780,19 +1780,19 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="3">
-        <v>13867</v>
+        <v>69498</v>
       </c>
       <c r="F8" s="3">
-        <v>934</v>
+        <v>1189</v>
       </c>
       <c r="G8" s="3">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
@@ -1809,25 +1809,25 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3">
-        <v>8644</v>
+        <v>23164</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
@@ -1844,34 +1844,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3">
+        <v>8968</v>
+      </c>
+      <c r="F10" s="3">
+        <v>117</v>
+      </c>
+      <c r="G10" s="3">
+        <v>15</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>43</v>
-      </c>
-      <c r="E10" s="3">
-        <v>18665</v>
-      </c>
-      <c r="F10" s="3">
-        <v>659</v>
-      </c>
-      <c r="G10" s="3">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>109</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
@@ -1879,25 +1879,25 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="3">
-        <v>8968</v>
+        <v>52652</v>
       </c>
       <c r="F11" s="3">
-        <v>117</v>
+        <v>7833</v>
       </c>
       <c r="G11" s="3">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1906,68 +1906,68 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" s="3">
+        <v>511312</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15167</v>
+      </c>
+      <c r="G12" s="3">
+        <v>402</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>201</v>
+      </c>
+      <c r="L12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="3">
-        <v>566966</v>
-      </c>
-      <c r="F12" s="3">
-        <v>18782</v>
-      </c>
-      <c r="G12" s="3">
-        <v>416</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>298</v>
-      </c>
-      <c r="L12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="3">
-        <v>3484</v>
+        <v>2078</v>
       </c>
       <c r="F13" s="3">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1984,25 +1984,25 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
       <c r="E14" s="3">
-        <v>62509</v>
+        <v>428</v>
       </c>
       <c r="F14" s="3">
-        <v>4841</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
@@ -2019,25 +2019,25 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="3">
-        <v>3080</v>
+        <v>24890</v>
       </c>
       <c r="F15" s="3">
-        <v>58</v>
+        <v>1321</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
@@ -2054,25 +2054,25 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3">
-        <v>52652</v>
+        <v>23702</v>
       </c>
       <c r="F16" s="3">
-        <v>7833</v>
+        <v>3315</v>
       </c>
       <c r="G16" s="3">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -2089,25 +2089,25 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" s="3">
-        <v>2053</v>
+        <v>1237</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -2124,25 +2124,25 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="3">
-        <v>170</v>
+        <v>844</v>
       </c>
       <c r="F18" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -2159,25 +2159,25 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
       <c r="E19" s="3">
-        <v>87</v>
+        <v>222595</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>9022</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2186,33 +2186,33 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="3">
-        <v>4183126</v>
+        <v>617</v>
       </c>
       <c r="F20" s="3">
-        <v>49430</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2221,33 +2221,33 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="B21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" s="3">
-        <v>472979</v>
+        <v>4183126</v>
       </c>
       <c r="F21" s="3">
-        <v>20185</v>
+        <v>49430</v>
       </c>
       <c r="G21" s="3">
-        <v>515</v>
+        <v>5701</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2256,27 +2256,27 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>260</v>
+        <v>1196</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="3">
-        <v>46</v>
+        <v>4640</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -2299,22 +2299,22 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
       <c r="E23" s="3">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -2334,19 +2334,19 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
       <c r="E24" s="3">
-        <v>4640</v>
+        <v>8644</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2369,25 +2369,25 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
         <v>90</v>
       </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
       <c r="E25" s="3">
-        <v>9999</v>
+        <v>46</v>
       </c>
       <c r="F25" s="3">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -2404,25 +2404,25 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
       <c r="E26" s="3">
-        <v>2078</v>
+        <v>2883</v>
       </c>
       <c r="F26" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -2439,25 +2439,25 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
-        <v>2883</v>
+        <v>566966</v>
       </c>
       <c r="F27" s="3">
-        <v>42</v>
+        <v>18782</v>
       </c>
       <c r="G27" s="3">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -2466,33 +2466,33 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="L27" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>25592</v>
+        <v>3080</v>
       </c>
       <c r="F28" s="3">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -2509,25 +2509,25 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" s="3">
-        <v>222595</v>
+        <v>3484</v>
       </c>
       <c r="F29" s="3">
-        <v>9022</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -2536,33 +2536,33 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="L29" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
       <c r="E30" s="3">
-        <v>69498</v>
+        <v>13867</v>
       </c>
       <c r="F30" s="3">
-        <v>1189</v>
+        <v>934</v>
       </c>
       <c r="G30" s="3">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
         <v>21</v>
@@ -2579,25 +2579,25 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
         <v>109</v>
       </c>
-      <c r="B31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>111</v>
-      </c>
       <c r="E31" s="3">
-        <v>23702</v>
+        <v>472979</v>
       </c>
       <c r="F31" s="3">
-        <v>3315</v>
+        <v>20185</v>
       </c>
       <c r="G31" s="3">
-        <v>72</v>
+        <v>515</v>
       </c>
       <c r="H31" s="3">
         <v>1</v>
@@ -2606,24 +2606,24 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>113</v>
-      </c>
-      <c r="C32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>115</v>
       </c>
       <c r="E32" s="3">
         <v>41</v>
@@ -2649,25 +2649,25 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
       <c r="E33" s="3">
-        <v>74953</v>
+        <v>27</v>
       </c>
       <c r="F33" s="3">
-        <v>1016</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="L33" t="s">
         <v>21</v>
@@ -2684,25 +2684,25 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>46</v>
       </c>
       <c r="D34" t="s">
         <v>121</v>
       </c>
       <c r="E34" s="3">
-        <v>4759</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -2725,19 +2725,19 @@
         <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>124</v>
       </c>
       <c r="E35" s="3">
-        <v>428</v>
+        <v>170</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
@@ -2760,19 +2760,19 @@
         <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>127</v>
       </c>
       <c r="E36" s="3">
-        <v>24890</v>
+        <v>25592</v>
       </c>
       <c r="F36" s="3">
-        <v>1321</v>
+        <v>221</v>
       </c>
       <c r="G36" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H36" s="3">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -2795,19 +2795,19 @@
         <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="3">
-        <v>511312</v>
+        <v>2053</v>
       </c>
       <c r="F37" s="3">
-        <v>15167</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>1</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2830,19 +2830,19 @@
         <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>1237</v>
+        <v>62509</v>
       </c>
       <c r="F38" s="3">
-        <v>51</v>
+        <v>4841</v>
       </c>
       <c r="G38" s="3">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>526</v>
       </c>
       <c r="L38" t="s">
         <v>21</v>
@@ -2865,19 +2865,19 @@
         <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>322</v>
+        <v>106303</v>
       </c>
       <c r="F39" s="3">
-        <v>16</v>
+        <v>4496</v>
       </c>
       <c r="G39" s="3">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>1797</v>
       </c>
       <c r="L39" t="s">
         <v>21</v>
@@ -2900,19 +2900,19 @@
         <v>138</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E40" s="3">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="F40" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
         <v>21</v>
@@ -2929,25 +2929,25 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L41" t="s">
         <v>21</v>
@@ -2964,25 +2964,25 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>148</v>
       </c>
       <c r="E42" s="3">
-        <v>3021</v>
+        <v>52</v>
       </c>
       <c r="F42" s="3">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L42" t="s">
         <v>21</v>
@@ -3011,13 +3011,13 @@
         <v>152</v>
       </c>
       <c r="E43" s="3">
-        <v>1185</v>
+        <v>2165</v>
       </c>
       <c r="F43" s="3">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="G43" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="L43" t="s">
         <v>21</v>
@@ -3040,19 +3040,19 @@
         <v>154</v>
       </c>
       <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
         <v>155</v>
       </c>
-      <c r="D44" t="s">
-        <v>156</v>
-      </c>
       <c r="E44" s="3">
-        <v>1921</v>
+        <v>11977</v>
       </c>
       <c r="F44" s="3">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="G44" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -3069,25 +3069,25 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
         <v>158</v>
       </c>
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
-      </c>
       <c r="E45" s="3">
-        <v>9</v>
+        <v>4508</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L45" t="s">
         <v>21</v>
@@ -3104,25 +3104,25 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" t="s">
         <v>160</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>162</v>
       </c>
-      <c r="D46" t="s">
-        <v>163</v>
-      </c>
       <c r="E46" s="3">
-        <v>346</v>
+        <v>7431</v>
       </c>
       <c r="F46" s="3">
-        <v>16</v>
+        <v>661</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="L46" t="s">
         <v>21</v>
@@ -3139,25 +3139,25 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
         <v>164</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
         <v>165</v>
       </c>
-      <c r="C47" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" t="s">
-        <v>167</v>
-      </c>
       <c r="E47" s="3">
-        <v>21</v>
+        <v>1080</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47" t="s">
         <v>21</v>
@@ -3174,25 +3174,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>169</v>
       </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>170</v>
-      </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>21</v>
@@ -3209,25 +3209,25 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" t="s">
         <v>171</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>172</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
       </c>
       <c r="D49" t="s">
         <v>173</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>269112</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>5243</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
@@ -3250,19 +3250,19 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E50" s="3">
-        <v>11977</v>
+        <v>1921</v>
       </c>
       <c r="F50" s="3">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="G50" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="L50" t="s">
         <v>21</v>
@@ -3279,25 +3279,25 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E51" s="3">
-        <v>5083</v>
+        <v>32</v>
       </c>
       <c r="F51" s="3">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>21</v>
@@ -3314,25 +3314,25 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E52" s="3">
-        <v>4508</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L52" t="s">
         <v>21</v>
@@ -3349,25 +3349,25 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
         <v>186</v>
       </c>
       <c r="E53" s="3">
-        <v>43</v>
+        <v>1084</v>
       </c>
       <c r="F53" s="3">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="s">
         <v>21</v>
@@ -3396,13 +3396,13 @@
         <v>190</v>
       </c>
       <c r="E54" s="3">
-        <v>5563</v>
+        <v>21</v>
       </c>
       <c r="F54" s="3">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L54" t="s">
         <v>21</v>
@@ -3425,19 +3425,19 @@
         <v>192</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>193</v>
       </c>
       <c r="E55" s="3">
-        <v>2848</v>
+        <v>126844</v>
       </c>
       <c r="F55" s="3">
-        <v>523</v>
+        <v>8977</v>
       </c>
       <c r="G55" s="3">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s">
         <v>21</v>
@@ -3460,28 +3460,28 @@
         <v>195</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
         <v>196</v>
       </c>
       <c r="E56" s="3">
-        <v>2959</v>
+        <v>52</v>
       </c>
       <c r="F56" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
         <v>2</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>3</v>
       </c>
       <c r="L56" t="s">
         <v>21</v>
@@ -3501,13 +3501,13 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>656</v>
+        <v>346</v>
       </c>
       <c r="F57" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G57" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
         <v>21</v>
@@ -3530,19 +3530,19 @@
         <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E58" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3559,25 +3559,25 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59" s="3">
-        <v>113046</v>
+        <v>4711</v>
       </c>
       <c r="F59" s="3">
-        <v>8422</v>
+        <v>387</v>
       </c>
       <c r="G59" s="3">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s">
         <v>21</v>
@@ -3594,25 +3594,25 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E60" s="3">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3629,25 +3629,25 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
         <v>213</v>
       </c>
       <c r="E61" s="3">
-        <v>691</v>
+        <v>6</v>
       </c>
       <c r="F61" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
         <v>21</v>
@@ -3699,25 +3699,25 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E63" s="3">
-        <v>226</v>
+        <v>1517</v>
       </c>
       <c r="F63" s="3">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G63" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L63" t="s">
         <v>21</v>
@@ -3734,25 +3734,25 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E64" s="3">
-        <v>4711</v>
+        <v>113046</v>
       </c>
       <c r="F64" s="3">
-        <v>387</v>
+        <v>8422</v>
       </c>
       <c r="G64" s="3">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L64" t="s">
         <v>21</v>
@@ -3769,25 +3769,25 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E65" s="3">
-        <v>175</v>
+        <v>5563</v>
       </c>
       <c r="F65" s="3">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="G65" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="L65" t="s">
         <v>21</v>
@@ -3804,25 +3804,25 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E66" s="3">
-        <v>52</v>
+        <v>1663</v>
       </c>
       <c r="F66" s="3">
-        <v>1</v>
+        <v>218</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" t="s">
         <v>21</v>
@@ -3839,25 +3839,25 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E67" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G67" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67" t="s">
         <v>21</v>
@@ -3874,25 +3874,25 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E68" s="3">
-        <v>1084</v>
+        <v>653</v>
       </c>
       <c r="F68" s="3">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G68" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L68" t="s">
         <v>21</v>
@@ -3909,25 +3909,25 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E69" s="3">
-        <v>641</v>
+        <v>5083</v>
       </c>
       <c r="F69" s="3">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L69" t="s">
         <v>21</v>
@@ -3944,25 +3944,25 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E70" s="3">
-        <v>7772</v>
+        <v>2352</v>
       </c>
       <c r="F70" s="3">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="G70" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L70" t="s">
         <v>21</v>
@@ -3979,25 +3979,25 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E71" s="3">
-        <v>126844</v>
+        <v>17</v>
       </c>
       <c r="F71" s="3">
-        <v>8977</v>
+        <v>0</v>
       </c>
       <c r="G71" s="3">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="L71" t="s">
         <v>21</v>
@@ -4014,19 +4014,19 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E72" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -4049,25 +4049,25 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E73" s="3">
-        <v>61</v>
+        <v>2848</v>
       </c>
       <c r="F73" s="3">
-        <v>1</v>
+        <v>523</v>
       </c>
       <c r="G73" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
@@ -4084,22 +4084,22 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E74" s="3">
-        <v>5</v>
+        <v>226</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -4119,25 +4119,25 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E75" s="3">
-        <v>1663</v>
+        <v>1493</v>
       </c>
       <c r="F75" s="3">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="G75" s="3">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="L75" t="s">
         <v>21</v>
@@ -4154,34 +4154,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
         <v>260</v>
       </c>
       <c r="E76" s="3">
+        <v>1803</v>
+      </c>
+      <c r="F76" s="3">
+        <v>69</v>
+      </c>
+      <c r="G76" s="3">
+        <v>9</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>3</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
       </c>
       <c r="L76" t="s">
         <v>21</v>
@@ -4201,13 +4201,13 @@
         <v>264</v>
       </c>
       <c r="E77" s="3">
-        <v>269112</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3">
-        <v>5243</v>
+        <v>0</v>
       </c>
       <c r="G77" s="3">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L77" t="s">
         <v>21</v>
@@ -4230,7 +4230,7 @@
         <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
         <v>267</v>
@@ -4265,19 +4265,19 @@
         <v>269</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="D79" t="s">
         <v>270</v>
       </c>
       <c r="E79" s="3">
-        <v>1254</v>
+        <v>13154</v>
       </c>
       <c r="F79" s="3">
-        <v>138</v>
+        <v>1256</v>
       </c>
       <c r="G79" s="3">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L79" t="s">
         <v>21</v>
@@ -4300,19 +4300,19 @@
         <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D80" t="s">
         <v>273</v>
       </c>
       <c r="E80" s="3">
-        <v>75707</v>
+        <v>1274</v>
       </c>
       <c r="F80" s="3">
-        <v>4287</v>
+        <v>128</v>
       </c>
       <c r="G80" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>628</v>
+        <v>16</v>
       </c>
       <c r="L80" t="s">
         <v>21</v>
@@ -4335,19 +4335,19 @@
         <v>275</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D81" t="s">
         <v>276</v>
       </c>
       <c r="E81" s="3">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F81" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -4370,19 +4370,19 @@
         <v>278</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
         <v>279</v>
       </c>
       <c r="E82" s="3">
-        <v>5880</v>
+        <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>594</v>
+        <v>1</v>
       </c>
       <c r="G82" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="L82" t="s">
         <v>21</v>
@@ -4405,19 +4405,19 @@
         <v>281</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
         <v>282</v>
       </c>
       <c r="E83" s="3">
-        <v>8</v>
+        <v>4358</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L83" t="s">
         <v>21</v>
@@ -4440,19 +4440,19 @@
         <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
         <v>285</v>
       </c>
       <c r="E84" s="3">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F84" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G84" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L84" t="s">
         <v>21</v>
@@ -4475,16 +4475,16 @@
         <v>287</v>
       </c>
       <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
         <v>288</v>
       </c>
-      <c r="D85" t="s">
-        <v>289</v>
-      </c>
       <c r="E85" s="3">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L85" t="s">
         <v>21</v>
@@ -4504,25 +4504,25 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B86" t="s">
         <v>290</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
         <v>291</v>
       </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>292</v>
-      </c>
       <c r="E86" s="3">
-        <v>285</v>
+        <v>8</v>
       </c>
       <c r="F86" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>21</v>
@@ -4539,25 +4539,25 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" t="s">
         <v>293</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>52</v>
+      </c>
+      <c r="D87" t="s">
         <v>294</v>
       </c>
-      <c r="C87" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" t="s">
-        <v>295</v>
-      </c>
       <c r="E87" s="3">
-        <v>1386</v>
+        <v>1556</v>
       </c>
       <c r="F87" s="3">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G87" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L87" t="s">
         <v>21</v>
@@ -4574,25 +4574,25 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B88" t="s">
         <v>296</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
         <v>297</v>
       </c>
-      <c r="C88" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88" t="s">
-        <v>298</v>
-      </c>
       <c r="E88" s="3">
-        <v>1080</v>
+        <v>1593</v>
       </c>
       <c r="F88" s="3">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="G88" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L88" t="s">
         <v>21</v>
@@ -4609,25 +4609,25 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B89" t="s">
         <v>299</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" t="s">
         <v>300</v>
       </c>
-      <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" t="s">
-        <v>301</v>
-      </c>
       <c r="E89" s="3">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -4644,25 +4644,25 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B90" t="s">
         <v>302</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
         <v>303</v>
       </c>
-      <c r="C90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" t="s">
-        <v>304</v>
-      </c>
       <c r="E90" s="3">
-        <v>32</v>
+        <v>995</v>
       </c>
       <c r="F90" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G90" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L90" t="s">
         <v>21</v>
@@ -4679,25 +4679,25 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" t="s">
         <v>305</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>306</v>
-      </c>
-      <c r="C91" t="s">
-        <v>162</v>
       </c>
       <c r="D91" t="s">
         <v>307</v>
       </c>
       <c r="E91" s="3">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="F91" s="3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L91" t="s">
         <v>21</v>
@@ -4720,19 +4720,19 @@
         <v>309</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="D92" t="s">
         <v>310</v>
       </c>
       <c r="E92" s="3">
-        <v>619</v>
+        <v>61</v>
       </c>
       <c r="F92" s="3">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G92" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="s">
         <v>21</v>
@@ -4755,19 +4755,19 @@
         <v>312</v>
       </c>
       <c r="C93" t="s">
-        <v>288</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
         <v>313</v>
       </c>
       <c r="E93" s="3">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="F93" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L93" t="s">
         <v>21</v>
@@ -4790,19 +4790,19 @@
         <v>315</v>
       </c>
       <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
         <v>316</v>
       </c>
-      <c r="D94" t="s">
-        <v>317</v>
-      </c>
       <c r="E94" s="3">
-        <v>2165</v>
+        <v>5962</v>
       </c>
       <c r="F94" s="3">
-        <v>278</v>
+        <v>765</v>
       </c>
       <c r="G94" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="L94" t="s">
         <v>21</v>
@@ -4819,25 +4819,25 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B95" t="s">
         <v>318</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>199</v>
+      </c>
+      <c r="D95" t="s">
         <v>319</v>
       </c>
-      <c r="C95" t="s">
-        <v>162</v>
-      </c>
-      <c r="D95" t="s">
-        <v>320</v>
-      </c>
       <c r="E95" s="3">
-        <v>1542</v>
+        <v>1386</v>
       </c>
       <c r="F95" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G95" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L95" t="s">
         <v>21</v>
@@ -4854,25 +4854,25 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" t="s">
         <v>321</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
         <v>322</v>
       </c>
-      <c r="C96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" t="s">
-        <v>323</v>
-      </c>
       <c r="E96" s="3">
-        <v>2352</v>
+        <v>75707</v>
       </c>
       <c r="F96" s="3">
-        <v>89</v>
+        <v>4287</v>
       </c>
       <c r="G96" s="3">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="L96" t="s">
         <v>21</v>
@@ -4889,25 +4889,25 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" t="s">
         <v>324</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
         <v>325</v>
       </c>
-      <c r="C97" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" t="s">
-        <v>326</v>
-      </c>
       <c r="E97" s="3">
-        <v>1517</v>
+        <v>12342</v>
       </c>
       <c r="F97" s="3">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="G97" s="3">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="L97" t="s">
         <v>21</v>
@@ -4924,34 +4924,34 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" t="s">
         <v>327</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98" t="s">
         <v>328</v>
       </c>
-      <c r="C98" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" t="s">
-        <v>329</v>
-      </c>
       <c r="E98" s="3">
-        <v>1493</v>
+        <v>1542</v>
       </c>
       <c r="F98" s="3">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
         <v>3</v>
-      </c>
-      <c r="H98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>40</v>
       </c>
       <c r="L98" t="s">
         <v>21</v>
@@ -4959,16 +4959,16 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B99" t="s">
         <v>330</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" t="s">
         <v>331</v>
-      </c>
-      <c r="C99" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" t="s">
-        <v>332</v>
       </c>
       <c r="E99" s="3">
         <v>1330</v>
@@ -4994,25 +4994,25 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" t="s">
         <v>333</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" t="s">
         <v>334</v>
       </c>
-      <c r="C100" t="s">
-        <v>142</v>
-      </c>
-      <c r="D100" t="s">
-        <v>335</v>
-      </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>1254</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L100" t="s">
         <v>21</v>
@@ -5029,25 +5029,25 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" t="s">
         <v>336</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D101" t="s">
         <v>337</v>
       </c>
-      <c r="C101" t="s">
-        <v>338</v>
-      </c>
-      <c r="D101" t="s">
-        <v>339</v>
-      </c>
       <c r="E101" s="3">
-        <v>110</v>
+        <v>691</v>
       </c>
       <c r="F101" s="3">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5064,25 +5064,25 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B102" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" t="s">
         <v>340</v>
       </c>
-      <c r="B102" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" t="s">
-        <v>342</v>
-      </c>
       <c r="E102" s="3">
-        <v>7431</v>
+        <v>188</v>
       </c>
       <c r="F102" s="3">
-        <v>661</v>
+        <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="L102" t="s">
         <v>21</v>
@@ -5099,25 +5099,25 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
         <v>343</v>
       </c>
-      <c r="B103" t="s">
-        <v>344</v>
-      </c>
-      <c r="C103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" t="s">
-        <v>345</v>
-      </c>
       <c r="E103" s="3">
-        <v>1556</v>
+        <v>7772</v>
       </c>
       <c r="F103" s="3">
-        <v>100</v>
+        <v>239</v>
       </c>
       <c r="G103" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="K103">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L103" t="s">
         <v>21</v>
@@ -5134,25 +5134,25 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B104" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" t="s">
+        <v>203</v>
+      </c>
+      <c r="D104" t="s">
         <v>346</v>
       </c>
-      <c r="B104" t="s">
-        <v>347</v>
-      </c>
-      <c r="C104" t="s">
-        <v>252</v>
-      </c>
-      <c r="D104" t="s">
-        <v>348</v>
-      </c>
       <c r="E104" s="3">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F104" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -5169,25 +5169,25 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" t="s">
         <v>349</v>
       </c>
-      <c r="B105" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" t="s">
-        <v>142</v>
-      </c>
-      <c r="D105" t="s">
-        <v>351</v>
-      </c>
       <c r="E105" s="3">
-        <v>188</v>
+        <v>3021</v>
       </c>
       <c r="F105" s="3">
-        <v>10</v>
+        <v>580</v>
       </c>
       <c r="G105" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L105" t="s">
         <v>21</v>
@@ -5204,25 +5204,25 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B106" t="s">
+        <v>351</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
         <v>352</v>
       </c>
-      <c r="B106" t="s">
-        <v>353</v>
-      </c>
-      <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>354</v>
-      </c>
       <c r="E106" s="3">
-        <v>106303</v>
+        <v>5</v>
       </c>
       <c r="F106" s="3">
-        <v>4496</v>
+        <v>0</v>
       </c>
       <c r="G106" s="3">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>1797</v>
+        <v>0</v>
       </c>
       <c r="L106" t="s">
         <v>21</v>
@@ -5239,25 +5239,25 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B107" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" t="s">
         <v>355</v>
       </c>
-      <c r="B107" t="s">
-        <v>356</v>
-      </c>
-      <c r="C107" t="s">
-        <v>147</v>
-      </c>
-      <c r="D107" t="s">
-        <v>357</v>
-      </c>
       <c r="E107" s="3">
-        <v>5962</v>
+        <v>42</v>
       </c>
       <c r="F107" s="3">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="G107" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L107" t="s">
         <v>21</v>
@@ -5274,25 +5274,25 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B108" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
         <v>358</v>
       </c>
-      <c r="B108" t="s">
-        <v>359</v>
-      </c>
-      <c r="C108" t="s">
-        <v>151</v>
-      </c>
-      <c r="D108" t="s">
-        <v>360</v>
-      </c>
       <c r="E108" s="3">
-        <v>1274</v>
+        <v>2959</v>
       </c>
       <c r="F108" s="3">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L108" t="s">
         <v>21</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B109" t="s">
+        <v>360</v>
+      </c>
+      <c r="C109" t="s">
         <v>361</v>
       </c>
-      <c r="B109" t="s">
+      <c r="D109" t="s">
         <v>362</v>
       </c>
-      <c r="C109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" t="s">
-        <v>363</v>
-      </c>
       <c r="E109" s="3">
-        <v>4358</v>
+        <v>110</v>
       </c>
       <c r="F109" s="3">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="G109" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="L109" t="s">
         <v>21</v>
@@ -5344,25 +5344,25 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" t="s">
         <v>364</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" t="s">
         <v>365</v>
       </c>
-      <c r="C110" t="s">
-        <v>151</v>
-      </c>
-      <c r="D110" t="s">
-        <v>366</v>
-      </c>
       <c r="E110" s="3">
-        <v>653</v>
+        <v>94</v>
       </c>
       <c r="F110" s="3">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="G110" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L110" t="s">
         <v>21</v>
@@ -5379,22 +5379,22 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B111" t="s">
         <v>367</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>199</v>
+      </c>
+      <c r="D111" t="s">
         <v>368</v>
       </c>
-      <c r="C111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" t="s">
-        <v>369</v>
-      </c>
       <c r="E111" s="3">
-        <v>52</v>
+        <v>691</v>
       </c>
       <c r="F111" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G111" s="3">
         <v>0</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L111" t="s">
         <v>21</v>
@@ -5414,25 +5414,25 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" t="s">
         <v>370</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" t="s">
         <v>371</v>
       </c>
-      <c r="C112" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" t="s">
-        <v>372</v>
-      </c>
       <c r="E112" s="3">
-        <v>578</v>
+        <v>1185</v>
       </c>
       <c r="F112" s="3">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G112" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
@@ -5441,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L112" t="s">
         <v>21</v>
@@ -5449,25 +5449,25 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B113" t="s">
         <v>373</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" t="s">
         <v>374</v>
       </c>
-      <c r="C113" t="s">
-        <v>162</v>
-      </c>
-      <c r="D113" t="s">
-        <v>375</v>
-      </c>
       <c r="E113" s="3">
-        <v>357</v>
+        <v>5880</v>
       </c>
       <c r="F113" s="3">
-        <v>13</v>
+        <v>594</v>
       </c>
       <c r="G113" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
@@ -5476,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="L113" t="s">
         <v>21</v>
@@ -5484,19 +5484,19 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B114" t="s">
         <v>376</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>263</v>
+      </c>
+      <c r="D114" t="s">
         <v>377</v>
       </c>
-      <c r="C114" t="s">
-        <v>185</v>
-      </c>
-      <c r="D114" t="s">
-        <v>378</v>
-      </c>
       <c r="E114" s="3">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -5519,25 +5519,25 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" t="s">
         <v>379</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
         <v>380</v>
       </c>
-      <c r="C115" t="s">
-        <v>147</v>
-      </c>
-      <c r="D115" t="s">
-        <v>381</v>
-      </c>
       <c r="E115" s="3">
-        <v>13154</v>
+        <v>60</v>
       </c>
       <c r="F115" s="3">
-        <v>1256</v>
+        <v>2</v>
       </c>
       <c r="G115" s="3">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="L115" t="s">
         <v>21</v>
@@ -5554,25 +5554,25 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B116" t="s">
         <v>382</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>383</v>
-      </c>
-      <c r="C116" t="s">
-        <v>212</v>
       </c>
       <c r="D116" t="s">
         <v>384</v>
       </c>
       <c r="E116" s="3">
-        <v>995</v>
+        <v>3</v>
       </c>
       <c r="F116" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G116" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L116" t="s">
         <v>21</v>
@@ -5595,19 +5595,19 @@
         <v>386</v>
       </c>
       <c r="C117" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
         <v>387</v>
       </c>
       <c r="E117" s="3">
-        <v>12342</v>
+        <v>619</v>
       </c>
       <c r="F117" s="3">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="G117" s="3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="L117" t="s">
         <v>21</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>132120</v>
@@ -5774,7 +5774,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="B3">
         <v>34344</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B4">
         <v>32669</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>29560</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>22006</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>6528</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>5266</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <v>3753</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3353</v>
@@ -5838,7 +5838,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>3177</v>
@@ -5846,7 +5846,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="B12">
         <v>1500</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B13">
         <v>674</v>
@@ -5862,7 +5862,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>619</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B15">
         <v>258</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>127</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B17">
         <v>66</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>55</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>52</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -5926,7 +5926,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
       <c r="B27">
         <v>0</v>
